--- a/data/worldometer global/20-11-19 Global wom raw data.xlsx
+++ b/data/worldometer global/20-11-19 Global wom raw data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/worldometer global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{F49BF46C-0CB3-4622-9C40-764DB0C4B76E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E775664-5438-4EBE-8080-606E65A6D5B4}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{F49BF46C-0CB3-4622-9C40-764DB0C4B76E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9A7189E1-32C8-4104-8715-DBAD9EBFE91C}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="-21090" windowWidth="22530" windowHeight="19740" activeTab="1" xr2:uid="{8E47FD39-2E4A-43A8-AC2E-E8221A8D475B}"/>
+    <workbookView xWindow="2940" yWindow="-21315" windowWidth="20520" windowHeight="20505" activeTab="1" xr2:uid="{8E47FD39-2E4A-43A8-AC2E-E8221A8D475B}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -1399,7 +1399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F18C471-AD1F-4B8D-873E-6BF836B63BEB}">
   <dimension ref="A1:O222"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:N222"/>
     </sheetView>
   </sheetViews>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -10313,438 +10313,438 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{742202B6-806E-4FB1-819F-2AAB06095FFC}"/>
-    <hyperlink ref="N3" r:id="rId2" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{50DAE91F-CCD7-4F97-B7B3-C4E35B51A130}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{9CDFEAB5-F7B6-4712-BC62-08C5C8CFD5E4}"/>
-    <hyperlink ref="N4" r:id="rId4" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{40A9F131-8D22-4607-B61D-A73A00549ACD}"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{7E286279-C945-4A8B-8ED6-4E97B40F4696}"/>
-    <hyperlink ref="N5" r:id="rId6" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{79F25847-8091-4028-B168-DE5B8A68B58F}"/>
-    <hyperlink ref="B6" r:id="rId7" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{C45D3CD1-F802-4A51-8CB9-AE664731D025}"/>
-    <hyperlink ref="N6" r:id="rId8" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{AEDA166E-668D-41B7-9E6D-AE8CE37C6D85}"/>
-    <hyperlink ref="B7" r:id="rId9" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{F879DB00-E076-4DBA-B6F3-169EAD62B844}"/>
-    <hyperlink ref="N7" r:id="rId10" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{8329DBD5-28D4-463F-B23E-382C3358FC62}"/>
-    <hyperlink ref="B8" r:id="rId11" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{7CFDA830-EE6B-4D67-AB34-D75D4848DD17}"/>
-    <hyperlink ref="N8" r:id="rId12" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{E4CE90D0-5C7A-4978-99B9-9640A020FC9A}"/>
-    <hyperlink ref="B9" r:id="rId13" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{249D5DD7-850D-4541-ACDB-1FE6C38D894B}"/>
-    <hyperlink ref="N9" r:id="rId14" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{DC9D2C81-96C1-4E6E-B322-CB963E5E8C5D}"/>
-    <hyperlink ref="B10" r:id="rId15" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{B6895708-D585-4E71-B40E-441BA45D1575}"/>
-    <hyperlink ref="N10" r:id="rId16" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{9BDA53DE-C5AE-47AA-879D-E04F0DFBBD12}"/>
-    <hyperlink ref="B11" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{6B133CDF-059F-47D9-A4DB-CB06218842C9}"/>
-    <hyperlink ref="N11" r:id="rId18" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{5CF46716-B0C6-4C45-A1F6-6AEB4521E6B7}"/>
-    <hyperlink ref="B12" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{312C2ED8-F47D-430C-9C2A-E5F1C5782150}"/>
-    <hyperlink ref="N12" r:id="rId20" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{12797742-4CE3-40E3-8BAE-A76F8235A9E4}"/>
-    <hyperlink ref="B13" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{AD767601-98B6-45B2-B509-E6E2D8533C1C}"/>
-    <hyperlink ref="N13" r:id="rId22" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{7A19807D-6586-4F3D-A4D9-790EBE3BACDA}"/>
-    <hyperlink ref="B14" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{166B33C0-F0F6-4539-B1E3-711DB11D91CD}"/>
-    <hyperlink ref="N14" r:id="rId24" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{4A28A774-A13E-403C-990D-D612D8FE19E0}"/>
-    <hyperlink ref="B15" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{976216D5-A2FE-4D6A-B399-B24F2FD218C0}"/>
-    <hyperlink ref="N15" r:id="rId26" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{FB0E00EE-6622-41DD-9216-5262FBCCBC3F}"/>
-    <hyperlink ref="B16" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{5346C264-C60B-435C-8266-827EDBE00DAA}"/>
-    <hyperlink ref="N16" r:id="rId28" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{CE1671D4-F268-4A21-8667-7141CC870ECF}"/>
-    <hyperlink ref="B17" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{AC83AD0B-1A3F-47B6-8A53-7D4E330F2FB5}"/>
-    <hyperlink ref="N17" r:id="rId30" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{68E61EB0-99E5-46F6-8A91-E55931291580}"/>
-    <hyperlink ref="B18" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{5973F610-41F2-462A-A3E8-20795222BF97}"/>
-    <hyperlink ref="N18" r:id="rId32" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{A8112B0A-EF41-4232-88B8-48E90CBE63FE}"/>
-    <hyperlink ref="B19" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{C667A049-A472-4A3F-A03B-085222C8F484}"/>
-    <hyperlink ref="N19" r:id="rId34" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{E53E25BC-5C64-4AC1-8270-1B718F5E26BA}"/>
-    <hyperlink ref="B20" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{273E1506-3E45-4B9A-BB95-C8BFD8339994}"/>
-    <hyperlink ref="N20" r:id="rId36" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{C725F2FA-B114-40A4-834E-586ED5FC2D76}"/>
-    <hyperlink ref="B21" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{180DD7B7-ADCA-46F9-827B-24C706738CA7}"/>
-    <hyperlink ref="N21" r:id="rId38" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{494BA5CE-3E85-4555-BC2F-91BBB7DF7285}"/>
-    <hyperlink ref="B22" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{224579F0-1D01-4AEF-8C62-ED45C0025158}"/>
-    <hyperlink ref="N22" r:id="rId40" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{9EC023D7-1E41-4C10-B577-D1145A2CC942}"/>
-    <hyperlink ref="B23" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{5DB8BDCB-350D-4B95-942F-BDE431F5B2CC}"/>
-    <hyperlink ref="N23" r:id="rId42" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{D1032CF1-99E9-4CCA-B215-79FD7DAE5B65}"/>
-    <hyperlink ref="B24" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{D24146AB-0868-423D-9CE3-6FBD5638774A}"/>
-    <hyperlink ref="N24" r:id="rId44" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{66C9F702-FD21-4573-97DB-CAF76F037A02}"/>
-    <hyperlink ref="B25" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{C94A640D-2C82-405C-850B-DF1F1E52DD2B}"/>
-    <hyperlink ref="N25" r:id="rId46" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{C3F9D9A4-D459-4B50-A89E-F9E14BD42445}"/>
-    <hyperlink ref="B26" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{1DEECBEC-E6CA-4C2A-B1F0-9DBFCAD78076}"/>
-    <hyperlink ref="N26" r:id="rId48" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{290C2C8B-1942-4B8E-AC90-7C36FE491CD8}"/>
-    <hyperlink ref="B27" r:id="rId49" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{A4D0AF88-A83A-42BC-942B-68989408B54F}"/>
-    <hyperlink ref="N27" r:id="rId50" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{A63B4444-E5F4-4885-A2F4-5FD583C89D69}"/>
-    <hyperlink ref="B28" r:id="rId51" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{8904F934-06F8-49D1-B56F-859E5C3E111D}"/>
-    <hyperlink ref="N28" r:id="rId52" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{9DEA29E1-EBA2-4D4D-8FEE-B203B5BF25AA}"/>
-    <hyperlink ref="B29" r:id="rId53" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{F7C47BB3-71E2-460E-8CDA-B0A82CE76792}"/>
-    <hyperlink ref="N29" r:id="rId54" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{77524DBF-4B04-4081-817D-CFDE9B030471}"/>
-    <hyperlink ref="B30" r:id="rId55" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{CAECD6D4-307C-4AB0-9749-E700DF981976}"/>
-    <hyperlink ref="N30" r:id="rId56" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{F64933FB-2351-492F-9452-DA651FA0FC2B}"/>
-    <hyperlink ref="B31" r:id="rId57" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{9C491787-79DB-4528-8AD0-258CD710B743}"/>
-    <hyperlink ref="N31" r:id="rId58" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{1D432D29-C8DC-459F-80CA-7AC23CB194B0}"/>
-    <hyperlink ref="B32" r:id="rId59" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{872CA275-1A58-4849-9021-BD694FC147ED}"/>
-    <hyperlink ref="B33" r:id="rId60" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{F26AEF1B-1ABC-4FCA-A5E8-99C3997737A4}"/>
-    <hyperlink ref="N33" r:id="rId61" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{709BF83E-D4D4-4D26-B3E6-869C348257A8}"/>
-    <hyperlink ref="B34" r:id="rId62" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{3C759AEA-E9D8-414F-AF39-96815D06569B}"/>
-    <hyperlink ref="N34" r:id="rId63" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{D4216F0C-78A1-4782-8677-F09C8FDDC7ED}"/>
-    <hyperlink ref="B35" r:id="rId64" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{6819C2A3-F9F0-4A9C-8365-FD2D6CD44BFC}"/>
-    <hyperlink ref="N35" r:id="rId65" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{DBD50EC0-CC13-4332-B757-3E31899E3958}"/>
-    <hyperlink ref="B36" r:id="rId66" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{6056C90B-02E8-4565-98B8-544E07DD1A46}"/>
-    <hyperlink ref="N36" r:id="rId67" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{A992F86C-4DD2-469F-BDB6-BDBE64B27A67}"/>
-    <hyperlink ref="B37" r:id="rId68" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{1412CD6D-A0D5-4388-8F64-7F381557C889}"/>
-    <hyperlink ref="N37" r:id="rId69" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{3647BE16-1809-4434-924E-84ECED7D139D}"/>
-    <hyperlink ref="B38" r:id="rId70" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{147E0D1B-16AF-481B-867F-8343D6C121ED}"/>
-    <hyperlink ref="N38" r:id="rId71" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{E1A2A742-7F14-46DF-9CAD-0801B23CA930}"/>
-    <hyperlink ref="B39" r:id="rId72" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{1C231C6E-FFC1-46EE-BEF3-036441656D10}"/>
-    <hyperlink ref="N39" r:id="rId73" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{94FA476A-FEA2-441D-824B-0709AA13D6D1}"/>
-    <hyperlink ref="B40" r:id="rId74" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{BDF681E8-F7E8-4EA4-A6CC-D5223B2A6410}"/>
-    <hyperlink ref="N40" r:id="rId75" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{20A5E9C9-E18E-47C7-B714-7EFF1B5A6C36}"/>
-    <hyperlink ref="B41" r:id="rId76" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{357268EA-6428-4B80-B369-D2ECFC8346C1}"/>
-    <hyperlink ref="N41" r:id="rId77" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{D8623E97-1D39-4C22-A597-9226E3F0590E}"/>
-    <hyperlink ref="B42" r:id="rId78" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{3B381505-E8CA-4077-ADDA-2A6C50DEA9AA}"/>
-    <hyperlink ref="N42" r:id="rId79" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{56A5F7FF-DAB7-42B6-B9B4-B260E5BB5434}"/>
-    <hyperlink ref="B43" r:id="rId80" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{65F6AE0B-21F8-4666-BC0A-F9F6381AAADA}"/>
-    <hyperlink ref="N43" r:id="rId81" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{82C93AA7-1D67-469A-A657-8C197452CB58}"/>
-    <hyperlink ref="B44" r:id="rId82" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{CEEEE425-104A-4CF2-8ADC-4A1A293D353C}"/>
-    <hyperlink ref="N44" r:id="rId83" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{0EFE27E9-AE43-446C-857E-D5188FA7542D}"/>
-    <hyperlink ref="B45" r:id="rId84" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{04361B6D-AF17-4521-A86D-19F17A501CE7}"/>
-    <hyperlink ref="N45" r:id="rId85" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{4B0F80D4-3655-4B0F-87A2-AE0B95FBE03F}"/>
-    <hyperlink ref="B46" r:id="rId86" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{276344D7-0C1F-4093-A06F-78902788EE07}"/>
-    <hyperlink ref="N46" r:id="rId87" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{774373BB-339A-4238-ABEC-F3130F3FE4AE}"/>
-    <hyperlink ref="B47" r:id="rId88" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{9FCD6F05-F814-47F5-B6E7-81FD132CA5F4}"/>
-    <hyperlink ref="B48" r:id="rId89" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{11F36813-0E2C-416E-8FC7-A7D772F05DE1}"/>
-    <hyperlink ref="N48" r:id="rId90" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{95A53A23-E33B-472E-AB1D-D6EE5A1B6532}"/>
-    <hyperlink ref="B49" r:id="rId91" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{43A907CA-ADCF-45E1-AD5D-BC32569F71B3}"/>
-    <hyperlink ref="N49" r:id="rId92" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{2E6B62CF-BD4C-41AD-94FD-77C540EAD18A}"/>
-    <hyperlink ref="B50" r:id="rId93" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{95002A70-1060-4D2D-B7B9-BFD216265553}"/>
-    <hyperlink ref="N50" r:id="rId94" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{03632035-F7DF-4D55-982C-DF67A9CDA6BF}"/>
-    <hyperlink ref="B51" r:id="rId95" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{C251E662-C3D9-4FE1-9D26-6DC68514C953}"/>
-    <hyperlink ref="N51" r:id="rId96" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{230A3B9B-0572-4A96-914B-45F7FC1D34AB}"/>
-    <hyperlink ref="B52" r:id="rId97" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{2C40EEED-8B4E-49E8-A4A2-2E1DF64007BB}"/>
-    <hyperlink ref="N52" r:id="rId98" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{5822B4BB-81BE-412D-A408-EAA94CF55BEF}"/>
-    <hyperlink ref="B53" r:id="rId99" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{DFD69721-AE7E-4F18-A06D-C8FE3C03BCCE}"/>
-    <hyperlink ref="N53" r:id="rId100" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{E94DC2C4-D0F3-40A6-8E53-3576E2E6AF93}"/>
-    <hyperlink ref="B54" r:id="rId101" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{B4670593-80E5-45F7-BB35-9D304AE415B6}"/>
-    <hyperlink ref="N54" r:id="rId102" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{5F17E413-9E94-434C-A060-86E1D8057C0E}"/>
-    <hyperlink ref="B55" r:id="rId103" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{E6B9394F-CFE2-4315-A719-CEEBF8884F71}"/>
-    <hyperlink ref="N55" r:id="rId104" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{EAA57DCC-BCE5-40E0-8F3D-A897E9CA8602}"/>
-    <hyperlink ref="B56" r:id="rId105" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{8AB25318-CDE6-452C-837A-AD7CA8781E71}"/>
-    <hyperlink ref="N56" r:id="rId106" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{A87253D9-ABAC-4B61-B7AD-08F84838A501}"/>
-    <hyperlink ref="B57" r:id="rId107" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{739C8C1F-13FB-424C-A463-A0984093239C}"/>
-    <hyperlink ref="N57" r:id="rId108" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{D6379F59-29D0-48E6-A984-6948C141C824}"/>
-    <hyperlink ref="B58" r:id="rId109" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{8F26AD11-705B-4993-A4AE-B2CBDCB850D6}"/>
-    <hyperlink ref="N58" r:id="rId110" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{80DDB970-14BA-4CB7-9DD8-4E595934BA54}"/>
-    <hyperlink ref="B59" r:id="rId111" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{35C01EFC-5830-4FBF-B42A-9CD58A87252C}"/>
-    <hyperlink ref="N59" r:id="rId112" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{A1D8CF3A-F432-45D6-B497-DB4EE474772A}"/>
-    <hyperlink ref="B60" r:id="rId113" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{5F3574BE-F83B-430E-9CDD-3F4489B76FAB}"/>
-    <hyperlink ref="N60" r:id="rId114" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{E74AD379-5C72-469E-863F-1F1826F4EDC5}"/>
-    <hyperlink ref="B61" r:id="rId115" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{1D1E947B-127E-46C9-AABC-6EB22E3B01A1}"/>
-    <hyperlink ref="N61" r:id="rId116" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{8844B38D-10E0-4842-BAD2-8F7CC9D08191}"/>
-    <hyperlink ref="B62" r:id="rId117" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{999D058B-8B9E-4A47-B275-6E373FBFB6CC}"/>
-    <hyperlink ref="N62" r:id="rId118" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{DDFF2BD9-00DB-45E0-894E-6CCB72B10993}"/>
-    <hyperlink ref="B63" r:id="rId119" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{B4C323D6-59AF-4A7D-A7D2-6B6A7359AA81}"/>
-    <hyperlink ref="N63" r:id="rId120" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{B0B6BF77-36A7-4730-95BF-B0264DE140B6}"/>
-    <hyperlink ref="B64" r:id="rId121" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{76FFE102-37C5-4AA2-AAC7-6AAB2A3C55A6}"/>
-    <hyperlink ref="N64" r:id="rId122" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{AE3101F0-5C91-40E1-A047-79ECAF026108}"/>
-    <hyperlink ref="B65" r:id="rId123" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{57F4219E-3B4D-404A-9957-0D33EDD5CEC1}"/>
-    <hyperlink ref="N65" r:id="rId124" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{043FCC2E-C482-47AC-B252-F95507178494}"/>
-    <hyperlink ref="B66" r:id="rId125" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{F3E529B3-11F4-40FA-9581-DC757C752A37}"/>
-    <hyperlink ref="N66" r:id="rId126" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{EE7FC0D2-2679-4F7B-ABD6-4A5821DE64BF}"/>
-    <hyperlink ref="B67" r:id="rId127" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{ACACC197-B58E-479C-B08E-FA253850890D}"/>
-    <hyperlink ref="B68" r:id="rId128" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{B5A3B496-F80F-451E-85DE-7918FC1F3B2C}"/>
-    <hyperlink ref="N68" r:id="rId129" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{40F5ADA9-B7FD-45AD-A277-B1C7472AFA3A}"/>
-    <hyperlink ref="B69" r:id="rId130" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{BD0BB4F5-5D93-49EA-BBE9-60E3514AA087}"/>
-    <hyperlink ref="N69" r:id="rId131" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{09919C4F-9DAA-43BD-A7B0-9F630ECDAEAE}"/>
-    <hyperlink ref="B70" r:id="rId132" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{B859F546-A153-4478-A1C9-CB18AC7C01BA}"/>
-    <hyperlink ref="N70" r:id="rId133" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{51ED5A8D-FA19-4943-99F0-EB1A220D6347}"/>
-    <hyperlink ref="B71" r:id="rId134" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{2D208A1E-121F-4F5F-BD8F-5BD5285288A6}"/>
-    <hyperlink ref="N71" r:id="rId135" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{144C6103-E50B-48C8-85DC-E1D306F0F785}"/>
-    <hyperlink ref="B72" r:id="rId136" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{A626603B-04AD-4DAD-B210-DC60696B35ED}"/>
-    <hyperlink ref="N72" r:id="rId137" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{3A0BE745-A64F-4FB1-88BD-EF6E61D3453C}"/>
-    <hyperlink ref="B73" r:id="rId138" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{BB180E3E-4B99-48C1-B823-28F3E0F73762}"/>
-    <hyperlink ref="N73" r:id="rId139" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{80200EF7-40BA-44F8-BA25-D89769D6BF20}"/>
-    <hyperlink ref="B74" r:id="rId140" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{724ABF1E-352D-4F31-BC3B-2BA62B92C2E9}"/>
-    <hyperlink ref="N74" r:id="rId141" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{E85A05EB-6E8A-4262-B8AF-8969ED6AEAD3}"/>
-    <hyperlink ref="B75" r:id="rId142" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{0C03D749-8070-44CD-9465-E6293D657CD5}"/>
-    <hyperlink ref="N75" r:id="rId143" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{94D1B702-55E0-4256-8F77-B8E5EB3CD678}"/>
-    <hyperlink ref="B76" r:id="rId144" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{2EE041BF-F85C-4FD4-8AD3-71196A830298}"/>
-    <hyperlink ref="N76" r:id="rId145" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{7F5E080F-C86A-4AF8-936B-87254CC9D1BE}"/>
-    <hyperlink ref="B77" r:id="rId146" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{038FCDFA-00C6-4007-BF80-074EA9685082}"/>
-    <hyperlink ref="N77" r:id="rId147" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{508FF63D-3F49-404E-B1AF-8B8D04161C3A}"/>
-    <hyperlink ref="B78" r:id="rId148" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{F22208E5-AFFB-4636-B23C-5435A0A309DD}"/>
-    <hyperlink ref="N78" r:id="rId149" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{90AB3DB4-1F11-471B-9228-596AFDEA2053}"/>
-    <hyperlink ref="B79" r:id="rId150" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{A6D0B93A-439E-4CBB-82D1-0B982996F72E}"/>
-    <hyperlink ref="N79" r:id="rId151" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{3AE249D9-82C6-4478-A565-303CC0603139}"/>
-    <hyperlink ref="B80" r:id="rId152" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{B7DC9E37-4036-47D1-97FD-0CB2D6B0B625}"/>
-    <hyperlink ref="N80" r:id="rId153" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{1A5C1FC1-C5A3-42B0-973C-F8D579588C67}"/>
-    <hyperlink ref="B81" r:id="rId154" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{907C3489-AD9E-45B4-AF75-2B858FB894BE}"/>
-    <hyperlink ref="N81" r:id="rId155" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{40596817-213E-4506-8BFF-C3FF17D557ED}"/>
-    <hyperlink ref="B82" r:id="rId156" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{AA518808-80B9-4CD3-83C2-385B975BC5A9}"/>
-    <hyperlink ref="N82" r:id="rId157" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{850F1034-EBDE-4CBA-839D-508653D596D6}"/>
-    <hyperlink ref="B83" r:id="rId158" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{CEFA24E5-94D3-4F1A-877F-2EA56B08C522}"/>
-    <hyperlink ref="N83" r:id="rId159" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{92C0EC9E-87D7-4015-BCD6-386E9ADDA442}"/>
-    <hyperlink ref="B84" r:id="rId160" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{45FCFB00-EB7A-4657-8E3B-C56475C7175B}"/>
-    <hyperlink ref="N84" r:id="rId161" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{BF7A06DB-007F-421C-AC33-D953EA0BAA18}"/>
-    <hyperlink ref="B85" r:id="rId162" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{163C3438-E930-4538-9CBF-0BCE8DB0AF5C}"/>
-    <hyperlink ref="N85" r:id="rId163" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{A0F44FB2-425E-4A34-B19B-672BDBC2C9EF}"/>
-    <hyperlink ref="B86" r:id="rId164" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{F85B4965-93BE-4111-839E-1950C64D7985}"/>
-    <hyperlink ref="N86" r:id="rId165" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{0057E437-7C8B-40AC-9DF7-EF7BE80C1590}"/>
-    <hyperlink ref="B87" r:id="rId166" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{742B146B-4BEB-45D0-A8FB-6968A21EDD8A}"/>
-    <hyperlink ref="N87" r:id="rId167" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{A034440C-D45A-48D3-88EE-51C251ED1BF9}"/>
-    <hyperlink ref="B88" r:id="rId168" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{2A090642-314A-4629-A602-FD3D6F17B54C}"/>
-    <hyperlink ref="N88" r:id="rId169" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{E2BF4789-2A48-42CC-976D-725502937E8B}"/>
-    <hyperlink ref="B89" r:id="rId170" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{BE275114-0CE5-4169-B634-83E9BEA8EA2A}"/>
-    <hyperlink ref="N89" r:id="rId171" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{8BD4A02C-4A94-453B-8B37-FCD4291E3561}"/>
-    <hyperlink ref="B90" r:id="rId172" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{C81C950B-5885-40C3-AA3D-73F2CEFA4428}"/>
-    <hyperlink ref="N90" r:id="rId173" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{9E8D706A-543C-4596-8DE4-C66ABFE550E0}"/>
-    <hyperlink ref="B91" r:id="rId174" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{39D26098-AE2C-4CB2-8605-CBA132A81D5C}"/>
-    <hyperlink ref="N91" r:id="rId175" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{8B4C074F-8399-4DAE-861F-6E5A78511B32}"/>
-    <hyperlink ref="B92" r:id="rId176" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{64EE85E0-1BC8-4891-8EB5-A74FE168204B}"/>
-    <hyperlink ref="N92" r:id="rId177" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{FE95A426-2F30-4C2B-93BF-8BE5B9CA84F3}"/>
-    <hyperlink ref="B93" r:id="rId178" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{3F11D0D2-6263-4A1F-BF07-8545207FFBF0}"/>
-    <hyperlink ref="N93" r:id="rId179" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{AC771B73-0508-4A80-A401-65A1F20E145D}"/>
-    <hyperlink ref="B94" r:id="rId180" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{36BD09B7-7C04-4EE9-8DBF-7D5CBBAD3B46}"/>
-    <hyperlink ref="N94" r:id="rId181" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{17F86AFA-89AE-442B-9465-10B71E62B458}"/>
-    <hyperlink ref="B95" r:id="rId182" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{AEF7A092-D2FB-4CCA-892B-9EE56D34DBFD}"/>
-    <hyperlink ref="N95" r:id="rId183" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{188C6C37-C2B8-4149-ACDB-BE2D4C88DBCF}"/>
-    <hyperlink ref="B96" r:id="rId184" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{DB34172A-11DB-482A-A05A-A834A95C89C3}"/>
-    <hyperlink ref="N96" r:id="rId185" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{E8AB3339-710D-4F34-BA45-7158436C3126}"/>
-    <hyperlink ref="B97" r:id="rId186" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{F665E6CF-C0E6-490C-A091-E42B0EB6F288}"/>
-    <hyperlink ref="N97" r:id="rId187" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{05E349BD-5CEA-4E4B-BE3A-F901D96BCAE2}"/>
-    <hyperlink ref="B98" r:id="rId188" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{7984F9D9-A8E8-4DFA-948B-6D6CC7631284}"/>
-    <hyperlink ref="N98" r:id="rId189" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{9DB35D4B-21B3-4350-9A2D-44BAEFA02356}"/>
-    <hyperlink ref="B99" r:id="rId190" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{43F6871E-106E-4159-A5DA-614A8E6B0B31}"/>
-    <hyperlink ref="N99" r:id="rId191" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{0641C97F-7101-4111-8E54-B602299A841C}"/>
-    <hyperlink ref="B100" r:id="rId192" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{81A0CE12-CFDB-4BD1-B96C-00A8EDB4611D}"/>
-    <hyperlink ref="N100" r:id="rId193" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{7A1AFB2C-2E75-47D9-B7B0-584BAAE05B51}"/>
-    <hyperlink ref="B101" r:id="rId194" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{456F9E63-592B-44E0-B55C-FC1570F982C9}"/>
-    <hyperlink ref="N101" r:id="rId195" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{542E1A13-A41D-4F4E-B632-0D0C5DA49A4B}"/>
-    <hyperlink ref="B102" r:id="rId196" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{8571642B-3571-4A3A-9B14-4E95747D4009}"/>
-    <hyperlink ref="N102" r:id="rId197" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{E3016AB5-90B7-497D-98AD-9096194A8D7B}"/>
-    <hyperlink ref="B103" r:id="rId198" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{91C5E942-B6A6-4550-A41F-1866ED0F54D9}"/>
-    <hyperlink ref="N103" r:id="rId199" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{95571891-FE67-4712-8EEE-F9C28FCA9C8C}"/>
-    <hyperlink ref="B104" r:id="rId200" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{B2782A12-8B36-4A25-A250-97971031421F}"/>
-    <hyperlink ref="N104" r:id="rId201" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{A314B1AF-E235-4AE7-9A5A-F269033A0EC7}"/>
-    <hyperlink ref="B105" r:id="rId202" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{B3157AE6-BDDE-440C-A5F4-FBB01AD0F5AD}"/>
-    <hyperlink ref="N105" r:id="rId203" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{6C210646-75FF-46DB-97A2-375E37E90AE8}"/>
-    <hyperlink ref="B106" r:id="rId204" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{41BFF046-D8C3-4F69-9D39-3BBE28642E6D}"/>
-    <hyperlink ref="N106" r:id="rId205" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{4806043F-8114-467D-AD8F-72B3AF35C261}"/>
-    <hyperlink ref="B107" r:id="rId206" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{A6A0C83A-916B-4F70-8D2B-629A93DB47F8}"/>
-    <hyperlink ref="N107" r:id="rId207" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{412A82F3-A1D3-4299-A62C-B20C6E3CC8F8}"/>
-    <hyperlink ref="B108" r:id="rId208" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{6EB63E22-903F-4EF9-B8AD-35A4EBFC2BE7}"/>
-    <hyperlink ref="N108" r:id="rId209" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{DE289493-93D3-4229-A664-8B0FA350A458}"/>
-    <hyperlink ref="B109" r:id="rId210" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{16F0BE5E-D62F-4BD1-8D43-2191B038529D}"/>
-    <hyperlink ref="N109" r:id="rId211" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{1CFDC8D0-EF99-460D-A74D-B8C52212CD77}"/>
-    <hyperlink ref="B110" r:id="rId212" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{8874DF0F-C97F-494C-8183-9B5DE8206F7D}"/>
-    <hyperlink ref="N110" r:id="rId213" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{3BB245DD-441D-448D-A49E-1B39AC03DC25}"/>
-    <hyperlink ref="B111" r:id="rId214" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{F8655EE1-4D23-401B-81DE-38A9E01F2D84}"/>
-    <hyperlink ref="N111" r:id="rId215" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{24036361-E24E-4900-8099-B5914FD8D44E}"/>
-    <hyperlink ref="B112" r:id="rId216" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{26088958-5F68-4880-81FD-B1E769578045}"/>
-    <hyperlink ref="N112" r:id="rId217" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{BBC3D8E1-1349-4067-9890-76C51BF66DDB}"/>
-    <hyperlink ref="B113" r:id="rId218" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{DB844F4A-AB30-4F9A-BD1C-D337973E4CD4}"/>
-    <hyperlink ref="N113" r:id="rId219" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{37267130-8316-409F-BD49-76B9DE440C63}"/>
-    <hyperlink ref="B114" r:id="rId220" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{A7CE30F5-5D4E-470C-BF1C-5B9ED861D853}"/>
-    <hyperlink ref="N114" r:id="rId221" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{3DECDE15-5947-47C9-9C76-D97CB3525475}"/>
-    <hyperlink ref="B115" r:id="rId222" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{4102B96E-5E4B-48D2-A0A6-916284FD1B45}"/>
-    <hyperlink ref="N115" r:id="rId223" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{1D8CBFED-A8EE-4948-A82D-7C987E995278}"/>
-    <hyperlink ref="B116" r:id="rId224" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{55339C83-C510-44BB-B1AB-BBF834F59B55}"/>
-    <hyperlink ref="N116" r:id="rId225" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{098BEE02-F4DF-4E77-A006-4E1E07F58392}"/>
-    <hyperlink ref="B117" r:id="rId226" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{AF3097B6-6F8A-4940-9B59-DBD63ACF92E8}"/>
-    <hyperlink ref="N117" r:id="rId227" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{C415CEA3-B5EC-48B3-BF62-88373D480E1E}"/>
-    <hyperlink ref="B118" r:id="rId228" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{5097D395-FAC2-4229-A4F4-BF83900C6038}"/>
-    <hyperlink ref="N118" r:id="rId229" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{A997002E-AFDC-490B-837B-17774F29B537}"/>
-    <hyperlink ref="B119" r:id="rId230" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{324C2F35-D576-4A66-A5A1-4214D19059CB}"/>
-    <hyperlink ref="N119" r:id="rId231" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{7C48B180-3139-4581-B2D1-A03BCE4A7F8B}"/>
-    <hyperlink ref="B120" r:id="rId232" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{EE5281AF-408E-442C-9587-305156DD769A}"/>
-    <hyperlink ref="N120" r:id="rId233" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{D71A775F-AB09-4D23-8683-7FCC63B73C20}"/>
-    <hyperlink ref="B121" r:id="rId234" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{75B02F00-80C2-4B00-8C57-C63A1432C454}"/>
-    <hyperlink ref="N121" r:id="rId235" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{9C0F385A-7DB3-415C-BF7A-B947F0FCDC1B}"/>
-    <hyperlink ref="B122" r:id="rId236" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{1B77E9CA-F674-4140-BD5B-E256F8ED743C}"/>
-    <hyperlink ref="N122" r:id="rId237" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{EB0A386A-C225-460F-B535-4881B112ED0F}"/>
-    <hyperlink ref="B123" r:id="rId238" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{EB229802-17B2-4103-9F03-DF1EAFCA1AF6}"/>
-    <hyperlink ref="N123" r:id="rId239" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{7A5089D0-A12A-4F48-9875-C3CFD222AD7A}"/>
-    <hyperlink ref="B124" r:id="rId240" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{37BB4B27-AF09-40E7-B7F1-95C8711EB4D8}"/>
-    <hyperlink ref="N124" r:id="rId241" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{5789CBF9-672B-49EE-B07F-8BDBAC13D21E}"/>
-    <hyperlink ref="B125" r:id="rId242" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{D862B916-5ABE-4634-A309-70AC9F0692D8}"/>
-    <hyperlink ref="N125" r:id="rId243" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{C62F6743-4242-40C2-AFAB-EB7609131E8F}"/>
-    <hyperlink ref="B126" r:id="rId244" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{89864578-60FF-4E23-AC8E-EC842E9A8C4C}"/>
-    <hyperlink ref="N126" r:id="rId245" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{E9868A39-70A5-468D-BC58-24880FDD5579}"/>
-    <hyperlink ref="B127" r:id="rId246" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{DC16B43B-5A96-4C1C-B086-2253BC881DCA}"/>
-    <hyperlink ref="N127" r:id="rId247" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{5F89FCA7-62F7-463F-B5B1-AF54FDB61B3C}"/>
-    <hyperlink ref="B128" r:id="rId248" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{CF39689B-0143-4635-8A6A-095C359EC8C5}"/>
-    <hyperlink ref="N128" r:id="rId249" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{51973D45-D9F8-44F8-B1F5-C0069CC65133}"/>
-    <hyperlink ref="B129" r:id="rId250" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{00E8F655-A07A-4571-8204-64B903DB808D}"/>
-    <hyperlink ref="N129" r:id="rId251" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{7232AA09-F4B6-4322-AD97-01111B8B35F9}"/>
-    <hyperlink ref="B130" r:id="rId252" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{ED638CEE-8973-4C19-9E0D-0B2E22E8AF4E}"/>
-    <hyperlink ref="N130" r:id="rId253" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{543E57BF-9702-4646-85A2-7335D37F606A}"/>
-    <hyperlink ref="B131" r:id="rId254" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{CFC28F1C-24B2-4C8F-AD38-8F0EB627E800}"/>
-    <hyperlink ref="N131" r:id="rId255" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{94BA3B6D-2730-49DE-9BA5-4FEF440D521A}"/>
-    <hyperlink ref="B132" r:id="rId256" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{005A8690-0612-4C5D-AEC6-D66EB0F2E679}"/>
-    <hyperlink ref="N132" r:id="rId257" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{A8362320-5941-4EB1-BF53-09992AFF21EA}"/>
-    <hyperlink ref="B133" r:id="rId258" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{25CFED03-1079-4A18-BC79-780077CA93B3}"/>
-    <hyperlink ref="N133" r:id="rId259" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{ACFEA34D-3A15-4EC1-B449-F85C28B5A8FB}"/>
-    <hyperlink ref="B134" r:id="rId260" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{6AEFCDAF-EF84-435C-A77E-315AA6A6BA29}"/>
-    <hyperlink ref="N134" r:id="rId261" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{B57E0D59-76EB-4846-ADCC-6A99A578F4F0}"/>
-    <hyperlink ref="B135" r:id="rId262" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{A178DBDD-8F92-4462-8097-9977AD214E21}"/>
-    <hyperlink ref="N135" r:id="rId263" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{E93A38C7-DEC6-47C7-A40F-F73042F31536}"/>
-    <hyperlink ref="B136" r:id="rId264" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{BE113794-6521-4DF8-AB3B-0289371D739F}"/>
-    <hyperlink ref="N136" r:id="rId265" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{80FD4276-0103-433B-A2B1-FCA6C36E52DC}"/>
-    <hyperlink ref="B137" r:id="rId266" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{7EDE3ED5-E415-48D4-8893-6E53D8A68154}"/>
-    <hyperlink ref="N137" r:id="rId267" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{B536A136-5FA4-46FC-922E-177E4A836BE4}"/>
-    <hyperlink ref="B138" r:id="rId268" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{3DC172A9-9BB9-4FAA-9C7B-6D27A24DC0B9}"/>
-    <hyperlink ref="N138" r:id="rId269" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{CF53C313-62F1-4AC6-8A91-2D282E316CBE}"/>
-    <hyperlink ref="B139" r:id="rId270" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{70D56B3F-CA30-4DCD-A68E-38EF85A9D2AF}"/>
-    <hyperlink ref="N139" r:id="rId271" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{EC02ED6F-ABA9-4946-8697-AD5C41659607}"/>
-    <hyperlink ref="B140" r:id="rId272" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{06E8C9B9-A5A5-4C37-86EF-F7E91719F80E}"/>
-    <hyperlink ref="N140" r:id="rId273" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{AD0A7DB7-AC97-4BCE-8008-18B0066E955C}"/>
-    <hyperlink ref="B141" r:id="rId274" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{5B07AC49-A9FF-4545-B137-0095214C0645}"/>
-    <hyperlink ref="N141" r:id="rId275" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{8AFBAB21-E837-4ED8-A5FE-91893C3B3408}"/>
-    <hyperlink ref="B142" r:id="rId276" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{2109E1AD-E33F-4A9B-8329-A41C1B3B79C4}"/>
-    <hyperlink ref="N142" r:id="rId277" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{823843BC-748E-4A17-8681-62B15E8E15EC}"/>
-    <hyperlink ref="B143" r:id="rId278" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{AAC92FEF-86AA-41DF-B977-4A443EEB4838}"/>
-    <hyperlink ref="N143" r:id="rId279" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{B6363CA6-8E79-4924-8013-0C84E6F5C5B9}"/>
-    <hyperlink ref="B144" r:id="rId280" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{42378E58-4B20-49AA-9210-63AD06134E0B}"/>
-    <hyperlink ref="N144" r:id="rId281" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{EA129403-F3F2-4B31-8B20-1D2906D70041}"/>
-    <hyperlink ref="B145" r:id="rId282" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{6D118A16-8B4E-4063-8351-6E5742C697F9}"/>
-    <hyperlink ref="N145" r:id="rId283" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{76613F7B-9D3B-48B2-8BC1-7194C9681E0D}"/>
-    <hyperlink ref="B146" r:id="rId284" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{A1C7F99F-1967-4DB4-AC6D-F150AE30458D}"/>
-    <hyperlink ref="N146" r:id="rId285" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{CBE91308-7C1F-47BD-895E-439500A4F063}"/>
-    <hyperlink ref="B147" r:id="rId286" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{D267E196-2CDE-44FD-AB02-B45395E87EAE}"/>
-    <hyperlink ref="N147" r:id="rId287" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{E33BA1CB-A5A2-4D43-A206-81D1ECC72316}"/>
-    <hyperlink ref="B148" r:id="rId288" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{265D5DB6-8008-40B2-A7D4-CDFF2AC05FFD}"/>
-    <hyperlink ref="N148" r:id="rId289" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{463C322E-F3F5-4FCA-8DDA-B973F01684AC}"/>
-    <hyperlink ref="B149" r:id="rId290" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{C90B1CE5-4CB5-4477-A5B1-69F22BD9C791}"/>
-    <hyperlink ref="N149" r:id="rId291" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{7B9C71A3-435A-4624-81B0-087B9DC9B80F}"/>
-    <hyperlink ref="B150" r:id="rId292" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{3CF9BE8F-E604-4D05-A13D-10F1014DCD74}"/>
-    <hyperlink ref="N150" r:id="rId293" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{5907E5DF-384F-4741-B6D8-B49ABEB2E048}"/>
-    <hyperlink ref="B151" r:id="rId294" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{A6CF7FFB-049A-4AA4-A56A-D1D66038FF79}"/>
-    <hyperlink ref="N151" r:id="rId295" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{7EE355C6-DBD9-45B8-A69B-2A626358054C}"/>
-    <hyperlink ref="B152" r:id="rId296" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{EE459A45-C186-449C-881C-932EA5255A83}"/>
-    <hyperlink ref="N152" r:id="rId297" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{6FCB8937-607E-42B5-9CBC-67F6449EE21E}"/>
-    <hyperlink ref="B153" r:id="rId298" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{ED005A9F-16B3-4643-B9D8-31A37A427C3E}"/>
-    <hyperlink ref="N153" r:id="rId299" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{0137EA01-9621-42FF-977D-A829D737D978}"/>
-    <hyperlink ref="B154" r:id="rId300" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{A142FD05-CEAE-4525-8C5A-BF1F2B7A1FFA}"/>
-    <hyperlink ref="N154" r:id="rId301" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{7A6003AA-DABE-4962-9BA5-AC4BF1662BAD}"/>
-    <hyperlink ref="B155" r:id="rId302" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{F5A65408-9FE6-4A0D-8E26-1CEF5008B084}"/>
-    <hyperlink ref="N155" r:id="rId303" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{EF3FD21E-9F46-4400-BF67-42ED002304B2}"/>
-    <hyperlink ref="B156" r:id="rId304" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{834AC90C-A499-4D5C-BE80-06866E3D2649}"/>
-    <hyperlink ref="N156" r:id="rId305" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{4E8125D5-0866-4286-9007-12B266B1FC7C}"/>
-    <hyperlink ref="B157" r:id="rId306" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{491D33C0-24BE-486F-BC5D-E55806D6018C}"/>
-    <hyperlink ref="N157" r:id="rId307" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{2FF7D7AD-D488-4B27-A802-F6B2046B295F}"/>
-    <hyperlink ref="B158" r:id="rId308" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{F92C7B7F-DC19-4B93-834C-9D37F046A062}"/>
-    <hyperlink ref="N158" r:id="rId309" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{1E9C3C80-AB0A-4ADA-A90D-299CB8C8437D}"/>
-    <hyperlink ref="B159" r:id="rId310" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{931D6D15-2406-4E72-A4C7-1F7FF59C16F5}"/>
-    <hyperlink ref="N159" r:id="rId311" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{2B44E9F1-9FC9-4B0F-8338-74E4DF5B5E86}"/>
-    <hyperlink ref="B160" r:id="rId312" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{8EE7218A-8D09-47C9-B7F3-7B9E2FB86353}"/>
-    <hyperlink ref="N160" r:id="rId313" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{0A905D31-5018-413D-901D-88B750727FC4}"/>
-    <hyperlink ref="B161" r:id="rId314" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{002B0715-CDBF-46A9-89B2-553AE5115F44}"/>
-    <hyperlink ref="N161" r:id="rId315" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{AAFCD475-447E-4310-BDCB-20B12BA55A33}"/>
-    <hyperlink ref="B162" r:id="rId316" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{EA28E629-03AB-48BC-875C-60D051390057}"/>
-    <hyperlink ref="N162" r:id="rId317" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{E6DCE112-AA9A-409D-A1B4-C56DDCDE018F}"/>
-    <hyperlink ref="B163" r:id="rId318" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{787ECB20-5FD4-4FF4-85D8-77C06792783E}"/>
-    <hyperlink ref="B164" r:id="rId319" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{EDBD5D2F-EB46-4D99-AEBE-5385B8EDAB59}"/>
-    <hyperlink ref="N164" r:id="rId320" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{53218ACD-FCEA-4F7C-B340-5694098DC6A5}"/>
-    <hyperlink ref="B165" r:id="rId321" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{2B8D15DA-8BAF-4859-ACC3-34153B0DA837}"/>
-    <hyperlink ref="N165" r:id="rId322" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{412441C6-7B21-41ED-8935-274C575C4235}"/>
-    <hyperlink ref="B166" r:id="rId323" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{B5290D58-5E79-4B1C-851C-6223B397EFA0}"/>
-    <hyperlink ref="N166" r:id="rId324" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{58E159EE-A200-47DA-B23A-4E8DF7C79CE0}"/>
-    <hyperlink ref="B167" r:id="rId325" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{DD2DC1B3-BC69-4FBB-AE28-0CC73F15DBB0}"/>
-    <hyperlink ref="N167" r:id="rId326" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{6082AA0F-13F2-4061-8C2A-A65AB3392F09}"/>
-    <hyperlink ref="B168" r:id="rId327" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{BBDC66C2-5659-4626-B628-DF6CF38CDAD5}"/>
-    <hyperlink ref="N168" r:id="rId328" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{A7515F33-F7ED-4D18-A794-6ADB6F7A4C2E}"/>
-    <hyperlink ref="B169" r:id="rId329" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{CC34B0FC-653F-41A8-A022-5FA18D6A621E}"/>
-    <hyperlink ref="N169" r:id="rId330" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{DBA8F89C-8CA6-402A-BD9D-43BA5A33643F}"/>
-    <hyperlink ref="B170" r:id="rId331" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{FE9A3CA3-6BE4-4B14-A551-F3A942219ACF}"/>
-    <hyperlink ref="N170" r:id="rId332" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{06FD5271-27C4-40BE-B28E-D8EE1DBFDC6A}"/>
-    <hyperlink ref="B171" r:id="rId333" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{DA906005-308B-43D6-BF79-6B1FC8471F4A}"/>
-    <hyperlink ref="N171" r:id="rId334" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{C64C8E2E-8795-4BBC-A358-B5BB9DE985C8}"/>
-    <hyperlink ref="B172" r:id="rId335" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{43FE349D-7A35-4DBC-9E28-2E50B94C44EB}"/>
-    <hyperlink ref="N172" r:id="rId336" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{DDB3D92D-1D5A-41A1-8CDC-7BE2E2BE1D7D}"/>
-    <hyperlink ref="B173" r:id="rId337" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{AE60D05E-E3B9-441D-85F1-B33D13711186}"/>
-    <hyperlink ref="N173" r:id="rId338" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{BE7C019F-47E0-41D3-AFD2-5638DFA19FB5}"/>
-    <hyperlink ref="B174" r:id="rId339" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{FD0F9472-59B4-4657-BBAD-991DCA61622E}"/>
-    <hyperlink ref="N174" r:id="rId340" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{E3F34EC1-9D8F-40F7-8B3F-D6936F218AE0}"/>
-    <hyperlink ref="B175" r:id="rId341" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{814B0270-1828-4F7F-9A95-E7B8A6CD1317}"/>
-    <hyperlink ref="N175" r:id="rId342" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{EDD1E29C-7F19-4520-8A7B-57D63B76D6CF}"/>
-    <hyperlink ref="B177" r:id="rId343" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{2954A136-4EB6-4262-9329-1D5056A05630}"/>
-    <hyperlink ref="N177" r:id="rId344" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{BED2492B-D743-4DFB-B3F7-46F9AB662424}"/>
-    <hyperlink ref="B178" r:id="rId345" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{CC8C2D3B-F23A-43CD-9557-C208072FC629}"/>
-    <hyperlink ref="N178" r:id="rId346" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{66620D1D-F4FA-4738-B8B1-0FCFBD9BBC06}"/>
-    <hyperlink ref="B179" r:id="rId347" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{7D18C731-59CB-4F8A-B673-8C3F72F973AB}"/>
-    <hyperlink ref="N179" r:id="rId348" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{D083971D-A4E6-4CF7-96C9-C2F71F38D924}"/>
-    <hyperlink ref="B180" r:id="rId349" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{A0FEC2A6-521E-4226-8DC8-02005AE5F869}"/>
-    <hyperlink ref="N180" r:id="rId350" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{8A780C23-7C3E-47A9-BFF5-80FC8E071579}"/>
-    <hyperlink ref="B181" r:id="rId351" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{9A3212F9-AE5C-43E6-9D93-4CBCBC9FB5FD}"/>
-    <hyperlink ref="N181" r:id="rId352" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{0734DB29-2847-479B-9E20-69D5D5562009}"/>
-    <hyperlink ref="B182" r:id="rId353" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{1BA5B28E-9E2B-4951-82B0-EED043D6313D}"/>
-    <hyperlink ref="N182" r:id="rId354" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{4656B124-BDE5-4B8F-BA3E-FEBD8445283F}"/>
-    <hyperlink ref="B183" r:id="rId355" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{C0B9ED42-FBE3-436D-ACE7-3FE5F5FF8981}"/>
-    <hyperlink ref="N183" r:id="rId356" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{58C2D6F7-0F19-499A-B6D2-A0DF189D446B}"/>
-    <hyperlink ref="B184" r:id="rId357" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{55F4721F-DFE6-4454-8B7A-16015C050756}"/>
-    <hyperlink ref="N184" r:id="rId358" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{4BCC9127-2839-4AA0-8608-DE51E5335507}"/>
-    <hyperlink ref="B185" r:id="rId359" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{5032FF4F-3F0A-4269-9933-E5C61EDAE72A}"/>
-    <hyperlink ref="N185" r:id="rId360" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{FBC29EE3-774E-482C-8535-F26C77463DB4}"/>
-    <hyperlink ref="B186" r:id="rId361" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{6D7EB663-5C0F-4353-9C54-52CDE70583E7}"/>
-    <hyperlink ref="N186" r:id="rId362" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{E3E58ECA-0621-4669-B52D-20DCBB063DCC}"/>
-    <hyperlink ref="B187" r:id="rId363" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{F9E7A48B-3606-4755-B178-0E66C0CCA74E}"/>
-    <hyperlink ref="N187" r:id="rId364" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{0B6C0DC2-1FF0-41C2-ADDD-8DC59BA5F7C4}"/>
-    <hyperlink ref="B188" r:id="rId365" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{7EED62AF-F428-4F57-AF24-FE19309C5AB8}"/>
-    <hyperlink ref="N188" r:id="rId366" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{1967BECC-4560-415C-BD35-F8A19AA8CD0E}"/>
-    <hyperlink ref="B189" r:id="rId367" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{8431320B-972F-4AF7-82C8-2259EDCD4E0C}"/>
-    <hyperlink ref="N189" r:id="rId368" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{0D4453D6-A60C-4AD5-875D-6752087F54FA}"/>
-    <hyperlink ref="B190" r:id="rId369" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{0F77F074-704B-4885-AA5A-33ED85484A9C}"/>
-    <hyperlink ref="N190" r:id="rId370" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{44ACB29F-1F85-4B15-B92A-940AE62E359C}"/>
-    <hyperlink ref="B191" r:id="rId371" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{4F2DC7A4-66C6-4281-9851-ECCE39A68E75}"/>
-    <hyperlink ref="N191" r:id="rId372" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{0BE97EC4-3D8F-4B67-9472-72CDEC63F6DC}"/>
-    <hyperlink ref="B192" r:id="rId373" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{51952FB8-312E-44B8-807E-49673EB47C2F}"/>
-    <hyperlink ref="N192" r:id="rId374" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{DEAA1149-2122-45CA-8DAF-7E10341B2EC0}"/>
-    <hyperlink ref="B193" r:id="rId375" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{3588EECA-3FC8-4EA3-8D77-C4DFD275DD9A}"/>
-    <hyperlink ref="N193" r:id="rId376" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{259571CD-4E3E-4B28-87A4-B705641CFE11}"/>
-    <hyperlink ref="B194" r:id="rId377" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{1E559FDC-40AE-4296-9D52-67E95F8A9534}"/>
-    <hyperlink ref="N194" r:id="rId378" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{9513A1BA-59FE-41AE-B2F6-444194FE1552}"/>
-    <hyperlink ref="B195" r:id="rId379" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{F0BFB1BE-3DFD-41EA-A2BD-1CF0D88592E7}"/>
-    <hyperlink ref="N195" r:id="rId380" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{19C84800-4C0B-409C-9A51-9C47F9A8EDBE}"/>
-    <hyperlink ref="B196" r:id="rId381" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{080C27F2-9602-493D-BEE3-0B07C0324836}"/>
-    <hyperlink ref="N196" r:id="rId382" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{64793FAE-2FAE-42ED-8C06-209F4E2F6C6F}"/>
-    <hyperlink ref="B197" r:id="rId383" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{DAD85B62-6748-4CC1-805A-05A2281623C8}"/>
-    <hyperlink ref="N197" r:id="rId384" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{6ED7CFC5-7169-4D00-BF0E-E702D40088C9}"/>
-    <hyperlink ref="B198" r:id="rId385" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{08D2B85C-3936-4F69-8E38-3BF15310790C}"/>
-    <hyperlink ref="N198" r:id="rId386" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{17B325D9-B5C1-4C3A-8579-1D8559573318}"/>
-    <hyperlink ref="B199" r:id="rId387" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{29A713C2-BC4A-4360-BC94-FD84E3B07D18}"/>
-    <hyperlink ref="N199" r:id="rId388" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{809080C7-06E0-49EB-B153-9F469BDD47D2}"/>
-    <hyperlink ref="B200" r:id="rId389" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{17D0719C-FD80-446F-BA40-CA259D3516A1}"/>
-    <hyperlink ref="N200" r:id="rId390" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{A4445B8F-DD0B-47DB-A894-5847FE27CA4C}"/>
-    <hyperlink ref="B201" r:id="rId391" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{05A60918-88E0-4150-B3D6-E4F1C44B6FC1}"/>
-    <hyperlink ref="N201" r:id="rId392" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{106B9A2C-BD93-4DAC-A04A-9DEF9937E19A}"/>
-    <hyperlink ref="B202" r:id="rId393" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{F83AC81D-6E29-4042-917B-FBA1739CD3AB}"/>
-    <hyperlink ref="N202" r:id="rId394" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{E69E98FD-0D64-4826-AA7B-0F8DD496A2BC}"/>
-    <hyperlink ref="B203" r:id="rId395" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{D15D590F-B08B-45F2-91DE-78E96C5FD60E}"/>
-    <hyperlink ref="N203" r:id="rId396" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{93F83B73-78FF-48C1-BD6F-D5A423F3AAE8}"/>
-    <hyperlink ref="B204" r:id="rId397" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{8397620D-4654-4ABD-BFE8-41BC4254AC39}"/>
-    <hyperlink ref="N204" r:id="rId398" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{86115E47-2F2C-4795-A1F1-ABEBD1589FB3}"/>
-    <hyperlink ref="B205" r:id="rId399" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{64C19EAD-F3DE-487C-A108-05BE4E634935}"/>
-    <hyperlink ref="N205" r:id="rId400" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{BF49ADD5-E549-4F8F-BC21-A2ACE4539B7E}"/>
-    <hyperlink ref="B206" r:id="rId401" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{FEB7655E-1AF8-4F34-8F83-43BFF237B214}"/>
-    <hyperlink ref="N206" r:id="rId402" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{2610D3FF-7A00-498C-B57C-59155FCF83D6}"/>
-    <hyperlink ref="B207" r:id="rId403" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{5DDF976D-1D94-4CEF-8B41-F038C83EF1AA}"/>
-    <hyperlink ref="N207" r:id="rId404" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{B5CBA085-9883-448C-B460-F2435A488CE9}"/>
-    <hyperlink ref="B208" r:id="rId405" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{DD9BA419-5861-47E0-9211-1C26E4E733F5}"/>
-    <hyperlink ref="N208" r:id="rId406" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{86D86BC6-81BB-4C30-B08C-D2B995FEF5E3}"/>
-    <hyperlink ref="B209" r:id="rId407" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{CD4E0161-5264-44AC-A66E-6BB16B12168D}"/>
-    <hyperlink ref="N209" r:id="rId408" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{738961A7-42AE-4000-A512-C6FF0C505252}"/>
-    <hyperlink ref="B210" r:id="rId409" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{3C8AAE4C-0881-47E2-9907-DC092276C0AE}"/>
-    <hyperlink ref="N210" r:id="rId410" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{68BC1155-AAD4-4B64-A3DA-39FE5F5189C2}"/>
-    <hyperlink ref="B211" r:id="rId411" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{67F4764B-B0BE-4943-904A-C067F51063E8}"/>
-    <hyperlink ref="N211" r:id="rId412" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{49D02D95-58E9-4556-AF37-57C85F1C5C96}"/>
-    <hyperlink ref="B212" r:id="rId413" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{44B37652-5269-4324-A568-E209B5B4566F}"/>
-    <hyperlink ref="N212" r:id="rId414" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{912807E8-96C5-4C9F-B60C-480748D7C8F4}"/>
-    <hyperlink ref="B213" r:id="rId415" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{0D0E070F-EB66-4123-94E7-8DA12273D9E0}"/>
-    <hyperlink ref="N213" r:id="rId416" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{2C55B795-246B-454D-946E-CF33AD453736}"/>
-    <hyperlink ref="B214" r:id="rId417" display="https://www.worldometers.info/coronavirus/country/solomon-islands/" xr:uid="{10F489B7-9EA8-4A0E-88DC-B36241CECDEF}"/>
-    <hyperlink ref="N214" r:id="rId418" display="https://www.worldometers.info/world-population/solomon-islands-population/" xr:uid="{0B98578D-FDA3-4568-920C-BA15D82591FE}"/>
-    <hyperlink ref="B215" r:id="rId419" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{E4037072-E132-488B-B12C-8AD44ABCF845}"/>
-    <hyperlink ref="N215" r:id="rId420" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{1964ABF4-1B16-4AB5-8ECB-F90D6864CB66}"/>
-    <hyperlink ref="B216" r:id="rId421" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{7AB1215E-F302-4947-B4F5-AC328B9F9B98}"/>
-    <hyperlink ref="N216" r:id="rId422" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{1B630222-6D75-4088-B396-54B0417134BD}"/>
-    <hyperlink ref="B218" r:id="rId423" display="https://www.worldometers.info/coronavirus/country/marshall-islands/" xr:uid="{1964CB03-43F1-4DBE-AE2E-CEFEC23115BA}"/>
-    <hyperlink ref="N218" r:id="rId424" display="https://www.worldometers.info/world-population/marshall-islands-population/" xr:uid="{E7F9BE4E-A3D8-4CF5-B3E6-9578758C4BE7}"/>
-    <hyperlink ref="B219" r:id="rId425" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{2163B8C3-2BFB-4769-BD17-8857AB1DC5B8}"/>
-    <hyperlink ref="N219" r:id="rId426" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{A57020B5-5DF6-44A5-B83E-2CD78A9DD679}"/>
-    <hyperlink ref="B220" r:id="rId427" display="https://www.worldometers.info/coronavirus/country/wallis-and-futuna-islands/" xr:uid="{AFE58C08-CE54-46BF-BBBD-053C28B2AD0E}"/>
-    <hyperlink ref="N220" r:id="rId428" display="https://www.worldometers.info/world-population/wallis-and-futuna-islands-population/" xr:uid="{C87174E1-F8F1-4AA6-A3A0-9F78D01C4590}"/>
-    <hyperlink ref="B221" r:id="rId429" display="https://www.worldometers.info/coronavirus/country/samoa/" xr:uid="{C90AAA4D-FE2F-4CE9-B4BD-B1A682A8097E}"/>
-    <hyperlink ref="N221" r:id="rId430" display="https://www.worldometers.info/world-population/samoa-population/" xr:uid="{2E468F4B-B606-466F-8F3E-356281645F75}"/>
-    <hyperlink ref="B222" r:id="rId431" display="https://www.worldometers.info/coronavirus/country/vanuatu/" xr:uid="{83925B8D-DED8-4044-B83E-F2B30DA85360}"/>
-    <hyperlink ref="N222" r:id="rId432" display="https://www.worldometers.info/world-population/vanuatu-population/" xr:uid="{AAAA2376-E4DC-43BE-8A5F-BC8065C01DBA}"/>
+    <hyperlink ref="N222" r:id="rId1" display="https://www.worldometers.info/world-population/vanuatu-population/" xr:uid="{AAAA2376-E4DC-43BE-8A5F-BC8065C01DBA}"/>
+    <hyperlink ref="B222" r:id="rId2" display="https://www.worldometers.info/coronavirus/country/vanuatu/" xr:uid="{83925B8D-DED8-4044-B83E-F2B30DA85360}"/>
+    <hyperlink ref="N221" r:id="rId3" display="https://www.worldometers.info/world-population/samoa-population/" xr:uid="{2E468F4B-B606-466F-8F3E-356281645F75}"/>
+    <hyperlink ref="B221" r:id="rId4" display="https://www.worldometers.info/coronavirus/country/samoa/" xr:uid="{C90AAA4D-FE2F-4CE9-B4BD-B1A682A8097E}"/>
+    <hyperlink ref="N220" r:id="rId5" display="https://www.worldometers.info/world-population/wallis-and-futuna-islands-population/" xr:uid="{C87174E1-F8F1-4AA6-A3A0-9F78D01C4590}"/>
+    <hyperlink ref="B220" r:id="rId6" display="https://www.worldometers.info/coronavirus/country/wallis-and-futuna-islands/" xr:uid="{AFE58C08-CE54-46BF-BBBD-053C28B2AD0E}"/>
+    <hyperlink ref="N219" r:id="rId7" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{A57020B5-5DF6-44A5-B83E-2CD78A9DD679}"/>
+    <hyperlink ref="B219" r:id="rId8" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{2163B8C3-2BFB-4769-BD17-8857AB1DC5B8}"/>
+    <hyperlink ref="N218" r:id="rId9" display="https://www.worldometers.info/world-population/marshall-islands-population/" xr:uid="{E7F9BE4E-A3D8-4CF5-B3E6-9578758C4BE7}"/>
+    <hyperlink ref="B218" r:id="rId10" display="https://www.worldometers.info/coronavirus/country/marshall-islands/" xr:uid="{1964CB03-43F1-4DBE-AE2E-CEFEC23115BA}"/>
+    <hyperlink ref="N216" r:id="rId11" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{1B630222-6D75-4088-B396-54B0417134BD}"/>
+    <hyperlink ref="B216" r:id="rId12" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{7AB1215E-F302-4947-B4F5-AC328B9F9B98}"/>
+    <hyperlink ref="N215" r:id="rId13" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{1964ABF4-1B16-4AB5-8ECB-F90D6864CB66}"/>
+    <hyperlink ref="B215" r:id="rId14" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{E4037072-E132-488B-B12C-8AD44ABCF845}"/>
+    <hyperlink ref="N214" r:id="rId15" display="https://www.worldometers.info/world-population/solomon-islands-population/" xr:uid="{0B98578D-FDA3-4568-920C-BA15D82591FE}"/>
+    <hyperlink ref="B214" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/solomon-islands/" xr:uid="{10F489B7-9EA8-4A0E-88DC-B36241CECDEF}"/>
+    <hyperlink ref="N213" r:id="rId17" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{2C55B795-246B-454D-946E-CF33AD453736}"/>
+    <hyperlink ref="B213" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{0D0E070F-EB66-4123-94E7-8DA12273D9E0}"/>
+    <hyperlink ref="N212" r:id="rId19" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{912807E8-96C5-4C9F-B60C-480748D7C8F4}"/>
+    <hyperlink ref="B212" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{44B37652-5269-4324-A568-E209B5B4566F}"/>
+    <hyperlink ref="N211" r:id="rId21" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{49D02D95-58E9-4556-AF37-57C85F1C5C96}"/>
+    <hyperlink ref="B211" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{67F4764B-B0BE-4943-904A-C067F51063E8}"/>
+    <hyperlink ref="N210" r:id="rId23" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{68BC1155-AAD4-4B64-A3DA-39FE5F5189C2}"/>
+    <hyperlink ref="B210" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{3C8AAE4C-0881-47E2-9907-DC092276C0AE}"/>
+    <hyperlink ref="N209" r:id="rId25" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{738961A7-42AE-4000-A512-C6FF0C505252}"/>
+    <hyperlink ref="B209" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{CD4E0161-5264-44AC-A66E-6BB16B12168D}"/>
+    <hyperlink ref="N208" r:id="rId27" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{86D86BC6-81BB-4C30-B08C-D2B995FEF5E3}"/>
+    <hyperlink ref="B208" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{DD9BA419-5861-47E0-9211-1C26E4E733F5}"/>
+    <hyperlink ref="N207" r:id="rId29" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{B5CBA085-9883-448C-B460-F2435A488CE9}"/>
+    <hyperlink ref="B207" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{5DDF976D-1D94-4CEF-8B41-F038C83EF1AA}"/>
+    <hyperlink ref="N206" r:id="rId31" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{2610D3FF-7A00-498C-B57C-59155FCF83D6}"/>
+    <hyperlink ref="B206" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{FEB7655E-1AF8-4F34-8F83-43BFF237B214}"/>
+    <hyperlink ref="N205" r:id="rId33" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{BF49ADD5-E549-4F8F-BC21-A2ACE4539B7E}"/>
+    <hyperlink ref="B205" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{64C19EAD-F3DE-487C-A108-05BE4E634935}"/>
+    <hyperlink ref="N204" r:id="rId35" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{86115E47-2F2C-4795-A1F1-ABEBD1589FB3}"/>
+    <hyperlink ref="B204" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{8397620D-4654-4ABD-BFE8-41BC4254AC39}"/>
+    <hyperlink ref="N203" r:id="rId37" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{93F83B73-78FF-48C1-BD6F-D5A423F3AAE8}"/>
+    <hyperlink ref="B203" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{D15D590F-B08B-45F2-91DE-78E96C5FD60E}"/>
+    <hyperlink ref="N202" r:id="rId39" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{E69E98FD-0D64-4826-AA7B-0F8DD496A2BC}"/>
+    <hyperlink ref="B202" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{F83AC81D-6E29-4042-917B-FBA1739CD3AB}"/>
+    <hyperlink ref="N201" r:id="rId41" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{106B9A2C-BD93-4DAC-A04A-9DEF9937E19A}"/>
+    <hyperlink ref="B201" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{05A60918-88E0-4150-B3D6-E4F1C44B6FC1}"/>
+    <hyperlink ref="N200" r:id="rId43" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{A4445B8F-DD0B-47DB-A894-5847FE27CA4C}"/>
+    <hyperlink ref="B200" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{17D0719C-FD80-446F-BA40-CA259D3516A1}"/>
+    <hyperlink ref="N199" r:id="rId45" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{809080C7-06E0-49EB-B153-9F469BDD47D2}"/>
+    <hyperlink ref="B199" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{29A713C2-BC4A-4360-BC94-FD84E3B07D18}"/>
+    <hyperlink ref="N198" r:id="rId47" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{17B325D9-B5C1-4C3A-8579-1D8559573318}"/>
+    <hyperlink ref="B198" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{08D2B85C-3936-4F69-8E38-3BF15310790C}"/>
+    <hyperlink ref="N197" r:id="rId49" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{6ED7CFC5-7169-4D00-BF0E-E702D40088C9}"/>
+    <hyperlink ref="B197" r:id="rId50" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{DAD85B62-6748-4CC1-805A-05A2281623C8}"/>
+    <hyperlink ref="N196" r:id="rId51" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{64793FAE-2FAE-42ED-8C06-209F4E2F6C6F}"/>
+    <hyperlink ref="B196" r:id="rId52" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{080C27F2-9602-493D-BEE3-0B07C0324836}"/>
+    <hyperlink ref="N195" r:id="rId53" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{19C84800-4C0B-409C-9A51-9C47F9A8EDBE}"/>
+    <hyperlink ref="B195" r:id="rId54" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{F0BFB1BE-3DFD-41EA-A2BD-1CF0D88592E7}"/>
+    <hyperlink ref="N194" r:id="rId55" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{9513A1BA-59FE-41AE-B2F6-444194FE1552}"/>
+    <hyperlink ref="B194" r:id="rId56" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{1E559FDC-40AE-4296-9D52-67E95F8A9534}"/>
+    <hyperlink ref="N193" r:id="rId57" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{259571CD-4E3E-4B28-87A4-B705641CFE11}"/>
+    <hyperlink ref="B193" r:id="rId58" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{3588EECA-3FC8-4EA3-8D77-C4DFD275DD9A}"/>
+    <hyperlink ref="N192" r:id="rId59" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{DEAA1149-2122-45CA-8DAF-7E10341B2EC0}"/>
+    <hyperlink ref="B192" r:id="rId60" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{51952FB8-312E-44B8-807E-49673EB47C2F}"/>
+    <hyperlink ref="N191" r:id="rId61" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{0BE97EC4-3D8F-4B67-9472-72CDEC63F6DC}"/>
+    <hyperlink ref="B191" r:id="rId62" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{4F2DC7A4-66C6-4281-9851-ECCE39A68E75}"/>
+    <hyperlink ref="N190" r:id="rId63" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{44ACB29F-1F85-4B15-B92A-940AE62E359C}"/>
+    <hyperlink ref="B190" r:id="rId64" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{0F77F074-704B-4885-AA5A-33ED85484A9C}"/>
+    <hyperlink ref="N189" r:id="rId65" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{0D4453D6-A60C-4AD5-875D-6752087F54FA}"/>
+    <hyperlink ref="B189" r:id="rId66" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{8431320B-972F-4AF7-82C8-2259EDCD4E0C}"/>
+    <hyperlink ref="N188" r:id="rId67" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{1967BECC-4560-415C-BD35-F8A19AA8CD0E}"/>
+    <hyperlink ref="B188" r:id="rId68" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{7EED62AF-F428-4F57-AF24-FE19309C5AB8}"/>
+    <hyperlink ref="N187" r:id="rId69" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{0B6C0DC2-1FF0-41C2-ADDD-8DC59BA5F7C4}"/>
+    <hyperlink ref="B187" r:id="rId70" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{F9E7A48B-3606-4755-B178-0E66C0CCA74E}"/>
+    <hyperlink ref="N186" r:id="rId71" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{E3E58ECA-0621-4669-B52D-20DCBB063DCC}"/>
+    <hyperlink ref="B186" r:id="rId72" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{6D7EB663-5C0F-4353-9C54-52CDE70583E7}"/>
+    <hyperlink ref="N185" r:id="rId73" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{FBC29EE3-774E-482C-8535-F26C77463DB4}"/>
+    <hyperlink ref="B185" r:id="rId74" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{5032FF4F-3F0A-4269-9933-E5C61EDAE72A}"/>
+    <hyperlink ref="N184" r:id="rId75" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{4BCC9127-2839-4AA0-8608-DE51E5335507}"/>
+    <hyperlink ref="B184" r:id="rId76" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{55F4721F-DFE6-4454-8B7A-16015C050756}"/>
+    <hyperlink ref="N183" r:id="rId77" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{58C2D6F7-0F19-499A-B6D2-A0DF189D446B}"/>
+    <hyperlink ref="B183" r:id="rId78" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{C0B9ED42-FBE3-436D-ACE7-3FE5F5FF8981}"/>
+    <hyperlink ref="N182" r:id="rId79" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{4656B124-BDE5-4B8F-BA3E-FEBD8445283F}"/>
+    <hyperlink ref="B182" r:id="rId80" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{1BA5B28E-9E2B-4951-82B0-EED043D6313D}"/>
+    <hyperlink ref="N181" r:id="rId81" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{0734DB29-2847-479B-9E20-69D5D5562009}"/>
+    <hyperlink ref="B181" r:id="rId82" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{9A3212F9-AE5C-43E6-9D93-4CBCBC9FB5FD}"/>
+    <hyperlink ref="N180" r:id="rId83" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{8A780C23-7C3E-47A9-BFF5-80FC8E071579}"/>
+    <hyperlink ref="B180" r:id="rId84" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{A0FEC2A6-521E-4226-8DC8-02005AE5F869}"/>
+    <hyperlink ref="N179" r:id="rId85" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{D083971D-A4E6-4CF7-96C9-C2F71F38D924}"/>
+    <hyperlink ref="B179" r:id="rId86" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{7D18C731-59CB-4F8A-B673-8C3F72F973AB}"/>
+    <hyperlink ref="N178" r:id="rId87" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{66620D1D-F4FA-4738-B8B1-0FCFBD9BBC06}"/>
+    <hyperlink ref="B178" r:id="rId88" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{CC8C2D3B-F23A-43CD-9557-C208072FC629}"/>
+    <hyperlink ref="N177" r:id="rId89" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{BED2492B-D743-4DFB-B3F7-46F9AB662424}"/>
+    <hyperlink ref="B177" r:id="rId90" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{2954A136-4EB6-4262-9329-1D5056A05630}"/>
+    <hyperlink ref="N175" r:id="rId91" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{EDD1E29C-7F19-4520-8A7B-57D63B76D6CF}"/>
+    <hyperlink ref="B175" r:id="rId92" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{814B0270-1828-4F7F-9A95-E7B8A6CD1317}"/>
+    <hyperlink ref="N174" r:id="rId93" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{E3F34EC1-9D8F-40F7-8B3F-D6936F218AE0}"/>
+    <hyperlink ref="B174" r:id="rId94" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{FD0F9472-59B4-4657-BBAD-991DCA61622E}"/>
+    <hyperlink ref="N173" r:id="rId95" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{BE7C019F-47E0-41D3-AFD2-5638DFA19FB5}"/>
+    <hyperlink ref="B173" r:id="rId96" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{AE60D05E-E3B9-441D-85F1-B33D13711186}"/>
+    <hyperlink ref="N172" r:id="rId97" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{DDB3D92D-1D5A-41A1-8CDC-7BE2E2BE1D7D}"/>
+    <hyperlink ref="B172" r:id="rId98" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{43FE349D-7A35-4DBC-9E28-2E50B94C44EB}"/>
+    <hyperlink ref="N171" r:id="rId99" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{C64C8E2E-8795-4BBC-A358-B5BB9DE985C8}"/>
+    <hyperlink ref="B171" r:id="rId100" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{DA906005-308B-43D6-BF79-6B1FC8471F4A}"/>
+    <hyperlink ref="N170" r:id="rId101" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{06FD5271-27C4-40BE-B28E-D8EE1DBFDC6A}"/>
+    <hyperlink ref="B170" r:id="rId102" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{FE9A3CA3-6BE4-4B14-A551-F3A942219ACF}"/>
+    <hyperlink ref="N169" r:id="rId103" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{DBA8F89C-8CA6-402A-BD9D-43BA5A33643F}"/>
+    <hyperlink ref="B169" r:id="rId104" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{CC34B0FC-653F-41A8-A022-5FA18D6A621E}"/>
+    <hyperlink ref="N168" r:id="rId105" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{A7515F33-F7ED-4D18-A794-6ADB6F7A4C2E}"/>
+    <hyperlink ref="B168" r:id="rId106" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{BBDC66C2-5659-4626-B628-DF6CF38CDAD5}"/>
+    <hyperlink ref="N167" r:id="rId107" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{6082AA0F-13F2-4061-8C2A-A65AB3392F09}"/>
+    <hyperlink ref="B167" r:id="rId108" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{DD2DC1B3-BC69-4FBB-AE28-0CC73F15DBB0}"/>
+    <hyperlink ref="N166" r:id="rId109" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{58E159EE-A200-47DA-B23A-4E8DF7C79CE0}"/>
+    <hyperlink ref="B166" r:id="rId110" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{B5290D58-5E79-4B1C-851C-6223B397EFA0}"/>
+    <hyperlink ref="N165" r:id="rId111" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{412441C6-7B21-41ED-8935-274C575C4235}"/>
+    <hyperlink ref="B165" r:id="rId112" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{2B8D15DA-8BAF-4859-ACC3-34153B0DA837}"/>
+    <hyperlink ref="N164" r:id="rId113" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{53218ACD-FCEA-4F7C-B340-5694098DC6A5}"/>
+    <hyperlink ref="B164" r:id="rId114" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{EDBD5D2F-EB46-4D99-AEBE-5385B8EDAB59}"/>
+    <hyperlink ref="B163" r:id="rId115" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{787ECB20-5FD4-4FF4-85D8-77C06792783E}"/>
+    <hyperlink ref="N162" r:id="rId116" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{E6DCE112-AA9A-409D-A1B4-C56DDCDE018F}"/>
+    <hyperlink ref="B162" r:id="rId117" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{EA28E629-03AB-48BC-875C-60D051390057}"/>
+    <hyperlink ref="N161" r:id="rId118" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{AAFCD475-447E-4310-BDCB-20B12BA55A33}"/>
+    <hyperlink ref="B161" r:id="rId119" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{002B0715-CDBF-46A9-89B2-553AE5115F44}"/>
+    <hyperlink ref="N160" r:id="rId120" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{0A905D31-5018-413D-901D-88B750727FC4}"/>
+    <hyperlink ref="B160" r:id="rId121" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{8EE7218A-8D09-47C9-B7F3-7B9E2FB86353}"/>
+    <hyperlink ref="N159" r:id="rId122" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{2B44E9F1-9FC9-4B0F-8338-74E4DF5B5E86}"/>
+    <hyperlink ref="B159" r:id="rId123" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{931D6D15-2406-4E72-A4C7-1F7FF59C16F5}"/>
+    <hyperlink ref="N158" r:id="rId124" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{1E9C3C80-AB0A-4ADA-A90D-299CB8C8437D}"/>
+    <hyperlink ref="B158" r:id="rId125" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{F92C7B7F-DC19-4B93-834C-9D37F046A062}"/>
+    <hyperlink ref="N157" r:id="rId126" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{2FF7D7AD-D488-4B27-A802-F6B2046B295F}"/>
+    <hyperlink ref="B157" r:id="rId127" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{491D33C0-24BE-486F-BC5D-E55806D6018C}"/>
+    <hyperlink ref="N156" r:id="rId128" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{4E8125D5-0866-4286-9007-12B266B1FC7C}"/>
+    <hyperlink ref="B156" r:id="rId129" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{834AC90C-A499-4D5C-BE80-06866E3D2649}"/>
+    <hyperlink ref="N155" r:id="rId130" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{EF3FD21E-9F46-4400-BF67-42ED002304B2}"/>
+    <hyperlink ref="B155" r:id="rId131" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{F5A65408-9FE6-4A0D-8E26-1CEF5008B084}"/>
+    <hyperlink ref="N154" r:id="rId132" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{7A6003AA-DABE-4962-9BA5-AC4BF1662BAD}"/>
+    <hyperlink ref="B154" r:id="rId133" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{A142FD05-CEAE-4525-8C5A-BF1F2B7A1FFA}"/>
+    <hyperlink ref="N153" r:id="rId134" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{0137EA01-9621-42FF-977D-A829D737D978}"/>
+    <hyperlink ref="B153" r:id="rId135" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{ED005A9F-16B3-4643-B9D8-31A37A427C3E}"/>
+    <hyperlink ref="N152" r:id="rId136" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{6FCB8937-607E-42B5-9CBC-67F6449EE21E}"/>
+    <hyperlink ref="B152" r:id="rId137" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{EE459A45-C186-449C-881C-932EA5255A83}"/>
+    <hyperlink ref="N151" r:id="rId138" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{7EE355C6-DBD9-45B8-A69B-2A626358054C}"/>
+    <hyperlink ref="B151" r:id="rId139" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{A6CF7FFB-049A-4AA4-A56A-D1D66038FF79}"/>
+    <hyperlink ref="N150" r:id="rId140" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{5907E5DF-384F-4741-B6D8-B49ABEB2E048}"/>
+    <hyperlink ref="B150" r:id="rId141" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{3CF9BE8F-E604-4D05-A13D-10F1014DCD74}"/>
+    <hyperlink ref="N149" r:id="rId142" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{7B9C71A3-435A-4624-81B0-087B9DC9B80F}"/>
+    <hyperlink ref="B149" r:id="rId143" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{C90B1CE5-4CB5-4477-A5B1-69F22BD9C791}"/>
+    <hyperlink ref="N148" r:id="rId144" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{463C322E-F3F5-4FCA-8DDA-B973F01684AC}"/>
+    <hyperlink ref="B148" r:id="rId145" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{265D5DB6-8008-40B2-A7D4-CDFF2AC05FFD}"/>
+    <hyperlink ref="N147" r:id="rId146" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{E33BA1CB-A5A2-4D43-A206-81D1ECC72316}"/>
+    <hyperlink ref="B147" r:id="rId147" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{D267E196-2CDE-44FD-AB02-B45395E87EAE}"/>
+    <hyperlink ref="N146" r:id="rId148" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{CBE91308-7C1F-47BD-895E-439500A4F063}"/>
+    <hyperlink ref="B146" r:id="rId149" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{A1C7F99F-1967-4DB4-AC6D-F150AE30458D}"/>
+    <hyperlink ref="N145" r:id="rId150" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{76613F7B-9D3B-48B2-8BC1-7194C9681E0D}"/>
+    <hyperlink ref="B145" r:id="rId151" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{6D118A16-8B4E-4063-8351-6E5742C697F9}"/>
+    <hyperlink ref="N144" r:id="rId152" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{EA129403-F3F2-4B31-8B20-1D2906D70041}"/>
+    <hyperlink ref="B144" r:id="rId153" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{42378E58-4B20-49AA-9210-63AD06134E0B}"/>
+    <hyperlink ref="N143" r:id="rId154" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{B6363CA6-8E79-4924-8013-0C84E6F5C5B9}"/>
+    <hyperlink ref="B143" r:id="rId155" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{AAC92FEF-86AA-41DF-B977-4A443EEB4838}"/>
+    <hyperlink ref="N142" r:id="rId156" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{823843BC-748E-4A17-8681-62B15E8E15EC}"/>
+    <hyperlink ref="B142" r:id="rId157" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{2109E1AD-E33F-4A9B-8329-A41C1B3B79C4}"/>
+    <hyperlink ref="N141" r:id="rId158" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{8AFBAB21-E837-4ED8-A5FE-91893C3B3408}"/>
+    <hyperlink ref="B141" r:id="rId159" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{5B07AC49-A9FF-4545-B137-0095214C0645}"/>
+    <hyperlink ref="N140" r:id="rId160" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{AD0A7DB7-AC97-4BCE-8008-18B0066E955C}"/>
+    <hyperlink ref="B140" r:id="rId161" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{06E8C9B9-A5A5-4C37-86EF-F7E91719F80E}"/>
+    <hyperlink ref="N139" r:id="rId162" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{EC02ED6F-ABA9-4946-8697-AD5C41659607}"/>
+    <hyperlink ref="B139" r:id="rId163" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{70D56B3F-CA30-4DCD-A68E-38EF85A9D2AF}"/>
+    <hyperlink ref="N138" r:id="rId164" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{CF53C313-62F1-4AC6-8A91-2D282E316CBE}"/>
+    <hyperlink ref="B138" r:id="rId165" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{3DC172A9-9BB9-4FAA-9C7B-6D27A24DC0B9}"/>
+    <hyperlink ref="N137" r:id="rId166" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{B536A136-5FA4-46FC-922E-177E4A836BE4}"/>
+    <hyperlink ref="B137" r:id="rId167" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{7EDE3ED5-E415-48D4-8893-6E53D8A68154}"/>
+    <hyperlink ref="N136" r:id="rId168" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{80FD4276-0103-433B-A2B1-FCA6C36E52DC}"/>
+    <hyperlink ref="B136" r:id="rId169" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{BE113794-6521-4DF8-AB3B-0289371D739F}"/>
+    <hyperlink ref="N135" r:id="rId170" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{E93A38C7-DEC6-47C7-A40F-F73042F31536}"/>
+    <hyperlink ref="B135" r:id="rId171" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{A178DBDD-8F92-4462-8097-9977AD214E21}"/>
+    <hyperlink ref="N134" r:id="rId172" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{B57E0D59-76EB-4846-ADCC-6A99A578F4F0}"/>
+    <hyperlink ref="B134" r:id="rId173" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{6AEFCDAF-EF84-435C-A77E-315AA6A6BA29}"/>
+    <hyperlink ref="N133" r:id="rId174" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{ACFEA34D-3A15-4EC1-B449-F85C28B5A8FB}"/>
+    <hyperlink ref="B133" r:id="rId175" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{25CFED03-1079-4A18-BC79-780077CA93B3}"/>
+    <hyperlink ref="N132" r:id="rId176" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{A8362320-5941-4EB1-BF53-09992AFF21EA}"/>
+    <hyperlink ref="B132" r:id="rId177" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{005A8690-0612-4C5D-AEC6-D66EB0F2E679}"/>
+    <hyperlink ref="N131" r:id="rId178" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{94BA3B6D-2730-49DE-9BA5-4FEF440D521A}"/>
+    <hyperlink ref="B131" r:id="rId179" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{CFC28F1C-24B2-4C8F-AD38-8F0EB627E800}"/>
+    <hyperlink ref="N130" r:id="rId180" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{543E57BF-9702-4646-85A2-7335D37F606A}"/>
+    <hyperlink ref="B130" r:id="rId181" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{ED638CEE-8973-4C19-9E0D-0B2E22E8AF4E}"/>
+    <hyperlink ref="N129" r:id="rId182" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{7232AA09-F4B6-4322-AD97-01111B8B35F9}"/>
+    <hyperlink ref="B129" r:id="rId183" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{00E8F655-A07A-4571-8204-64B903DB808D}"/>
+    <hyperlink ref="N128" r:id="rId184" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{51973D45-D9F8-44F8-B1F5-C0069CC65133}"/>
+    <hyperlink ref="B128" r:id="rId185" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{CF39689B-0143-4635-8A6A-095C359EC8C5}"/>
+    <hyperlink ref="N127" r:id="rId186" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{5F89FCA7-62F7-463F-B5B1-AF54FDB61B3C}"/>
+    <hyperlink ref="B127" r:id="rId187" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{DC16B43B-5A96-4C1C-B086-2253BC881DCA}"/>
+    <hyperlink ref="N126" r:id="rId188" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{E9868A39-70A5-468D-BC58-24880FDD5579}"/>
+    <hyperlink ref="B126" r:id="rId189" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{89864578-60FF-4E23-AC8E-EC842E9A8C4C}"/>
+    <hyperlink ref="N125" r:id="rId190" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{C62F6743-4242-40C2-AFAB-EB7609131E8F}"/>
+    <hyperlink ref="B125" r:id="rId191" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{D862B916-5ABE-4634-A309-70AC9F0692D8}"/>
+    <hyperlink ref="N124" r:id="rId192" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{5789CBF9-672B-49EE-B07F-8BDBAC13D21E}"/>
+    <hyperlink ref="B124" r:id="rId193" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{37BB4B27-AF09-40E7-B7F1-95C8711EB4D8}"/>
+    <hyperlink ref="N123" r:id="rId194" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{7A5089D0-A12A-4F48-9875-C3CFD222AD7A}"/>
+    <hyperlink ref="B123" r:id="rId195" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{EB229802-17B2-4103-9F03-DF1EAFCA1AF6}"/>
+    <hyperlink ref="N122" r:id="rId196" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{EB0A386A-C225-460F-B535-4881B112ED0F}"/>
+    <hyperlink ref="B122" r:id="rId197" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{1B77E9CA-F674-4140-BD5B-E256F8ED743C}"/>
+    <hyperlink ref="N121" r:id="rId198" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{9C0F385A-7DB3-415C-BF7A-B947F0FCDC1B}"/>
+    <hyperlink ref="B121" r:id="rId199" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{75B02F00-80C2-4B00-8C57-C63A1432C454}"/>
+    <hyperlink ref="N120" r:id="rId200" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{D71A775F-AB09-4D23-8683-7FCC63B73C20}"/>
+    <hyperlink ref="B120" r:id="rId201" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{EE5281AF-408E-442C-9587-305156DD769A}"/>
+    <hyperlink ref="N119" r:id="rId202" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{7C48B180-3139-4581-B2D1-A03BCE4A7F8B}"/>
+    <hyperlink ref="B119" r:id="rId203" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{324C2F35-D576-4A66-A5A1-4214D19059CB}"/>
+    <hyperlink ref="N118" r:id="rId204" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{A997002E-AFDC-490B-837B-17774F29B537}"/>
+    <hyperlink ref="B118" r:id="rId205" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{5097D395-FAC2-4229-A4F4-BF83900C6038}"/>
+    <hyperlink ref="N117" r:id="rId206" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{C415CEA3-B5EC-48B3-BF62-88373D480E1E}"/>
+    <hyperlink ref="B117" r:id="rId207" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{AF3097B6-6F8A-4940-9B59-DBD63ACF92E8}"/>
+    <hyperlink ref="N116" r:id="rId208" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{098BEE02-F4DF-4E77-A006-4E1E07F58392}"/>
+    <hyperlink ref="B116" r:id="rId209" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{55339C83-C510-44BB-B1AB-BBF834F59B55}"/>
+    <hyperlink ref="N115" r:id="rId210" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{1D8CBFED-A8EE-4948-A82D-7C987E995278}"/>
+    <hyperlink ref="B115" r:id="rId211" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{4102B96E-5E4B-48D2-A0A6-916284FD1B45}"/>
+    <hyperlink ref="N114" r:id="rId212" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{3DECDE15-5947-47C9-9C76-D97CB3525475}"/>
+    <hyperlink ref="B114" r:id="rId213" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{A7CE30F5-5D4E-470C-BF1C-5B9ED861D853}"/>
+    <hyperlink ref="N113" r:id="rId214" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{37267130-8316-409F-BD49-76B9DE440C63}"/>
+    <hyperlink ref="B113" r:id="rId215" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{DB844F4A-AB30-4F9A-BD1C-D337973E4CD4}"/>
+    <hyperlink ref="N112" r:id="rId216" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{BBC3D8E1-1349-4067-9890-76C51BF66DDB}"/>
+    <hyperlink ref="B112" r:id="rId217" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{26088958-5F68-4880-81FD-B1E769578045}"/>
+    <hyperlink ref="N111" r:id="rId218" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{24036361-E24E-4900-8099-B5914FD8D44E}"/>
+    <hyperlink ref="B111" r:id="rId219" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{F8655EE1-4D23-401B-81DE-38A9E01F2D84}"/>
+    <hyperlink ref="N110" r:id="rId220" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{3BB245DD-441D-448D-A49E-1B39AC03DC25}"/>
+    <hyperlink ref="B110" r:id="rId221" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{8874DF0F-C97F-494C-8183-9B5DE8206F7D}"/>
+    <hyperlink ref="N109" r:id="rId222" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{1CFDC8D0-EF99-460D-A74D-B8C52212CD77}"/>
+    <hyperlink ref="B109" r:id="rId223" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{16F0BE5E-D62F-4BD1-8D43-2191B038529D}"/>
+    <hyperlink ref="N108" r:id="rId224" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{DE289493-93D3-4229-A664-8B0FA350A458}"/>
+    <hyperlink ref="B108" r:id="rId225" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{6EB63E22-903F-4EF9-B8AD-35A4EBFC2BE7}"/>
+    <hyperlink ref="N107" r:id="rId226" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{412A82F3-A1D3-4299-A62C-B20C6E3CC8F8}"/>
+    <hyperlink ref="B107" r:id="rId227" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{A6A0C83A-916B-4F70-8D2B-629A93DB47F8}"/>
+    <hyperlink ref="N106" r:id="rId228" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{4806043F-8114-467D-AD8F-72B3AF35C261}"/>
+    <hyperlink ref="B106" r:id="rId229" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{41BFF046-D8C3-4F69-9D39-3BBE28642E6D}"/>
+    <hyperlink ref="N105" r:id="rId230" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{6C210646-75FF-46DB-97A2-375E37E90AE8}"/>
+    <hyperlink ref="B105" r:id="rId231" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{B3157AE6-BDDE-440C-A5F4-FBB01AD0F5AD}"/>
+    <hyperlink ref="N104" r:id="rId232" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{A314B1AF-E235-4AE7-9A5A-F269033A0EC7}"/>
+    <hyperlink ref="B104" r:id="rId233" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{B2782A12-8B36-4A25-A250-97971031421F}"/>
+    <hyperlink ref="N103" r:id="rId234" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{95571891-FE67-4712-8EEE-F9C28FCA9C8C}"/>
+    <hyperlink ref="B103" r:id="rId235" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{91C5E942-B6A6-4550-A41F-1866ED0F54D9}"/>
+    <hyperlink ref="N102" r:id="rId236" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{E3016AB5-90B7-497D-98AD-9096194A8D7B}"/>
+    <hyperlink ref="B102" r:id="rId237" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{8571642B-3571-4A3A-9B14-4E95747D4009}"/>
+    <hyperlink ref="N101" r:id="rId238" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{542E1A13-A41D-4F4E-B632-0D0C5DA49A4B}"/>
+    <hyperlink ref="B101" r:id="rId239" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{456F9E63-592B-44E0-B55C-FC1570F982C9}"/>
+    <hyperlink ref="N100" r:id="rId240" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{7A1AFB2C-2E75-47D9-B7B0-584BAAE05B51}"/>
+    <hyperlink ref="B100" r:id="rId241" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{81A0CE12-CFDB-4BD1-B96C-00A8EDB4611D}"/>
+    <hyperlink ref="N99" r:id="rId242" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{0641C97F-7101-4111-8E54-B602299A841C}"/>
+    <hyperlink ref="B99" r:id="rId243" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{43F6871E-106E-4159-A5DA-614A8E6B0B31}"/>
+    <hyperlink ref="N98" r:id="rId244" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{9DB35D4B-21B3-4350-9A2D-44BAEFA02356}"/>
+    <hyperlink ref="B98" r:id="rId245" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{7984F9D9-A8E8-4DFA-948B-6D6CC7631284}"/>
+    <hyperlink ref="N97" r:id="rId246" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{05E349BD-5CEA-4E4B-BE3A-F901D96BCAE2}"/>
+    <hyperlink ref="B97" r:id="rId247" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{F665E6CF-C0E6-490C-A091-E42B0EB6F288}"/>
+    <hyperlink ref="N96" r:id="rId248" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{E8AB3339-710D-4F34-BA45-7158436C3126}"/>
+    <hyperlink ref="B96" r:id="rId249" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{DB34172A-11DB-482A-A05A-A834A95C89C3}"/>
+    <hyperlink ref="N95" r:id="rId250" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{188C6C37-C2B8-4149-ACDB-BE2D4C88DBCF}"/>
+    <hyperlink ref="B95" r:id="rId251" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{AEF7A092-D2FB-4CCA-892B-9EE56D34DBFD}"/>
+    <hyperlink ref="N94" r:id="rId252" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{17F86AFA-89AE-442B-9465-10B71E62B458}"/>
+    <hyperlink ref="B94" r:id="rId253" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{36BD09B7-7C04-4EE9-8DBF-7D5CBBAD3B46}"/>
+    <hyperlink ref="N93" r:id="rId254" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{AC771B73-0508-4A80-A401-65A1F20E145D}"/>
+    <hyperlink ref="B93" r:id="rId255" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{3F11D0D2-6263-4A1F-BF07-8545207FFBF0}"/>
+    <hyperlink ref="N92" r:id="rId256" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{FE95A426-2F30-4C2B-93BF-8BE5B9CA84F3}"/>
+    <hyperlink ref="B92" r:id="rId257" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{64EE85E0-1BC8-4891-8EB5-A74FE168204B}"/>
+    <hyperlink ref="N91" r:id="rId258" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{8B4C074F-8399-4DAE-861F-6E5A78511B32}"/>
+    <hyperlink ref="B91" r:id="rId259" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{39D26098-AE2C-4CB2-8605-CBA132A81D5C}"/>
+    <hyperlink ref="N90" r:id="rId260" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{9E8D706A-543C-4596-8DE4-C66ABFE550E0}"/>
+    <hyperlink ref="B90" r:id="rId261" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{C81C950B-5885-40C3-AA3D-73F2CEFA4428}"/>
+    <hyperlink ref="N89" r:id="rId262" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{8BD4A02C-4A94-453B-8B37-FCD4291E3561}"/>
+    <hyperlink ref="B89" r:id="rId263" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{BE275114-0CE5-4169-B634-83E9BEA8EA2A}"/>
+    <hyperlink ref="N88" r:id="rId264" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{E2BF4789-2A48-42CC-976D-725502937E8B}"/>
+    <hyperlink ref="B88" r:id="rId265" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{2A090642-314A-4629-A602-FD3D6F17B54C}"/>
+    <hyperlink ref="N87" r:id="rId266" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{A034440C-D45A-48D3-88EE-51C251ED1BF9}"/>
+    <hyperlink ref="B87" r:id="rId267" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{742B146B-4BEB-45D0-A8FB-6968A21EDD8A}"/>
+    <hyperlink ref="N86" r:id="rId268" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{0057E437-7C8B-40AC-9DF7-EF7BE80C1590}"/>
+    <hyperlink ref="B86" r:id="rId269" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{F85B4965-93BE-4111-839E-1950C64D7985}"/>
+    <hyperlink ref="N85" r:id="rId270" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{A0F44FB2-425E-4A34-B19B-672BDBC2C9EF}"/>
+    <hyperlink ref="B85" r:id="rId271" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{163C3438-E930-4538-9CBF-0BCE8DB0AF5C}"/>
+    <hyperlink ref="N84" r:id="rId272" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{BF7A06DB-007F-421C-AC33-D953EA0BAA18}"/>
+    <hyperlink ref="B84" r:id="rId273" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{45FCFB00-EB7A-4657-8E3B-C56475C7175B}"/>
+    <hyperlink ref="N83" r:id="rId274" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{92C0EC9E-87D7-4015-BCD6-386E9ADDA442}"/>
+    <hyperlink ref="B83" r:id="rId275" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{CEFA24E5-94D3-4F1A-877F-2EA56B08C522}"/>
+    <hyperlink ref="N82" r:id="rId276" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{850F1034-EBDE-4CBA-839D-508653D596D6}"/>
+    <hyperlink ref="B82" r:id="rId277" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{AA518808-80B9-4CD3-83C2-385B975BC5A9}"/>
+    <hyperlink ref="N81" r:id="rId278" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{40596817-213E-4506-8BFF-C3FF17D557ED}"/>
+    <hyperlink ref="B81" r:id="rId279" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{907C3489-AD9E-45B4-AF75-2B858FB894BE}"/>
+    <hyperlink ref="N80" r:id="rId280" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{1A5C1FC1-C5A3-42B0-973C-F8D579588C67}"/>
+    <hyperlink ref="B80" r:id="rId281" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{B7DC9E37-4036-47D1-97FD-0CB2D6B0B625}"/>
+    <hyperlink ref="N79" r:id="rId282" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{3AE249D9-82C6-4478-A565-303CC0603139}"/>
+    <hyperlink ref="B79" r:id="rId283" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{A6D0B93A-439E-4CBB-82D1-0B982996F72E}"/>
+    <hyperlink ref="N78" r:id="rId284" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{90AB3DB4-1F11-471B-9228-596AFDEA2053}"/>
+    <hyperlink ref="B78" r:id="rId285" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{F22208E5-AFFB-4636-B23C-5435A0A309DD}"/>
+    <hyperlink ref="N77" r:id="rId286" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{508FF63D-3F49-404E-B1AF-8B8D04161C3A}"/>
+    <hyperlink ref="B77" r:id="rId287" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{038FCDFA-00C6-4007-BF80-074EA9685082}"/>
+    <hyperlink ref="N76" r:id="rId288" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{7F5E080F-C86A-4AF8-936B-87254CC9D1BE}"/>
+    <hyperlink ref="B76" r:id="rId289" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{2EE041BF-F85C-4FD4-8AD3-71196A830298}"/>
+    <hyperlink ref="N75" r:id="rId290" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{94D1B702-55E0-4256-8F77-B8E5EB3CD678}"/>
+    <hyperlink ref="B75" r:id="rId291" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{0C03D749-8070-44CD-9465-E6293D657CD5}"/>
+    <hyperlink ref="N74" r:id="rId292" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{E85A05EB-6E8A-4262-B8AF-8969ED6AEAD3}"/>
+    <hyperlink ref="B74" r:id="rId293" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{724ABF1E-352D-4F31-BC3B-2BA62B92C2E9}"/>
+    <hyperlink ref="N73" r:id="rId294" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{80200EF7-40BA-44F8-BA25-D89769D6BF20}"/>
+    <hyperlink ref="B73" r:id="rId295" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{BB180E3E-4B99-48C1-B823-28F3E0F73762}"/>
+    <hyperlink ref="N72" r:id="rId296" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{3A0BE745-A64F-4FB1-88BD-EF6E61D3453C}"/>
+    <hyperlink ref="B72" r:id="rId297" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{A626603B-04AD-4DAD-B210-DC60696B35ED}"/>
+    <hyperlink ref="N71" r:id="rId298" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{144C6103-E50B-48C8-85DC-E1D306F0F785}"/>
+    <hyperlink ref="B71" r:id="rId299" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{2D208A1E-121F-4F5F-BD8F-5BD5285288A6}"/>
+    <hyperlink ref="N70" r:id="rId300" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{51ED5A8D-FA19-4943-99F0-EB1A220D6347}"/>
+    <hyperlink ref="B70" r:id="rId301" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{B859F546-A153-4478-A1C9-CB18AC7C01BA}"/>
+    <hyperlink ref="N69" r:id="rId302" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{09919C4F-9DAA-43BD-A7B0-9F630ECDAEAE}"/>
+    <hyperlink ref="B69" r:id="rId303" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{BD0BB4F5-5D93-49EA-BBE9-60E3514AA087}"/>
+    <hyperlink ref="N68" r:id="rId304" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{40F5ADA9-B7FD-45AD-A277-B1C7472AFA3A}"/>
+    <hyperlink ref="B68" r:id="rId305" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{B5A3B496-F80F-451E-85DE-7918FC1F3B2C}"/>
+    <hyperlink ref="B67" r:id="rId306" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{ACACC197-B58E-479C-B08E-FA253850890D}"/>
+    <hyperlink ref="N66" r:id="rId307" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{EE7FC0D2-2679-4F7B-ABD6-4A5821DE64BF}"/>
+    <hyperlink ref="B66" r:id="rId308" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{F3E529B3-11F4-40FA-9581-DC757C752A37}"/>
+    <hyperlink ref="N65" r:id="rId309" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{043FCC2E-C482-47AC-B252-F95507178494}"/>
+    <hyperlink ref="B65" r:id="rId310" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{57F4219E-3B4D-404A-9957-0D33EDD5CEC1}"/>
+    <hyperlink ref="N64" r:id="rId311" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{AE3101F0-5C91-40E1-A047-79ECAF026108}"/>
+    <hyperlink ref="B64" r:id="rId312" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{76FFE102-37C5-4AA2-AAC7-6AAB2A3C55A6}"/>
+    <hyperlink ref="N63" r:id="rId313" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{B0B6BF77-36A7-4730-95BF-B0264DE140B6}"/>
+    <hyperlink ref="B63" r:id="rId314" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{B4C323D6-59AF-4A7D-A7D2-6B6A7359AA81}"/>
+    <hyperlink ref="N62" r:id="rId315" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{DDFF2BD9-00DB-45E0-894E-6CCB72B10993}"/>
+    <hyperlink ref="B62" r:id="rId316" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{999D058B-8B9E-4A47-B275-6E373FBFB6CC}"/>
+    <hyperlink ref="N61" r:id="rId317" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{8844B38D-10E0-4842-BAD2-8F7CC9D08191}"/>
+    <hyperlink ref="B61" r:id="rId318" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{1D1E947B-127E-46C9-AABC-6EB22E3B01A1}"/>
+    <hyperlink ref="N60" r:id="rId319" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{E74AD379-5C72-469E-863F-1F1826F4EDC5}"/>
+    <hyperlink ref="B60" r:id="rId320" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{5F3574BE-F83B-430E-9CDD-3F4489B76FAB}"/>
+    <hyperlink ref="N59" r:id="rId321" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{A1D8CF3A-F432-45D6-B497-DB4EE474772A}"/>
+    <hyperlink ref="B59" r:id="rId322" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{35C01EFC-5830-4FBF-B42A-9CD58A87252C}"/>
+    <hyperlink ref="N58" r:id="rId323" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{80DDB970-14BA-4CB7-9DD8-4E595934BA54}"/>
+    <hyperlink ref="B58" r:id="rId324" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{8F26AD11-705B-4993-A4AE-B2CBDCB850D6}"/>
+    <hyperlink ref="N57" r:id="rId325" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{D6379F59-29D0-48E6-A984-6948C141C824}"/>
+    <hyperlink ref="B57" r:id="rId326" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{739C8C1F-13FB-424C-A463-A0984093239C}"/>
+    <hyperlink ref="N56" r:id="rId327" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{A87253D9-ABAC-4B61-B7AD-08F84838A501}"/>
+    <hyperlink ref="B56" r:id="rId328" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{8AB25318-CDE6-452C-837A-AD7CA8781E71}"/>
+    <hyperlink ref="N55" r:id="rId329" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{EAA57DCC-BCE5-40E0-8F3D-A897E9CA8602}"/>
+    <hyperlink ref="B55" r:id="rId330" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{E6B9394F-CFE2-4315-A719-CEEBF8884F71}"/>
+    <hyperlink ref="N54" r:id="rId331" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{5F17E413-9E94-434C-A060-86E1D8057C0E}"/>
+    <hyperlink ref="B54" r:id="rId332" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{B4670593-80E5-45F7-BB35-9D304AE415B6}"/>
+    <hyperlink ref="N53" r:id="rId333" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{E94DC2C4-D0F3-40A6-8E53-3576E2E6AF93}"/>
+    <hyperlink ref="B53" r:id="rId334" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{DFD69721-AE7E-4F18-A06D-C8FE3C03BCCE}"/>
+    <hyperlink ref="N52" r:id="rId335" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{5822B4BB-81BE-412D-A408-EAA94CF55BEF}"/>
+    <hyperlink ref="B52" r:id="rId336" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{2C40EEED-8B4E-49E8-A4A2-2E1DF64007BB}"/>
+    <hyperlink ref="N51" r:id="rId337" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{230A3B9B-0572-4A96-914B-45F7FC1D34AB}"/>
+    <hyperlink ref="B51" r:id="rId338" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{C251E662-C3D9-4FE1-9D26-6DC68514C953}"/>
+    <hyperlink ref="N50" r:id="rId339" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{03632035-F7DF-4D55-982C-DF67A9CDA6BF}"/>
+    <hyperlink ref="B50" r:id="rId340" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{95002A70-1060-4D2D-B7B9-BFD216265553}"/>
+    <hyperlink ref="N49" r:id="rId341" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{2E6B62CF-BD4C-41AD-94FD-77C540EAD18A}"/>
+    <hyperlink ref="B49" r:id="rId342" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{43A907CA-ADCF-45E1-AD5D-BC32569F71B3}"/>
+    <hyperlink ref="N48" r:id="rId343" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{95A53A23-E33B-472E-AB1D-D6EE5A1B6532}"/>
+    <hyperlink ref="B48" r:id="rId344" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{11F36813-0E2C-416E-8FC7-A7D772F05DE1}"/>
+    <hyperlink ref="B47" r:id="rId345" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{9FCD6F05-F814-47F5-B6E7-81FD132CA5F4}"/>
+    <hyperlink ref="N46" r:id="rId346" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{774373BB-339A-4238-ABEC-F3130F3FE4AE}"/>
+    <hyperlink ref="B46" r:id="rId347" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{276344D7-0C1F-4093-A06F-78902788EE07}"/>
+    <hyperlink ref="N45" r:id="rId348" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{4B0F80D4-3655-4B0F-87A2-AE0B95FBE03F}"/>
+    <hyperlink ref="B45" r:id="rId349" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{04361B6D-AF17-4521-A86D-19F17A501CE7}"/>
+    <hyperlink ref="N44" r:id="rId350" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{0EFE27E9-AE43-446C-857E-D5188FA7542D}"/>
+    <hyperlink ref="B44" r:id="rId351" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{CEEEE425-104A-4CF2-8ADC-4A1A293D353C}"/>
+    <hyperlink ref="N43" r:id="rId352" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{82C93AA7-1D67-469A-A657-8C197452CB58}"/>
+    <hyperlink ref="B43" r:id="rId353" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{65F6AE0B-21F8-4666-BC0A-F9F6381AAADA}"/>
+    <hyperlink ref="N42" r:id="rId354" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{56A5F7FF-DAB7-42B6-B9B4-B260E5BB5434}"/>
+    <hyperlink ref="B42" r:id="rId355" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{3B381505-E8CA-4077-ADDA-2A6C50DEA9AA}"/>
+    <hyperlink ref="N41" r:id="rId356" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{D8623E97-1D39-4C22-A597-9226E3F0590E}"/>
+    <hyperlink ref="B41" r:id="rId357" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{357268EA-6428-4B80-B369-D2ECFC8346C1}"/>
+    <hyperlink ref="N40" r:id="rId358" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{20A5E9C9-E18E-47C7-B714-7EFF1B5A6C36}"/>
+    <hyperlink ref="B40" r:id="rId359" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{BDF681E8-F7E8-4EA4-A6CC-D5223B2A6410}"/>
+    <hyperlink ref="N39" r:id="rId360" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{94FA476A-FEA2-441D-824B-0709AA13D6D1}"/>
+    <hyperlink ref="B39" r:id="rId361" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{1C231C6E-FFC1-46EE-BEF3-036441656D10}"/>
+    <hyperlink ref="N38" r:id="rId362" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{E1A2A742-7F14-46DF-9CAD-0801B23CA930}"/>
+    <hyperlink ref="B38" r:id="rId363" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{147E0D1B-16AF-481B-867F-8343D6C121ED}"/>
+    <hyperlink ref="N37" r:id="rId364" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{3647BE16-1809-4434-924E-84ECED7D139D}"/>
+    <hyperlink ref="B37" r:id="rId365" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{1412CD6D-A0D5-4388-8F64-7F381557C889}"/>
+    <hyperlink ref="N36" r:id="rId366" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{A992F86C-4DD2-469F-BDB6-BDBE64B27A67}"/>
+    <hyperlink ref="B36" r:id="rId367" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{6056C90B-02E8-4565-98B8-544E07DD1A46}"/>
+    <hyperlink ref="N35" r:id="rId368" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{DBD50EC0-CC13-4332-B757-3E31899E3958}"/>
+    <hyperlink ref="B35" r:id="rId369" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{6819C2A3-F9F0-4A9C-8365-FD2D6CD44BFC}"/>
+    <hyperlink ref="N34" r:id="rId370" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{D4216F0C-78A1-4782-8677-F09C8FDDC7ED}"/>
+    <hyperlink ref="B34" r:id="rId371" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{3C759AEA-E9D8-414F-AF39-96815D06569B}"/>
+    <hyperlink ref="N33" r:id="rId372" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{709BF83E-D4D4-4D26-B3E6-869C348257A8}"/>
+    <hyperlink ref="B33" r:id="rId373" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{F26AEF1B-1ABC-4FCA-A5E8-99C3997737A4}"/>
+    <hyperlink ref="B32" r:id="rId374" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{872CA275-1A58-4849-9021-BD694FC147ED}"/>
+    <hyperlink ref="N31" r:id="rId375" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{1D432D29-C8DC-459F-80CA-7AC23CB194B0}"/>
+    <hyperlink ref="B31" r:id="rId376" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{9C491787-79DB-4528-8AD0-258CD710B743}"/>
+    <hyperlink ref="N30" r:id="rId377" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{F64933FB-2351-492F-9452-DA651FA0FC2B}"/>
+    <hyperlink ref="B30" r:id="rId378" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{CAECD6D4-307C-4AB0-9749-E700DF981976}"/>
+    <hyperlink ref="N29" r:id="rId379" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{77524DBF-4B04-4081-817D-CFDE9B030471}"/>
+    <hyperlink ref="B29" r:id="rId380" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{F7C47BB3-71E2-460E-8CDA-B0A82CE76792}"/>
+    <hyperlink ref="N28" r:id="rId381" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{9DEA29E1-EBA2-4D4D-8FEE-B203B5BF25AA}"/>
+    <hyperlink ref="B28" r:id="rId382" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{8904F934-06F8-49D1-B56F-859E5C3E111D}"/>
+    <hyperlink ref="N27" r:id="rId383" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{A63B4444-E5F4-4885-A2F4-5FD583C89D69}"/>
+    <hyperlink ref="B27" r:id="rId384" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{A4D0AF88-A83A-42BC-942B-68989408B54F}"/>
+    <hyperlink ref="N26" r:id="rId385" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{290C2C8B-1942-4B8E-AC90-7C36FE491CD8}"/>
+    <hyperlink ref="B26" r:id="rId386" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{1DEECBEC-E6CA-4C2A-B1F0-9DBFCAD78076}"/>
+    <hyperlink ref="N25" r:id="rId387" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{C3F9D9A4-D459-4B50-A89E-F9E14BD42445}"/>
+    <hyperlink ref="B25" r:id="rId388" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{C94A640D-2C82-405C-850B-DF1F1E52DD2B}"/>
+    <hyperlink ref="N24" r:id="rId389" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{66C9F702-FD21-4573-97DB-CAF76F037A02}"/>
+    <hyperlink ref="B24" r:id="rId390" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{D24146AB-0868-423D-9CE3-6FBD5638774A}"/>
+    <hyperlink ref="N23" r:id="rId391" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{D1032CF1-99E9-4CCA-B215-79FD7DAE5B65}"/>
+    <hyperlink ref="B23" r:id="rId392" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{5DB8BDCB-350D-4B95-942F-BDE431F5B2CC}"/>
+    <hyperlink ref="N22" r:id="rId393" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{9EC023D7-1E41-4C10-B577-D1145A2CC942}"/>
+    <hyperlink ref="B22" r:id="rId394" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{224579F0-1D01-4AEF-8C62-ED45C0025158}"/>
+    <hyperlink ref="N21" r:id="rId395" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{494BA5CE-3E85-4555-BC2F-91BBB7DF7285}"/>
+    <hyperlink ref="B21" r:id="rId396" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{180DD7B7-ADCA-46F9-827B-24C706738CA7}"/>
+    <hyperlink ref="N20" r:id="rId397" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{C725F2FA-B114-40A4-834E-586ED5FC2D76}"/>
+    <hyperlink ref="B20" r:id="rId398" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{273E1506-3E45-4B9A-BB95-C8BFD8339994}"/>
+    <hyperlink ref="N19" r:id="rId399" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{E53E25BC-5C64-4AC1-8270-1B718F5E26BA}"/>
+    <hyperlink ref="B19" r:id="rId400" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{C667A049-A472-4A3F-A03B-085222C8F484}"/>
+    <hyperlink ref="N18" r:id="rId401" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{A8112B0A-EF41-4232-88B8-48E90CBE63FE}"/>
+    <hyperlink ref="B18" r:id="rId402" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{5973F610-41F2-462A-A3E8-20795222BF97}"/>
+    <hyperlink ref="N17" r:id="rId403" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{68E61EB0-99E5-46F6-8A91-E55931291580}"/>
+    <hyperlink ref="B17" r:id="rId404" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{AC83AD0B-1A3F-47B6-8A53-7D4E330F2FB5}"/>
+    <hyperlink ref="N16" r:id="rId405" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{CE1671D4-F268-4A21-8667-7141CC870ECF}"/>
+    <hyperlink ref="B16" r:id="rId406" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{5346C264-C60B-435C-8266-827EDBE00DAA}"/>
+    <hyperlink ref="N15" r:id="rId407" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{FB0E00EE-6622-41DD-9216-5262FBCCBC3F}"/>
+    <hyperlink ref="B15" r:id="rId408" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{976216D5-A2FE-4D6A-B399-B24F2FD218C0}"/>
+    <hyperlink ref="N14" r:id="rId409" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{4A28A774-A13E-403C-990D-D612D8FE19E0}"/>
+    <hyperlink ref="B14" r:id="rId410" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{166B33C0-F0F6-4539-B1E3-711DB11D91CD}"/>
+    <hyperlink ref="N13" r:id="rId411" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{7A19807D-6586-4F3D-A4D9-790EBE3BACDA}"/>
+    <hyperlink ref="B13" r:id="rId412" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{AD767601-98B6-45B2-B509-E6E2D8533C1C}"/>
+    <hyperlink ref="N12" r:id="rId413" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{12797742-4CE3-40E3-8BAE-A76F8235A9E4}"/>
+    <hyperlink ref="B12" r:id="rId414" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{312C2ED8-F47D-430C-9C2A-E5F1C5782150}"/>
+    <hyperlink ref="N11" r:id="rId415" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{5CF46716-B0C6-4C45-A1F6-6AEB4521E6B7}"/>
+    <hyperlink ref="B11" r:id="rId416" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{6B133CDF-059F-47D9-A4DB-CB06218842C9}"/>
+    <hyperlink ref="N10" r:id="rId417" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{9BDA53DE-C5AE-47AA-879D-E04F0DFBBD12}"/>
+    <hyperlink ref="B10" r:id="rId418" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{B6895708-D585-4E71-B40E-441BA45D1575}"/>
+    <hyperlink ref="N9" r:id="rId419" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{DC9D2C81-96C1-4E6E-B322-CB963E5E8C5D}"/>
+    <hyperlink ref="B9" r:id="rId420" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{249D5DD7-850D-4541-ACDB-1FE6C38D894B}"/>
+    <hyperlink ref="N8" r:id="rId421" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{E4CE90D0-5C7A-4978-99B9-9640A020FC9A}"/>
+    <hyperlink ref="B8" r:id="rId422" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{7CFDA830-EE6B-4D67-AB34-D75D4848DD17}"/>
+    <hyperlink ref="N7" r:id="rId423" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{8329DBD5-28D4-463F-B23E-382C3358FC62}"/>
+    <hyperlink ref="B7" r:id="rId424" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{F879DB00-E076-4DBA-B6F3-169EAD62B844}"/>
+    <hyperlink ref="N6" r:id="rId425" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{AEDA166E-668D-41B7-9E6D-AE8CE37C6D85}"/>
+    <hyperlink ref="B6" r:id="rId426" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{C45D3CD1-F802-4A51-8CB9-AE664731D025}"/>
+    <hyperlink ref="N5" r:id="rId427" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{79F25847-8091-4028-B168-DE5B8A68B58F}"/>
+    <hyperlink ref="B5" r:id="rId428" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{7E286279-C945-4A8B-8ED6-4E97B40F4696}"/>
+    <hyperlink ref="N4" r:id="rId429" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{40A9F131-8D22-4607-B61D-A73A00549ACD}"/>
+    <hyperlink ref="B4" r:id="rId430" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{9CDFEAB5-F7B6-4712-BC62-08C5C8CFD5E4}"/>
+    <hyperlink ref="N3" r:id="rId431" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{50DAE91F-CCD7-4F97-B7B3-C4E35B51A130}"/>
+    <hyperlink ref="B3" r:id="rId432" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{742202B6-806E-4FB1-819F-2AAB06095FFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId433"/>
@@ -23993,438 +23993,438 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{8CF9F678-0628-494A-81B3-BEE70A54C15D}"/>
-    <hyperlink ref="N3" r:id="rId2" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{FED43EE4-502B-47C1-A781-6E70F41C265C}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{7A590F23-064F-4C55-853E-3F2A8028BD58}"/>
-    <hyperlink ref="N4" r:id="rId4" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{DB5FFF81-60C9-4CDA-A23D-87926C7A439A}"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{2AA839C4-31B2-449B-B01A-1DDC4A318B49}"/>
-    <hyperlink ref="N5" r:id="rId6" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{06BC1996-396A-476E-8AD8-3A863FBD8786}"/>
-    <hyperlink ref="B6" r:id="rId7" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{6D4F8C3D-ED96-4C86-A8C6-B4990964F628}"/>
-    <hyperlink ref="N6" r:id="rId8" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{E6AC3CB8-6C0B-4073-B30F-7E897E703D19}"/>
-    <hyperlink ref="B7" r:id="rId9" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{527DD192-BDA2-481A-A4F0-939C4CDD2330}"/>
-    <hyperlink ref="N7" r:id="rId10" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{932F22B9-5C5A-4086-9836-97A41A55F4D3}"/>
-    <hyperlink ref="B8" r:id="rId11" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{F33D9150-BB53-490E-B223-BA441A0C6F27}"/>
-    <hyperlink ref="N8" r:id="rId12" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{DEBD6CEB-55A1-40A0-9FBF-72A85C712189}"/>
-    <hyperlink ref="B9" r:id="rId13" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{11ABA382-C747-4920-99B5-DA7C4A701D31}"/>
-    <hyperlink ref="N9" r:id="rId14" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{8A94BE07-1220-4AD8-AF9E-86A9AC80F71B}"/>
-    <hyperlink ref="B10" r:id="rId15" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{43C2235B-2A33-4A6D-846F-B625620D9AC9}"/>
-    <hyperlink ref="N10" r:id="rId16" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{D956F23B-8EB9-4439-825B-4DF36ED524DB}"/>
-    <hyperlink ref="B11" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A8CF0A25-D409-453E-B88B-BBC611012BEB}"/>
-    <hyperlink ref="N11" r:id="rId18" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{E3CF59FB-C717-44B3-9AD3-602F6AC0C142}"/>
-    <hyperlink ref="B12" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{09A5673E-CC9D-4AB9-9A9B-42A61B780E33}"/>
-    <hyperlink ref="N12" r:id="rId20" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{709AD5DC-AF2A-428E-9D2B-868290614EF1}"/>
-    <hyperlink ref="B13" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{5BDA952A-A6E1-479A-AE09-1F07EA2CB722}"/>
-    <hyperlink ref="N13" r:id="rId22" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{968F68BB-4EB3-4C61-AA9A-C65B359E229C}"/>
-    <hyperlink ref="B14" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{35E79C0B-91F1-49FA-B9C5-41FBACD7942E}"/>
-    <hyperlink ref="N14" r:id="rId24" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{728F2F14-B300-41F6-92CE-A580AD3EAB6A}"/>
-    <hyperlink ref="B15" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{5FF2E22E-C593-4A78-BDBE-471407CD82B9}"/>
-    <hyperlink ref="N15" r:id="rId26" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{690D20EE-CA59-457B-915C-65006053A269}"/>
-    <hyperlink ref="B16" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{BF681935-B65B-4C73-9CAE-BED34E1829BE}"/>
-    <hyperlink ref="N16" r:id="rId28" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{D9299C7A-589F-4B3F-96FE-C4D87A1ECFAA}"/>
-    <hyperlink ref="B17" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{452B2632-03FD-475D-956C-C370045C954D}"/>
-    <hyperlink ref="N17" r:id="rId30" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{F77707C2-7149-40E2-B2E7-7039CE391FF5}"/>
-    <hyperlink ref="B18" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{84B03F47-D831-4346-9068-24364214C986}"/>
-    <hyperlink ref="N18" r:id="rId32" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{142E23D5-8834-49EC-92E3-F485751E9698}"/>
-    <hyperlink ref="B19" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{043D91F0-3E93-4DED-AB19-F9BF46247A80}"/>
-    <hyperlink ref="N19" r:id="rId34" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{349C6CA1-F1B7-458F-A137-FF2CDE708AC6}"/>
-    <hyperlink ref="B20" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{61213CA1-60BE-46F1-9B13-374E1031D800}"/>
-    <hyperlink ref="N20" r:id="rId36" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{DC5AE954-9C5E-4308-8713-097E14BDEFDC}"/>
-    <hyperlink ref="B21" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{1E3B0950-A0B5-4346-9462-D06D16765968}"/>
-    <hyperlink ref="N21" r:id="rId38" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{DFB7FD08-0AD1-4CD5-BB39-BEA66E846515}"/>
-    <hyperlink ref="B22" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{AD209F4A-B1F0-4D01-9A3B-00C5D45B7D09}"/>
-    <hyperlink ref="N22" r:id="rId40" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{CB4E2D39-086E-468E-B6FD-BE0C68AC9F0F}"/>
-    <hyperlink ref="B23" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{A2AF821A-A186-4A52-B49F-33470EA3DF52}"/>
-    <hyperlink ref="N23" r:id="rId42" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{09C13322-1B33-49C3-B2D2-240293E7C19C}"/>
-    <hyperlink ref="B24" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{CBEF641D-1E44-4625-B9ED-0DB7A288B1A1}"/>
-    <hyperlink ref="N24" r:id="rId44" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{67118BE7-D21C-43D5-9A85-3B2E7A34DBC8}"/>
-    <hyperlink ref="B25" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{8E9FC781-4062-46A8-9154-24D179B8AB0D}"/>
-    <hyperlink ref="N25" r:id="rId46" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{F3FE2468-51FC-4D8C-90F8-9F87E754707B}"/>
-    <hyperlink ref="B26" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{13AE0F6F-5041-49E4-86D0-1F885841EA27}"/>
-    <hyperlink ref="N26" r:id="rId48" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{90CC257D-DC68-4065-92ED-E84CD65C7D50}"/>
-    <hyperlink ref="B27" r:id="rId49" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{27F7ED5E-AC4E-4549-90D8-AE1C97EE6D81}"/>
-    <hyperlink ref="N27" r:id="rId50" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{361E24BC-8B53-405A-BB5A-B0625E391DDB}"/>
-    <hyperlink ref="B28" r:id="rId51" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{C438413B-F861-4581-B886-17A47EDEF200}"/>
-    <hyperlink ref="N28" r:id="rId52" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{0E638C4A-B9E9-4E5B-9973-12519B8A5368}"/>
-    <hyperlink ref="B29" r:id="rId53" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{C69836A8-A9EA-434B-B2E5-FFEC8884AE12}"/>
-    <hyperlink ref="N29" r:id="rId54" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{781F83E4-8E4E-41F9-ABA4-BE796F5B0170}"/>
-    <hyperlink ref="B30" r:id="rId55" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{7B2816E8-D2A1-4282-8205-85E61DB3A73E}"/>
-    <hyperlink ref="N30" r:id="rId56" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{3C0D2429-68B3-4333-8C6A-9122FC62874D}"/>
-    <hyperlink ref="B31" r:id="rId57" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{EE07CC62-0474-417B-AA8D-3A6CBCCDE2A1}"/>
-    <hyperlink ref="N31" r:id="rId58" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{62A85BB4-898D-40B6-8903-F9B5360E852C}"/>
-    <hyperlink ref="B32" r:id="rId59" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{DAA8BF4C-4FD3-46E2-BA4A-20DBDEE9F460}"/>
-    <hyperlink ref="B33" r:id="rId60" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{6F134EF6-5763-4A1C-B3EC-47001553AC4F}"/>
-    <hyperlink ref="N33" r:id="rId61" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{6AF008D3-B849-42E4-96C6-9A85C4F32E28}"/>
-    <hyperlink ref="B34" r:id="rId62" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{1256FBA1-C6DA-4A12-A996-C584545EE3BA}"/>
-    <hyperlink ref="N34" r:id="rId63" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{DFFB3958-F397-4117-83AC-CB76904C1273}"/>
-    <hyperlink ref="B35" r:id="rId64" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{9EDC060C-B2AF-4DB7-BF15-DB5A5A9EA1B2}"/>
-    <hyperlink ref="N35" r:id="rId65" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{2EFA3CA3-9F72-4527-AE50-23CE7421C613}"/>
-    <hyperlink ref="B36" r:id="rId66" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{2B2602EA-D3D1-42D2-A4FA-987B9E5857B2}"/>
-    <hyperlink ref="N36" r:id="rId67" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{AB533035-7923-4D6A-A4F4-CA817BE2F5CE}"/>
-    <hyperlink ref="B37" r:id="rId68" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{E08A46E8-FACA-40E5-861E-29FFBC9AB7D8}"/>
-    <hyperlink ref="N37" r:id="rId69" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{D987BAED-68B6-447D-8D63-84FF082C127E}"/>
-    <hyperlink ref="B38" r:id="rId70" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{EA9ADA6B-E587-435E-83E3-8DC238912926}"/>
-    <hyperlink ref="N38" r:id="rId71" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{9997D17F-3470-466A-A735-D9C0170F8AE0}"/>
-    <hyperlink ref="B39" r:id="rId72" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{C55B6ADF-B341-4998-B621-E489828E77EF}"/>
-    <hyperlink ref="N39" r:id="rId73" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{0D77366D-424C-4DAD-891B-5E02F2FE4E5C}"/>
-    <hyperlink ref="B40" r:id="rId74" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{86B08CCF-2E81-41D2-A3F4-76A3F23DEF72}"/>
-    <hyperlink ref="N40" r:id="rId75" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{F66F646A-DA6F-4C63-925D-449BE5F3489B}"/>
-    <hyperlink ref="B41" r:id="rId76" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{834F8AC3-2CDE-4C49-AA75-6895F80BCAE6}"/>
-    <hyperlink ref="N41" r:id="rId77" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{8E062CF4-85CF-4685-A6C8-C301AEDEC45F}"/>
-    <hyperlink ref="B42" r:id="rId78" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{88B7D757-B27E-4202-831D-39F6B636CC24}"/>
-    <hyperlink ref="N42" r:id="rId79" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{D6015D80-B2CC-45CA-8311-853593EAFE8D}"/>
-    <hyperlink ref="B43" r:id="rId80" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{C910260D-2C0D-49A9-816D-AB9F8292F114}"/>
-    <hyperlink ref="N43" r:id="rId81" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{FE89A579-DC42-4937-930F-518E1EBC1210}"/>
-    <hyperlink ref="B44" r:id="rId82" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{A5B12C15-1125-4728-B86E-93B5E5AFDA0E}"/>
-    <hyperlink ref="N44" r:id="rId83" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{B43E8DB0-A5CC-4A71-B84E-1462F9AA668A}"/>
-    <hyperlink ref="B45" r:id="rId84" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{30C8AF1A-76D2-4E73-A4A5-B51CC6D63264}"/>
-    <hyperlink ref="N45" r:id="rId85" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{50449F6B-F766-41EB-983C-F7C7BD219DEE}"/>
-    <hyperlink ref="B46" r:id="rId86" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{C9981883-3A96-4F1C-B604-77210B6839D4}"/>
-    <hyperlink ref="N46" r:id="rId87" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{E78F994A-83FC-4CB5-9CCD-7D7E14EF0B68}"/>
-    <hyperlink ref="B47" r:id="rId88" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{C6D724D5-6A56-4DB4-BDE7-87EEDB856A71}"/>
-    <hyperlink ref="B48" r:id="rId89" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{8597CD64-26DA-4B32-BC48-4F01BFEF6EAC}"/>
-    <hyperlink ref="N48" r:id="rId90" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{81EFB919-7C12-4F42-88DF-DA392AD9C649}"/>
-    <hyperlink ref="B49" r:id="rId91" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{CAC3D071-BCC4-44AD-B38B-9D172F19AC12}"/>
-    <hyperlink ref="N49" r:id="rId92" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{6D7166AE-CD03-438E-BA31-BCABAC40F0C0}"/>
-    <hyperlink ref="B50" r:id="rId93" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{C6062D4A-8CD7-4129-9EB4-D4BCE5696AFB}"/>
-    <hyperlink ref="N50" r:id="rId94" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{945EF36D-0EEB-4ECE-ACE3-11B9143CBCE9}"/>
-    <hyperlink ref="B51" r:id="rId95" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{7768CE86-D454-499C-A525-793484ACD6BE}"/>
-    <hyperlink ref="N51" r:id="rId96" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{BE113C37-4063-420B-B1D1-4D713E263C15}"/>
-    <hyperlink ref="B52" r:id="rId97" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{ADAC177E-359E-4B9C-982B-2905064DDB19}"/>
-    <hyperlink ref="N52" r:id="rId98" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{2305C0EF-B2D6-446F-A9D4-B750A125ABB1}"/>
-    <hyperlink ref="B53" r:id="rId99" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{92AEB513-CC45-46DC-94E4-F82E1AE1C7A4}"/>
-    <hyperlink ref="N53" r:id="rId100" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{17BAAF44-91FB-437E-9147-E7CBD687F49D}"/>
-    <hyperlink ref="B54" r:id="rId101" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{936F25B8-2218-4C82-AA3B-8D618FD5286A}"/>
-    <hyperlink ref="N54" r:id="rId102" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{7E65D4B0-2F44-4EBE-8748-1FBEBD649071}"/>
-    <hyperlink ref="B55" r:id="rId103" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{0FABA865-1BC1-4A79-A446-88CD83808A16}"/>
-    <hyperlink ref="N55" r:id="rId104" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{CE9F4794-F7D8-4236-AC26-DEB3065FB62A}"/>
-    <hyperlink ref="B56" r:id="rId105" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{743D8B64-D41C-4E41-857B-5833EF343691}"/>
-    <hyperlink ref="N56" r:id="rId106" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{CE127B01-DD87-4AD4-B5CA-5664DCA815E4}"/>
-    <hyperlink ref="B57" r:id="rId107" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{097420F7-1B8F-48D0-921E-BE28175CA7AB}"/>
-    <hyperlink ref="N57" r:id="rId108" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{BEFAD048-2844-445A-B363-6D172CC5CE6E}"/>
-    <hyperlink ref="B58" r:id="rId109" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{CD1CDF09-DCC4-4E08-B46D-6FC44EC4D1DD}"/>
-    <hyperlink ref="N58" r:id="rId110" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{7954590C-9B09-4185-A6D3-404B409AC563}"/>
-    <hyperlink ref="B59" r:id="rId111" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{76C72860-CDFE-47EB-9196-1ECB7AB3E99B}"/>
-    <hyperlink ref="N59" r:id="rId112" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{E8CEF896-C608-4894-88F0-3EBFF638B739}"/>
-    <hyperlink ref="B60" r:id="rId113" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{C3503A2E-C9A5-4979-B671-69DE9DE0EF01}"/>
-    <hyperlink ref="N60" r:id="rId114" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{46C7DF5D-C3C6-46B3-BD24-C5FF23DA35CC}"/>
-    <hyperlink ref="B61" r:id="rId115" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{6524BEC8-8836-434B-8232-84E521DBBC29}"/>
-    <hyperlink ref="N61" r:id="rId116" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{39B5D43B-D3F5-4C60-8071-4DEB2A7B1134}"/>
-    <hyperlink ref="B62" r:id="rId117" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{09648B32-0329-49C2-AFB1-2755CFF6C008}"/>
-    <hyperlink ref="N62" r:id="rId118" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{0CEB77B2-3301-4C29-B2DA-7FD430FEF83F}"/>
-    <hyperlink ref="B63" r:id="rId119" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{BEC6F12A-D8F4-4EF1-9BC4-5684D243D5B3}"/>
-    <hyperlink ref="N63" r:id="rId120" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{83BD5040-697A-4EEA-A0C3-83BC9F405A11}"/>
-    <hyperlink ref="B64" r:id="rId121" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{F034C25E-F929-4B59-B4A2-90C581B8AD28}"/>
-    <hyperlink ref="N64" r:id="rId122" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{570AC6D3-8B17-4B6E-8DC5-E81AC9E2B277}"/>
-    <hyperlink ref="B65" r:id="rId123" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{B9280FCB-6F34-4720-B384-62F9BFB806BB}"/>
-    <hyperlink ref="N65" r:id="rId124" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{E3873AE1-7D91-4DBC-93A6-4C66877C7474}"/>
-    <hyperlink ref="B66" r:id="rId125" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{706B48E4-D6B0-4665-9B4C-86ED8F1F37C7}"/>
-    <hyperlink ref="N66" r:id="rId126" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{E2A378A8-53E4-454F-BF84-7FDD19B0157D}"/>
-    <hyperlink ref="B67" r:id="rId127" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{F99CC0E7-9343-4F2F-9861-16327AD44CBB}"/>
-    <hyperlink ref="B68" r:id="rId128" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{01E38689-725E-4C49-87E3-C1CEE0991780}"/>
-    <hyperlink ref="N68" r:id="rId129" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{B3780D76-EAF0-4B9B-A838-17F99971040C}"/>
-    <hyperlink ref="B69" r:id="rId130" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{A4E276BC-EFB1-4816-9C94-D403F169BC18}"/>
-    <hyperlink ref="N69" r:id="rId131" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{D6D4F4D6-DB7E-4A7A-826F-8299942DAC58}"/>
-    <hyperlink ref="B70" r:id="rId132" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{089B554B-A5A7-4649-BDC3-3A8CA62EDE53}"/>
-    <hyperlink ref="N70" r:id="rId133" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{35B5B0E2-A110-4B03-878B-CB0449F3F34B}"/>
-    <hyperlink ref="B71" r:id="rId134" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{BFC92243-2D94-4238-A4DE-74A160ED6C61}"/>
-    <hyperlink ref="N71" r:id="rId135" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{E1C3943D-F5C1-4776-9AC1-807ED439E2EF}"/>
-    <hyperlink ref="B72" r:id="rId136" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{22897403-E2FB-402E-930F-5CA0A0B2C482}"/>
-    <hyperlink ref="N72" r:id="rId137" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{2763B381-DA6B-42B1-88C6-9E818502940F}"/>
-    <hyperlink ref="B73" r:id="rId138" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{9B9B3A3E-5F1F-4687-9D26-19F69E8A8D0E}"/>
-    <hyperlink ref="N73" r:id="rId139" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{4D9C862E-3E09-42B4-8DA0-D6A169C48E16}"/>
-    <hyperlink ref="B74" r:id="rId140" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{AC7A8B63-BEAE-4389-8A5A-D124B5BA9887}"/>
-    <hyperlink ref="N74" r:id="rId141" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{837884F0-CBE9-47FB-9879-7D9FAF464B84}"/>
-    <hyperlink ref="B75" r:id="rId142" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{05F061B2-F223-495D-8357-B8CAB9037983}"/>
-    <hyperlink ref="N75" r:id="rId143" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{08F3FC81-7B30-4402-838F-BBB17CAF045D}"/>
-    <hyperlink ref="B76" r:id="rId144" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{F42DE4D1-9AC4-4896-B46E-940C07A0F43B}"/>
-    <hyperlink ref="N76" r:id="rId145" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{76112124-A7FE-4FB0-8C28-49831B459C8C}"/>
-    <hyperlink ref="B77" r:id="rId146" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{D385D8B9-D3D5-4282-A3CA-FA3AF8356B94}"/>
-    <hyperlink ref="N77" r:id="rId147" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{DA57289B-7F8D-49DE-B713-257E7EF2E27F}"/>
-    <hyperlink ref="B78" r:id="rId148" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{20E0BC38-AF9B-4310-BFC7-9F1511C04193}"/>
-    <hyperlink ref="N78" r:id="rId149" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{24897EA4-BE95-4C1D-B159-1B06958670B1}"/>
-    <hyperlink ref="B79" r:id="rId150" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{8CE8DD09-EC93-4397-994B-85018854237C}"/>
-    <hyperlink ref="N79" r:id="rId151" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{41C01C98-6992-4D9A-AACE-58DA8FED9458}"/>
-    <hyperlink ref="B80" r:id="rId152" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{67985BB1-F4CE-4B88-8E9A-14B2311CF5BA}"/>
-    <hyperlink ref="N80" r:id="rId153" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{D4A9D58F-5F73-4376-B271-AA8F34687E41}"/>
-    <hyperlink ref="B81" r:id="rId154" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{6DB9A355-1AB5-4830-8972-EF058016B32D}"/>
-    <hyperlink ref="N81" r:id="rId155" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{49056A10-0AEF-4BDC-8DEA-69ADA3D7B8DC}"/>
-    <hyperlink ref="B82" r:id="rId156" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{F1F85F21-A4B6-4EAA-93EF-AA7B3DB9BF3D}"/>
-    <hyperlink ref="N82" r:id="rId157" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{CB9F16FD-FFFB-470A-AFE2-05ABE297E9E5}"/>
-    <hyperlink ref="B83" r:id="rId158" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{316FF1A5-4AD3-4311-AFE6-E15E7DD2F125}"/>
-    <hyperlink ref="N83" r:id="rId159" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{3B7F84C0-4E1C-41DE-AC64-BBD8C74E5612}"/>
-    <hyperlink ref="B84" r:id="rId160" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{36EA8C07-3ABD-4A91-9771-BEEF438E6A8C}"/>
-    <hyperlink ref="N84" r:id="rId161" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{84731F07-833C-44C7-BA46-7CA3689B73BF}"/>
-    <hyperlink ref="B85" r:id="rId162" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{C6015393-918A-4321-A311-D4D5B19FC24C}"/>
-    <hyperlink ref="N85" r:id="rId163" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{F48D9CB9-1B57-4BB3-9469-5E78C19E92E6}"/>
-    <hyperlink ref="B86" r:id="rId164" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{B73CFDBD-1A5A-457F-A8BC-2F3B0A6B683C}"/>
-    <hyperlink ref="N86" r:id="rId165" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{D1E57A5F-B6C3-406F-A301-720271A23FA2}"/>
-    <hyperlink ref="B87" r:id="rId166" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{E46A8A26-8412-427D-8384-1D78A4032EFC}"/>
-    <hyperlink ref="N87" r:id="rId167" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{CA4A3713-2BA2-4E62-B237-8C64EE345FC7}"/>
-    <hyperlink ref="B88" r:id="rId168" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{46925F13-0B84-4711-B611-CA9D8A8AFBB4}"/>
-    <hyperlink ref="N88" r:id="rId169" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{84DCAA60-BB77-4E03-82CD-362F6FFAA38C}"/>
-    <hyperlink ref="B89" r:id="rId170" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{8E63C1E2-CACC-47B3-96CB-E1DCF3C2B6D6}"/>
-    <hyperlink ref="N89" r:id="rId171" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{E75A3531-55EF-43AD-89EC-E98BE497F736}"/>
-    <hyperlink ref="B90" r:id="rId172" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{7FF6C9F9-A9E1-4DAE-8BD7-8C49085970C3}"/>
-    <hyperlink ref="N90" r:id="rId173" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{B97464CD-9BE3-429F-B835-4A2DAA31F4E1}"/>
-    <hyperlink ref="B91" r:id="rId174" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{501AAAAC-ACD6-4FC0-9D98-447B983432F9}"/>
-    <hyperlink ref="N91" r:id="rId175" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{64E60718-56A3-45E7-AA5D-86F8792FDBB8}"/>
-    <hyperlink ref="B92" r:id="rId176" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{6DD17C14-18F4-4965-9BA5-E35E71D8383D}"/>
-    <hyperlink ref="N92" r:id="rId177" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{02C960B6-40E8-4F11-B1BA-23A3974258E6}"/>
-    <hyperlink ref="B93" r:id="rId178" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{E89AFA4A-8ABD-4F94-BAA1-8A07FF7271D6}"/>
-    <hyperlink ref="N93" r:id="rId179" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{903012CC-AAE2-4F15-80C6-E280C3E7CDED}"/>
-    <hyperlink ref="B94" r:id="rId180" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{ADAB0F09-AB70-4E26-B484-C969F83F9FC1}"/>
-    <hyperlink ref="N94" r:id="rId181" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{CD29EDB6-9A2B-461B-831A-7601BF7C42B8}"/>
-    <hyperlink ref="B95" r:id="rId182" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{10538E49-B008-43E5-9E58-9A0E4314C671}"/>
-    <hyperlink ref="N95" r:id="rId183" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{35048466-6DE9-4DB5-BEC7-AF0D52D1A970}"/>
-    <hyperlink ref="B96" r:id="rId184" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{F65EB8A8-B063-4C40-AD6D-2570AD0C1332}"/>
-    <hyperlink ref="N96" r:id="rId185" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{E21BCF5B-19A3-4809-919D-7CD3B10CEAB3}"/>
-    <hyperlink ref="B97" r:id="rId186" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{FFA5492D-8AF1-427E-9E2D-419D0298F9A4}"/>
-    <hyperlink ref="N97" r:id="rId187" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{0D3B0FD2-5D91-480C-9F9F-D5594826D5B5}"/>
-    <hyperlink ref="B98" r:id="rId188" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{8ED1C89D-0DF1-4C94-869B-BC36F2536EC4}"/>
-    <hyperlink ref="N98" r:id="rId189" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{FDE980DE-ECCA-4677-BE34-0DC7FEFE3E72}"/>
-    <hyperlink ref="B99" r:id="rId190" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{0FBCA769-D60C-4AA0-85BF-FDD01C771E7B}"/>
-    <hyperlink ref="N99" r:id="rId191" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{6BC0B8D0-FCD1-4636-BDEF-F6DA5C8EEC18}"/>
-    <hyperlink ref="B100" r:id="rId192" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{47980BD9-F4EF-4323-9C84-1C908241C078}"/>
-    <hyperlink ref="N100" r:id="rId193" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{88733A89-E76A-4BEA-87AC-1EA7A47BED7A}"/>
-    <hyperlink ref="B101" r:id="rId194" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{7B1F8E2F-A8ED-4629-ACFB-BE1B0EB5565B}"/>
-    <hyperlink ref="N101" r:id="rId195" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{B129C033-F3E6-4A15-BD79-B50AB10A0EC9}"/>
-    <hyperlink ref="B102" r:id="rId196" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{3194B66C-8B78-42D5-848B-08DD5BF791F9}"/>
-    <hyperlink ref="N102" r:id="rId197" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{CCC15A55-63EE-4BC2-8B66-02E29E0E62E1}"/>
-    <hyperlink ref="B103" r:id="rId198" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{BEDD62F2-8ED0-4C25-836F-A888C65A6614}"/>
-    <hyperlink ref="N103" r:id="rId199" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{C01DFB72-3A18-40D3-BFF8-283839206F59}"/>
-    <hyperlink ref="B104" r:id="rId200" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{7711F2E6-617E-4450-A5DB-A90E970927CB}"/>
-    <hyperlink ref="N104" r:id="rId201" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{A5B66697-17C1-499C-ABA9-E6E31A0E8B05}"/>
-    <hyperlink ref="B105" r:id="rId202" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{739025E4-EED9-4314-A19E-1EA08D348F94}"/>
-    <hyperlink ref="N105" r:id="rId203" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{2D4CBFC5-0C98-46EC-8C54-EB0231F891B9}"/>
-    <hyperlink ref="B106" r:id="rId204" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{024C4101-8F3B-43C0-9180-B9D560A1BBDB}"/>
-    <hyperlink ref="N106" r:id="rId205" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{429E55C1-D119-4D2F-B3A9-46D077203A4F}"/>
-    <hyperlink ref="B107" r:id="rId206" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{D1475D90-5CCD-47B8-BF4D-B9539F15EE27}"/>
-    <hyperlink ref="N107" r:id="rId207" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{BFCE0C05-CDB6-4CCC-BB53-711E647150B5}"/>
-    <hyperlink ref="B108" r:id="rId208" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{81FDC4B8-8EB7-4937-B6BC-4EA24195E22F}"/>
-    <hyperlink ref="N108" r:id="rId209" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{7D20BB44-944D-4990-A85C-47DEEDD5649B}"/>
-    <hyperlink ref="B109" r:id="rId210" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{4185324D-0B05-445F-BE84-E529C5609659}"/>
-    <hyperlink ref="N109" r:id="rId211" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{04EA3B89-3D6A-469B-BD07-11022B4A87D8}"/>
-    <hyperlink ref="B110" r:id="rId212" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{B95BD4AF-0338-45A5-9DF6-A96BB7DF9D3A}"/>
-    <hyperlink ref="N110" r:id="rId213" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{F54E8B78-F1B7-42A2-800A-AB9D43786E64}"/>
-    <hyperlink ref="B111" r:id="rId214" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{9CC269C5-81F3-4CFD-8936-1EA94FA23197}"/>
-    <hyperlink ref="N111" r:id="rId215" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{0C62EE5A-C6C2-4BFE-81C5-8013329EAD18}"/>
-    <hyperlink ref="B112" r:id="rId216" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{8DE35098-C219-4B2C-99B4-291F9D61588D}"/>
-    <hyperlink ref="N112" r:id="rId217" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{93ADF870-DA59-4090-85FF-EBB6264452D1}"/>
-    <hyperlink ref="B113" r:id="rId218" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{1CDCCE33-CD62-40F1-95E8-0EB208AFAB49}"/>
-    <hyperlink ref="N113" r:id="rId219" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{D1F8AE47-48C9-413A-A69A-40C26E58F117}"/>
-    <hyperlink ref="B114" r:id="rId220" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{E65F969B-49C9-4DF2-B6BF-D60497397A96}"/>
-    <hyperlink ref="N114" r:id="rId221" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{8F8F5F7B-CE51-4BDE-A76D-98F9E5BD475F}"/>
-    <hyperlink ref="B115" r:id="rId222" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{74788BCE-ECBD-470A-BE60-CD65F59D0247}"/>
-    <hyperlink ref="N115" r:id="rId223" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{83AF2BC5-A936-456E-A9DC-34AF001B59FF}"/>
-    <hyperlink ref="B116" r:id="rId224" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{0467F2CB-6BF7-43CE-988F-E124BEC36A22}"/>
-    <hyperlink ref="N116" r:id="rId225" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{6AC48FC4-E0E6-49B5-8F12-3038BE4A1742}"/>
-    <hyperlink ref="B117" r:id="rId226" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{65B34651-D9E3-4997-826F-E265A916F4C7}"/>
-    <hyperlink ref="N117" r:id="rId227" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{1752188B-18F7-4BA5-92C3-B53410B38C3C}"/>
-    <hyperlink ref="B118" r:id="rId228" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{D9FFA330-4B0A-4C2C-8AB0-A47348D11A6F}"/>
-    <hyperlink ref="N118" r:id="rId229" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{D94FF5A0-F164-4F4C-A43A-9B39AAC81EEA}"/>
-    <hyperlink ref="B119" r:id="rId230" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{02A2B697-BE46-4085-9385-7D4C950D1CE0}"/>
-    <hyperlink ref="N119" r:id="rId231" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{AA6DF3A9-D97F-4005-B1AC-4AC6EDB695F0}"/>
-    <hyperlink ref="B120" r:id="rId232" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{6BA645AF-AF92-46BB-9D78-83728B6C3D9A}"/>
-    <hyperlink ref="N120" r:id="rId233" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{54A7F71F-3FFC-4CFA-9371-CEABA609C68C}"/>
-    <hyperlink ref="B121" r:id="rId234" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{C671E41F-674F-4994-8525-4032464E0EC6}"/>
-    <hyperlink ref="N121" r:id="rId235" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{B1937DA4-9B95-4560-9A16-67C3D3FC5FB8}"/>
-    <hyperlink ref="B122" r:id="rId236" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{B121FFBB-F505-4438-8677-F8FD42B5C3DA}"/>
-    <hyperlink ref="N122" r:id="rId237" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{2A8DA3EE-07D7-4ECB-B16A-9968E3EEDC54}"/>
-    <hyperlink ref="B123" r:id="rId238" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{715DFCF3-7AC9-41BC-9079-2FAA11FD5A4D}"/>
-    <hyperlink ref="N123" r:id="rId239" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{F521E272-7BC0-439C-8990-1598DE351D9E}"/>
-    <hyperlink ref="B124" r:id="rId240" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{6DD28D26-B641-4B9C-B6CD-D217707D2726}"/>
-    <hyperlink ref="N124" r:id="rId241" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{1436836C-8703-40CE-B1BB-685F07EF82A6}"/>
-    <hyperlink ref="B125" r:id="rId242" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{3CAF86D7-FDB7-4B5F-9ADC-4358587B9414}"/>
-    <hyperlink ref="N125" r:id="rId243" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{67CC9832-C352-4F92-8BAF-1C3CC292F6CC}"/>
-    <hyperlink ref="B126" r:id="rId244" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{13D5110D-99C2-4F7F-938B-49F28D9357EA}"/>
-    <hyperlink ref="N126" r:id="rId245" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{09AC2D5E-F116-4EE3-A3A4-50836873DCE1}"/>
-    <hyperlink ref="B127" r:id="rId246" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{986F04E8-6CF1-4D74-A415-9989A9E5B5B9}"/>
-    <hyperlink ref="N127" r:id="rId247" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{69E21D28-EE8C-4AA1-8439-580590786722}"/>
-    <hyperlink ref="B128" r:id="rId248" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{0FAE87D5-1BF9-4295-B35F-A13960BA3ED7}"/>
-    <hyperlink ref="N128" r:id="rId249" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{48735A8A-C7E0-47F4-B4FA-C4685CA20B32}"/>
-    <hyperlink ref="B129" r:id="rId250" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{03DFFD40-6104-41BE-9DD3-7AE24A02D837}"/>
-    <hyperlink ref="N129" r:id="rId251" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{824E4A62-0863-4B10-8086-EE1FA30C2197}"/>
-    <hyperlink ref="B130" r:id="rId252" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{AEE1E763-9854-4B58-97B2-5A5FCAD1E1E8}"/>
-    <hyperlink ref="N130" r:id="rId253" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{D2804177-FCB8-47EC-84CA-042D479A34FD}"/>
-    <hyperlink ref="B131" r:id="rId254" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{2F91A9BD-F3D3-428E-A407-BF13C4F74ABC}"/>
-    <hyperlink ref="N131" r:id="rId255" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{DC9D73F1-D3A9-4C40-94A9-8DD9E9D1D3E9}"/>
-    <hyperlink ref="B132" r:id="rId256" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{084098A6-00BC-44D7-AB5D-749CAE79CEB5}"/>
-    <hyperlink ref="N132" r:id="rId257" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{6020BB20-2A3F-4925-9CAB-30016C4B5005}"/>
-    <hyperlink ref="B133" r:id="rId258" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{8D537029-DD85-4DF6-A913-4CA24F30153C}"/>
-    <hyperlink ref="N133" r:id="rId259" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{8889C465-1B2A-43A2-B46A-54E6E59930FA}"/>
-    <hyperlink ref="B134" r:id="rId260" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{2B37AFE1-A426-40DA-9A3C-560E35AFF8DA}"/>
-    <hyperlink ref="N134" r:id="rId261" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{3C6A54E8-64D6-40CB-A8B5-25C3FF2C678E}"/>
-    <hyperlink ref="B135" r:id="rId262" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{DC289619-50B4-4536-AD56-A38292F12709}"/>
-    <hyperlink ref="N135" r:id="rId263" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{B58173CD-12F4-48F4-962B-66F74C9531DA}"/>
-    <hyperlink ref="B136" r:id="rId264" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{8D3EB816-7035-4194-AA6A-6E0AE6D43479}"/>
-    <hyperlink ref="N136" r:id="rId265" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{1358D7A8-94C3-4C85-9EC2-D56D514CD0E4}"/>
-    <hyperlink ref="B137" r:id="rId266" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{5E568481-D900-4FB6-9262-D0B2351F53F6}"/>
-    <hyperlink ref="N137" r:id="rId267" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{C075DC3E-4815-4A0C-BD33-4BECB9E8CDBD}"/>
-    <hyperlink ref="B138" r:id="rId268" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{C8F204BE-DB5C-428E-BCEC-A64920BBF127}"/>
-    <hyperlink ref="N138" r:id="rId269" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{7A5AE61C-C309-4C7A-A109-97A616CC8983}"/>
-    <hyperlink ref="B139" r:id="rId270" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{F329877C-5E8F-4F5B-911C-1281EEDC3B94}"/>
-    <hyperlink ref="N139" r:id="rId271" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{A95DFEE6-210C-4194-A505-4693B8E45B34}"/>
-    <hyperlink ref="B140" r:id="rId272" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{BE912216-86C7-4BCA-AE48-9CC142B613D2}"/>
-    <hyperlink ref="N140" r:id="rId273" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{9ECEB7B0-1EC5-419A-AAE8-D914191DBB76}"/>
-    <hyperlink ref="B141" r:id="rId274" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{C38B72EF-4895-46CB-8A7B-D8FA9150BEE4}"/>
-    <hyperlink ref="N141" r:id="rId275" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{3F41D33D-1D47-4064-98BA-B5D6664D115C}"/>
-    <hyperlink ref="B142" r:id="rId276" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{E497753A-586B-4F03-AD16-9D7358D7556A}"/>
-    <hyperlink ref="N142" r:id="rId277" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{367F8197-6A00-4257-87A5-211E9FE85296}"/>
-    <hyperlink ref="B143" r:id="rId278" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{ADB739EB-9D4A-46E9-9E9A-57B113E3BF34}"/>
-    <hyperlink ref="N143" r:id="rId279" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{DEE2899D-D359-4404-A80A-074068EE156D}"/>
-    <hyperlink ref="B144" r:id="rId280" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{2A415DFD-0206-4EA6-89F9-6457D9F7F337}"/>
-    <hyperlink ref="N144" r:id="rId281" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{837B02CD-B36E-410E-9535-28851473B7BB}"/>
-    <hyperlink ref="B145" r:id="rId282" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{0A3FA39E-3230-43B1-9C08-B5CF9EB90168}"/>
-    <hyperlink ref="N145" r:id="rId283" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{18AA6ECB-B24E-4C38-82C9-62582D15419A}"/>
-    <hyperlink ref="B146" r:id="rId284" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{8B59E3D5-0809-417A-8198-33DBE1D5B0F8}"/>
-    <hyperlink ref="N146" r:id="rId285" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{8520E5F6-7C83-46BC-B08D-DBC8A27869CD}"/>
-    <hyperlink ref="B147" r:id="rId286" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{67E14E0F-43A9-4219-8CD1-7EA8502BA024}"/>
-    <hyperlink ref="N147" r:id="rId287" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{8B5137CF-CC5E-4279-83F1-A7EF09DF15B3}"/>
-    <hyperlink ref="B148" r:id="rId288" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{491D585B-866D-447B-983C-C4E3679D10D8}"/>
-    <hyperlink ref="N148" r:id="rId289" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{3262EADF-08B8-4FF8-810B-BE0A9EB92058}"/>
-    <hyperlink ref="B149" r:id="rId290" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{C2A8B881-7747-4ED2-8BD6-0740FDC212CC}"/>
-    <hyperlink ref="N149" r:id="rId291" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{9B5506BB-3951-411C-A576-853D21FC20CB}"/>
-    <hyperlink ref="B150" r:id="rId292" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{39157360-C3C7-40D3-833E-0608D2079601}"/>
-    <hyperlink ref="N150" r:id="rId293" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{F95FE660-8591-45DD-B883-ED76CC4533F4}"/>
-    <hyperlink ref="B151" r:id="rId294" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{6854B089-4075-437F-8D84-684478838EE4}"/>
-    <hyperlink ref="N151" r:id="rId295" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{C946143A-4FD4-4C6F-9648-BA7450F177B5}"/>
-    <hyperlink ref="B152" r:id="rId296" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{3E17209A-D5BD-4431-96C8-090973D8360B}"/>
-    <hyperlink ref="N152" r:id="rId297" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{BECA0AB0-60D3-4466-B89E-6B1F958E700E}"/>
-    <hyperlink ref="B153" r:id="rId298" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{3DEDE6DD-F13F-40D0-B7DB-9481745B2F4C}"/>
-    <hyperlink ref="N153" r:id="rId299" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{8D17EF00-A74B-431F-BED1-596FA869E218}"/>
-    <hyperlink ref="B154" r:id="rId300" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{B3D70C02-7908-4BAA-B639-54548022A7D2}"/>
-    <hyperlink ref="N154" r:id="rId301" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{4DD5B4A6-F145-4DC7-AD8C-6288813ABF7B}"/>
-    <hyperlink ref="B155" r:id="rId302" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{5AFC1870-7C18-402C-BD95-A703DD88CAA4}"/>
-    <hyperlink ref="N155" r:id="rId303" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{C15C94D3-782A-4044-BBEF-0CB8C0514582}"/>
-    <hyperlink ref="B156" r:id="rId304" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{40B89D2F-163C-4CC4-B371-6D1B432DC657}"/>
-    <hyperlink ref="N156" r:id="rId305" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{D3DEB16D-C7DD-4607-A245-DE8883A1C4C7}"/>
-    <hyperlink ref="B157" r:id="rId306" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{D23C380C-3558-4A95-85A0-08BD717EFCB9}"/>
-    <hyperlink ref="N157" r:id="rId307" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{2CEC52B1-3140-45D9-A866-4D1CAFC0DBE1}"/>
-    <hyperlink ref="B158" r:id="rId308" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{4ACE7310-F72A-4398-87ED-7FBBD4A89BB3}"/>
-    <hyperlink ref="N158" r:id="rId309" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{B7630CCF-C792-44B1-BC20-B5139B3C25C1}"/>
-    <hyperlink ref="B159" r:id="rId310" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{7443BE94-5B93-4B30-A18C-5644226BCD22}"/>
-    <hyperlink ref="N159" r:id="rId311" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{601B5998-7BF0-42E3-A648-223DDBCDC687}"/>
-    <hyperlink ref="B160" r:id="rId312" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{5E335C02-2643-411D-9085-ACFC6B7DF6E6}"/>
-    <hyperlink ref="N160" r:id="rId313" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{2665A313-62B6-404A-8C56-F552535C155C}"/>
-    <hyperlink ref="B161" r:id="rId314" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{05076EFA-FCE8-470A-B53D-2CB930D6B319}"/>
-    <hyperlink ref="N161" r:id="rId315" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{F73E9B7A-CAC6-4B00-B1DE-E155EA3B45A5}"/>
-    <hyperlink ref="B162" r:id="rId316" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{E8D699FF-45A6-4E46-B5E9-B88220B92D1A}"/>
-    <hyperlink ref="N162" r:id="rId317" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{283FD197-1185-4EBB-B087-9E3B4952E118}"/>
-    <hyperlink ref="B163" r:id="rId318" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{0021BE76-B6BC-4151-A654-FC0A0762634E}"/>
-    <hyperlink ref="B164" r:id="rId319" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{000081AF-BC15-4544-84E3-63570B8B3C82}"/>
-    <hyperlink ref="N164" r:id="rId320" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{8C5E87AA-4A71-4610-A2E6-549094278239}"/>
-    <hyperlink ref="B165" r:id="rId321" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{F0EEA31D-1590-4969-BFE4-F623780E5CA8}"/>
-    <hyperlink ref="N165" r:id="rId322" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{296F6DB1-C650-447D-93EB-6D9AAA9A0AEE}"/>
-    <hyperlink ref="B166" r:id="rId323" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{BCA38E8E-C745-484C-AF9A-09E498189CA3}"/>
-    <hyperlink ref="N166" r:id="rId324" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{990BD556-0A6A-4D46-AD91-B89A4642A0F4}"/>
-    <hyperlink ref="B167" r:id="rId325" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{63A13D97-6ACE-4848-921A-BE7058DF303F}"/>
-    <hyperlink ref="N167" r:id="rId326" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{5FEC7208-4851-4118-9EFB-87187069981F}"/>
-    <hyperlink ref="B168" r:id="rId327" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{361C0C05-8868-4BE4-9F92-20D182F77F57}"/>
-    <hyperlink ref="N168" r:id="rId328" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{4EADFEDF-C0BE-434C-9FFE-2362A95B393C}"/>
-    <hyperlink ref="B169" r:id="rId329" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{14FF298D-AF61-4A75-904C-2F2CFF12500B}"/>
-    <hyperlink ref="N169" r:id="rId330" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{DF352995-0745-4E8C-9E9E-15BD7BB95717}"/>
-    <hyperlink ref="B170" r:id="rId331" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{D85B6506-A1A4-4898-A75B-166E28D64C7F}"/>
-    <hyperlink ref="N170" r:id="rId332" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{B1A169C2-D2BA-44FB-88F2-E58FCC92A0A8}"/>
-    <hyperlink ref="B171" r:id="rId333" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{56237648-5D78-4988-BA61-11BF418C92E5}"/>
-    <hyperlink ref="N171" r:id="rId334" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{1CC0F474-B817-43CD-98B4-4C77EE6E7273}"/>
-    <hyperlink ref="B172" r:id="rId335" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{2A373A5F-F828-48CE-8AFF-1B80E745C8A1}"/>
-    <hyperlink ref="N172" r:id="rId336" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{45F8B696-E7D8-458D-90F6-AB18B560E85F}"/>
-    <hyperlink ref="B173" r:id="rId337" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{79247746-7C73-4895-97AD-94BEE4E85D54}"/>
-    <hyperlink ref="N173" r:id="rId338" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{ADCAC7F7-6C0B-4011-A173-B3132859F40B}"/>
-    <hyperlink ref="B174" r:id="rId339" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{0F357A20-6963-4E2C-BB09-AAB5CC02B6D8}"/>
-    <hyperlink ref="N174" r:id="rId340" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{1A9CAC1D-97BA-471A-960D-E4AE4B6EB9C5}"/>
-    <hyperlink ref="B175" r:id="rId341" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{D66BF9B5-FFBF-409A-86BC-E5C89F57CF6B}"/>
-    <hyperlink ref="N175" r:id="rId342" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{EB1D3C2B-D920-4DE4-9684-D5F5B7373BDF}"/>
-    <hyperlink ref="B177" r:id="rId343" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{634DC7E4-C234-4F34-8245-D19059E900CE}"/>
-    <hyperlink ref="N177" r:id="rId344" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{E092D316-F3F2-40D3-88C3-D3F8422610C0}"/>
-    <hyperlink ref="B178" r:id="rId345" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{9CD4511A-CBDA-4C86-8F55-D366B5B6FF88}"/>
-    <hyperlink ref="N178" r:id="rId346" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{BADCDC61-0B88-430D-A835-2E189A3555F2}"/>
-    <hyperlink ref="B179" r:id="rId347" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{0F6EE3FB-AB1B-44DB-A7EB-45B19B35398F}"/>
-    <hyperlink ref="N179" r:id="rId348" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{99634419-705D-46BD-953A-A17E4BFBEDB0}"/>
-    <hyperlink ref="B180" r:id="rId349" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{2ABBE41B-BF66-4736-9342-0E71EDC17486}"/>
-    <hyperlink ref="N180" r:id="rId350" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{85946AF8-A89C-4DBD-BA51-2B4480B2E7DE}"/>
-    <hyperlink ref="B181" r:id="rId351" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{40D7D6DD-A8E9-4827-8514-4EB3C68DA297}"/>
-    <hyperlink ref="N181" r:id="rId352" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{49C6EED5-C91C-4698-A1FE-25C715C60BAF}"/>
-    <hyperlink ref="B182" r:id="rId353" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{12EC4A80-E99E-4C72-B181-DAC27AE407BF}"/>
-    <hyperlink ref="N182" r:id="rId354" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{16E198EE-CF40-4F8D-8D73-3BF68612B463}"/>
-    <hyperlink ref="B183" r:id="rId355" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{FE14C481-C004-44A0-8046-3B44336FA4BF}"/>
-    <hyperlink ref="N183" r:id="rId356" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{14F5D425-D1D5-4306-A34E-94C11C55B22C}"/>
-    <hyperlink ref="B184" r:id="rId357" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{4A48B942-1D14-424F-B47A-A24399531B24}"/>
-    <hyperlink ref="N184" r:id="rId358" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{F6A0E312-E378-477E-9F4D-1E49889B4856}"/>
-    <hyperlink ref="B185" r:id="rId359" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{C914AA12-6F35-4EB2-9A57-33BBD0F3FAB4}"/>
-    <hyperlink ref="N185" r:id="rId360" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{24DC7CD3-99BD-4494-93BE-EA2C6E1057D2}"/>
-    <hyperlink ref="B186" r:id="rId361" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{3B2C2D73-5ED2-4F08-930D-EB8EE8BB71B8}"/>
-    <hyperlink ref="N186" r:id="rId362" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{C2125D7A-F760-41A2-8FA6-6F1DD33DCD8F}"/>
-    <hyperlink ref="B187" r:id="rId363" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{065233A6-FDF1-4040-B1AF-BBE7D6C9FCD4}"/>
-    <hyperlink ref="N187" r:id="rId364" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{EC968BAA-987C-45A8-99DF-D0CD66AB3EA2}"/>
-    <hyperlink ref="B188" r:id="rId365" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{13EF108F-3A71-4AE2-BE07-D8541E4B5EC0}"/>
-    <hyperlink ref="N188" r:id="rId366" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{32249B08-1E90-4697-AE6F-291BAC04CA90}"/>
-    <hyperlink ref="B189" r:id="rId367" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{87BD4D38-80C5-4C48-A5CE-6078EAAE3ABC}"/>
-    <hyperlink ref="N189" r:id="rId368" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{AF485326-93F6-46AD-B519-FD745639A344}"/>
-    <hyperlink ref="B190" r:id="rId369" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{2E94A6BD-CCE7-4FD1-9BDF-FCD1D5953D81}"/>
-    <hyperlink ref="N190" r:id="rId370" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{684D2AEB-15CA-4EB0-B0F9-45FEE5C20ABD}"/>
-    <hyperlink ref="B191" r:id="rId371" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{E502F696-763F-4DBB-9E95-4DF3381B3943}"/>
-    <hyperlink ref="N191" r:id="rId372" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{FB0C4A13-B956-41CD-89D0-CF43AE0D469D}"/>
-    <hyperlink ref="B192" r:id="rId373" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{25CE649F-3CE9-4F0A-8E07-047FA9225160}"/>
-    <hyperlink ref="N192" r:id="rId374" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{1B974D87-77FC-4FAD-983B-C41E6A359A0C}"/>
-    <hyperlink ref="B193" r:id="rId375" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{F86BB0E1-19FB-426C-8D61-3406302488D7}"/>
-    <hyperlink ref="N193" r:id="rId376" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{BA6869F5-797D-4CFF-A96A-235E2B56C914}"/>
-    <hyperlink ref="B194" r:id="rId377" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{8E816FDC-665C-4B7D-A4E3-F87AC6C7B672}"/>
-    <hyperlink ref="N194" r:id="rId378" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{C021FBD5-7CED-4B00-96AB-30E281F65F8C}"/>
-    <hyperlink ref="B195" r:id="rId379" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{09BA0BA1-AA74-4652-8672-A2061B0ED788}"/>
-    <hyperlink ref="N195" r:id="rId380" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{14DEA26B-E685-4943-9818-E7FFAF505DF6}"/>
-    <hyperlink ref="B196" r:id="rId381" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{A5E478EB-B5E8-4368-8DBA-07E9FDD6267E}"/>
-    <hyperlink ref="N196" r:id="rId382" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{F51AE5C5-EA5A-47DE-96F2-84AE2E4F7C5B}"/>
-    <hyperlink ref="B197" r:id="rId383" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{1B0DC827-BFF1-49E6-A7BD-4B9A377763B2}"/>
-    <hyperlink ref="N197" r:id="rId384" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{7C4B6C06-4E16-4087-824C-C8F63C44603F}"/>
-    <hyperlink ref="B198" r:id="rId385" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{287D9492-E22A-44BB-B25B-33C1B9148FAF}"/>
-    <hyperlink ref="N198" r:id="rId386" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{2AE8AE78-AF2A-4A2F-B6E7-2AE117CBA48F}"/>
-    <hyperlink ref="B199" r:id="rId387" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{9886559A-7836-4EAC-AFE3-1103FABEEDCF}"/>
-    <hyperlink ref="N199" r:id="rId388" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{21284728-DE9C-4330-BC14-24E8E539483A}"/>
-    <hyperlink ref="B200" r:id="rId389" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{9DCFFA54-712A-458D-8F12-58B652C6801B}"/>
-    <hyperlink ref="N200" r:id="rId390" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{C62ABAB3-22DF-4659-8FD2-499F72FAB520}"/>
-    <hyperlink ref="B201" r:id="rId391" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{1AD380C7-3ED4-438C-81DB-D602FA8DAA61}"/>
-    <hyperlink ref="N201" r:id="rId392" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{72ED1D80-A85E-4D7D-9E91-140847D0BB0E}"/>
-    <hyperlink ref="B202" r:id="rId393" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{1F35C539-26CD-47DD-BC74-F18488B632F3}"/>
-    <hyperlink ref="N202" r:id="rId394" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{56BF501C-2238-4C02-9251-0420684DA6A3}"/>
-    <hyperlink ref="B203" r:id="rId395" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{F0D92DB9-6526-46A2-8876-78AD5778C35D}"/>
-    <hyperlink ref="N203" r:id="rId396" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{B1BDD57C-4BC2-4BDE-82FB-5EE4A74D1C6A}"/>
-    <hyperlink ref="B204" r:id="rId397" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{AB82ED3F-F95D-4FC6-BA50-1A84474AB4A6}"/>
-    <hyperlink ref="N204" r:id="rId398" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{8F89A833-BA2C-45E7-ABB8-BFEB543F1141}"/>
-    <hyperlink ref="B205" r:id="rId399" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{5CD297B7-4461-42E8-85EA-63E3E46A1926}"/>
-    <hyperlink ref="N205" r:id="rId400" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{1296F721-235C-4E16-BBAB-32D0028E8DA6}"/>
-    <hyperlink ref="B206" r:id="rId401" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{E2F0666F-CAAF-469F-B1E9-D1ED40485B26}"/>
-    <hyperlink ref="N206" r:id="rId402" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{0F072D5B-1D3D-41F5-9279-F2F8BF7243EC}"/>
-    <hyperlink ref="B207" r:id="rId403" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{5D729B56-9C8E-4480-967E-A584E9EB0215}"/>
-    <hyperlink ref="N207" r:id="rId404" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{7CA6B937-F52A-495A-B539-A6CA1178D782}"/>
-    <hyperlink ref="B208" r:id="rId405" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{789D9D16-63F5-4529-B6A9-454DAF7A28CC}"/>
-    <hyperlink ref="N208" r:id="rId406" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{7DC2C080-31FA-4669-8659-F91DD51A922B}"/>
-    <hyperlink ref="B209" r:id="rId407" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{D1579481-97FA-477F-9F90-A8E0075A7C76}"/>
-    <hyperlink ref="N209" r:id="rId408" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{B677C385-44C8-4C25-A958-E667CF321FCB}"/>
-    <hyperlink ref="B210" r:id="rId409" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{2747E09F-FC22-4C46-8179-CE3A6D4432AA}"/>
-    <hyperlink ref="N210" r:id="rId410" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{699179A3-2CC1-4489-816C-403133B91C17}"/>
-    <hyperlink ref="B211" r:id="rId411" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{A637E4CF-5B2C-4D67-8444-A922C86AD260}"/>
-    <hyperlink ref="N211" r:id="rId412" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{B2B1B9CE-0908-41EE-BE5E-A782B132034B}"/>
-    <hyperlink ref="B212" r:id="rId413" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{1664D44E-7209-4C1F-984F-922E19002D2E}"/>
-    <hyperlink ref="N212" r:id="rId414" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{5E310E8B-4175-4329-85A9-32B74C02B2B3}"/>
-    <hyperlink ref="B213" r:id="rId415" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{40BF7520-8141-47C7-BE9C-4A372256ED43}"/>
-    <hyperlink ref="N213" r:id="rId416" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{A14D3961-FF50-4DCB-AAA0-DE836BA333FC}"/>
-    <hyperlink ref="B214" r:id="rId417" display="https://www.worldometers.info/coronavirus/country/solomon-islands/" xr:uid="{9F2538CA-563D-46C4-A493-9673A349DE7E}"/>
-    <hyperlink ref="N214" r:id="rId418" display="https://www.worldometers.info/world-population/solomon-islands-population/" xr:uid="{E716660F-DABF-4270-AD07-3BE98AC46EAC}"/>
-    <hyperlink ref="B215" r:id="rId419" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{7525E175-C369-4EB0-973B-E56B2AAF2DD7}"/>
-    <hyperlink ref="N215" r:id="rId420" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{AB9A1AD2-5EBA-4966-BC11-5619AA67F5F4}"/>
-    <hyperlink ref="B216" r:id="rId421" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{4F9DFAA9-EBE7-4D24-A3B2-51A5DB6E7F50}"/>
-    <hyperlink ref="N216" r:id="rId422" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{809EE6B1-8275-4A8D-BEBB-8DDAF09E3986}"/>
-    <hyperlink ref="B218" r:id="rId423" display="https://www.worldometers.info/coronavirus/country/marshall-islands/" xr:uid="{3AC41F88-7DFB-4E11-8867-21E4379ABA64}"/>
-    <hyperlink ref="N218" r:id="rId424" display="https://www.worldometers.info/world-population/marshall-islands-population/" xr:uid="{8292A1D7-6D2E-4E36-83C3-503E14F805E7}"/>
-    <hyperlink ref="B219" r:id="rId425" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{197AA124-42B6-441A-9F5E-0AE79CDD6724}"/>
-    <hyperlink ref="N219" r:id="rId426" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{8A42C45E-685F-45C1-BCA5-9A70C9CEE48E}"/>
-    <hyperlink ref="B220" r:id="rId427" display="https://www.worldometers.info/coronavirus/country/wallis-and-futuna-islands/" xr:uid="{524F92ED-25B4-49EC-B0DF-B62BB32EFD89}"/>
-    <hyperlink ref="N220" r:id="rId428" display="https://www.worldometers.info/world-population/wallis-and-futuna-islands-population/" xr:uid="{BDD57132-EB6C-414C-A300-DC6C5F328184}"/>
-    <hyperlink ref="B221" r:id="rId429" display="https://www.worldometers.info/coronavirus/country/samoa/" xr:uid="{5C260FE0-E5C1-475A-A44C-47E909D245D2}"/>
-    <hyperlink ref="N221" r:id="rId430" display="https://www.worldometers.info/world-population/samoa-population/" xr:uid="{107B6833-8D4A-4AFF-8D6C-31AB856978CB}"/>
-    <hyperlink ref="B222" r:id="rId431" display="https://www.worldometers.info/coronavirus/country/vanuatu/" xr:uid="{1A5CA202-7C0B-4048-93B3-E1E4CE505F31}"/>
-    <hyperlink ref="N222" r:id="rId432" display="https://www.worldometers.info/world-population/vanuatu-population/" xr:uid="{B7C25F05-9F24-4A96-A2B4-85BE1792A59A}"/>
+    <hyperlink ref="N222" r:id="rId1" display="https://www.worldometers.info/world-population/vanuatu-population/" xr:uid="{B7C25F05-9F24-4A96-A2B4-85BE1792A59A}"/>
+    <hyperlink ref="B222" r:id="rId2" display="https://www.worldometers.info/coronavirus/country/vanuatu/" xr:uid="{1A5CA202-7C0B-4048-93B3-E1E4CE505F31}"/>
+    <hyperlink ref="N221" r:id="rId3" display="https://www.worldometers.info/world-population/samoa-population/" xr:uid="{107B6833-8D4A-4AFF-8D6C-31AB856978CB}"/>
+    <hyperlink ref="B221" r:id="rId4" display="https://www.worldometers.info/coronavirus/country/samoa/" xr:uid="{5C260FE0-E5C1-475A-A44C-47E909D245D2}"/>
+    <hyperlink ref="N220" r:id="rId5" display="https://www.worldometers.info/world-population/wallis-and-futuna-islands-population/" xr:uid="{BDD57132-EB6C-414C-A300-DC6C5F328184}"/>
+    <hyperlink ref="B220" r:id="rId6" display="https://www.worldometers.info/coronavirus/country/wallis-and-futuna-islands/" xr:uid="{524F92ED-25B4-49EC-B0DF-B62BB32EFD89}"/>
+    <hyperlink ref="N219" r:id="rId7" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{8A42C45E-685F-45C1-BCA5-9A70C9CEE48E}"/>
+    <hyperlink ref="B219" r:id="rId8" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{197AA124-42B6-441A-9F5E-0AE79CDD6724}"/>
+    <hyperlink ref="N218" r:id="rId9" display="https://www.worldometers.info/world-population/marshall-islands-population/" xr:uid="{8292A1D7-6D2E-4E36-83C3-503E14F805E7}"/>
+    <hyperlink ref="B218" r:id="rId10" display="https://www.worldometers.info/coronavirus/country/marshall-islands/" xr:uid="{3AC41F88-7DFB-4E11-8867-21E4379ABA64}"/>
+    <hyperlink ref="N216" r:id="rId11" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{809EE6B1-8275-4A8D-BEBB-8DDAF09E3986}"/>
+    <hyperlink ref="B216" r:id="rId12" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{4F9DFAA9-EBE7-4D24-A3B2-51A5DB6E7F50}"/>
+    <hyperlink ref="N215" r:id="rId13" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{AB9A1AD2-5EBA-4966-BC11-5619AA67F5F4}"/>
+    <hyperlink ref="B215" r:id="rId14" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{7525E175-C369-4EB0-973B-E56B2AAF2DD7}"/>
+    <hyperlink ref="N214" r:id="rId15" display="https://www.worldometers.info/world-population/solomon-islands-population/" xr:uid="{E716660F-DABF-4270-AD07-3BE98AC46EAC}"/>
+    <hyperlink ref="B214" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/solomon-islands/" xr:uid="{9F2538CA-563D-46C4-A493-9673A349DE7E}"/>
+    <hyperlink ref="N213" r:id="rId17" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{A14D3961-FF50-4DCB-AAA0-DE836BA333FC}"/>
+    <hyperlink ref="B213" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{40BF7520-8141-47C7-BE9C-4A372256ED43}"/>
+    <hyperlink ref="N212" r:id="rId19" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{5E310E8B-4175-4329-85A9-32B74C02B2B3}"/>
+    <hyperlink ref="B212" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{1664D44E-7209-4C1F-984F-922E19002D2E}"/>
+    <hyperlink ref="N211" r:id="rId21" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{B2B1B9CE-0908-41EE-BE5E-A782B132034B}"/>
+    <hyperlink ref="B211" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{A637E4CF-5B2C-4D67-8444-A922C86AD260}"/>
+    <hyperlink ref="N210" r:id="rId23" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{699179A3-2CC1-4489-816C-403133B91C17}"/>
+    <hyperlink ref="B210" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{2747E09F-FC22-4C46-8179-CE3A6D4432AA}"/>
+    <hyperlink ref="N209" r:id="rId25" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{B677C385-44C8-4C25-A958-E667CF321FCB}"/>
+    <hyperlink ref="B209" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{D1579481-97FA-477F-9F90-A8E0075A7C76}"/>
+    <hyperlink ref="N208" r:id="rId27" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{7DC2C080-31FA-4669-8659-F91DD51A922B}"/>
+    <hyperlink ref="B208" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{789D9D16-63F5-4529-B6A9-454DAF7A28CC}"/>
+    <hyperlink ref="N207" r:id="rId29" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{7CA6B937-F52A-495A-B539-A6CA1178D782}"/>
+    <hyperlink ref="B207" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{5D729B56-9C8E-4480-967E-A584E9EB0215}"/>
+    <hyperlink ref="N206" r:id="rId31" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{0F072D5B-1D3D-41F5-9279-F2F8BF7243EC}"/>
+    <hyperlink ref="B206" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{E2F0666F-CAAF-469F-B1E9-D1ED40485B26}"/>
+    <hyperlink ref="N205" r:id="rId33" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{1296F721-235C-4E16-BBAB-32D0028E8DA6}"/>
+    <hyperlink ref="B205" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{5CD297B7-4461-42E8-85EA-63E3E46A1926}"/>
+    <hyperlink ref="N204" r:id="rId35" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{8F89A833-BA2C-45E7-ABB8-BFEB543F1141}"/>
+    <hyperlink ref="B204" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{AB82ED3F-F95D-4FC6-BA50-1A84474AB4A6}"/>
+    <hyperlink ref="N203" r:id="rId37" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{B1BDD57C-4BC2-4BDE-82FB-5EE4A74D1C6A}"/>
+    <hyperlink ref="B203" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{F0D92DB9-6526-46A2-8876-78AD5778C35D}"/>
+    <hyperlink ref="N202" r:id="rId39" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{56BF501C-2238-4C02-9251-0420684DA6A3}"/>
+    <hyperlink ref="B202" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{1F35C539-26CD-47DD-BC74-F18488B632F3}"/>
+    <hyperlink ref="N201" r:id="rId41" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{72ED1D80-A85E-4D7D-9E91-140847D0BB0E}"/>
+    <hyperlink ref="B201" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{1AD380C7-3ED4-438C-81DB-D602FA8DAA61}"/>
+    <hyperlink ref="N200" r:id="rId43" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{C62ABAB3-22DF-4659-8FD2-499F72FAB520}"/>
+    <hyperlink ref="B200" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{9DCFFA54-712A-458D-8F12-58B652C6801B}"/>
+    <hyperlink ref="N199" r:id="rId45" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{21284728-DE9C-4330-BC14-24E8E539483A}"/>
+    <hyperlink ref="B199" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{9886559A-7836-4EAC-AFE3-1103FABEEDCF}"/>
+    <hyperlink ref="N198" r:id="rId47" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{2AE8AE78-AF2A-4A2F-B6E7-2AE117CBA48F}"/>
+    <hyperlink ref="B198" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{287D9492-E22A-44BB-B25B-33C1B9148FAF}"/>
+    <hyperlink ref="N197" r:id="rId49" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{7C4B6C06-4E16-4087-824C-C8F63C44603F}"/>
+    <hyperlink ref="B197" r:id="rId50" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{1B0DC827-BFF1-49E6-A7BD-4B9A377763B2}"/>
+    <hyperlink ref="N196" r:id="rId51" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{F51AE5C5-EA5A-47DE-96F2-84AE2E4F7C5B}"/>
+    <hyperlink ref="B196" r:id="rId52" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{A5E478EB-B5E8-4368-8DBA-07E9FDD6267E}"/>
+    <hyperlink ref="N195" r:id="rId53" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{14DEA26B-E685-4943-9818-E7FFAF505DF6}"/>
+    <hyperlink ref="B195" r:id="rId54" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{09BA0BA1-AA74-4652-8672-A2061B0ED788}"/>
+    <hyperlink ref="N194" r:id="rId55" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{C021FBD5-7CED-4B00-96AB-30E281F65F8C}"/>
+    <hyperlink ref="B194" r:id="rId56" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{8E816FDC-665C-4B7D-A4E3-F87AC6C7B672}"/>
+    <hyperlink ref="N193" r:id="rId57" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{BA6869F5-797D-4CFF-A96A-235E2B56C914}"/>
+    <hyperlink ref="B193" r:id="rId58" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{F86BB0E1-19FB-426C-8D61-3406302488D7}"/>
+    <hyperlink ref="N192" r:id="rId59" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{1B974D87-77FC-4FAD-983B-C41E6A359A0C}"/>
+    <hyperlink ref="B192" r:id="rId60" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{25CE649F-3CE9-4F0A-8E07-047FA9225160}"/>
+    <hyperlink ref="N191" r:id="rId61" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{FB0C4A13-B956-41CD-89D0-CF43AE0D469D}"/>
+    <hyperlink ref="B191" r:id="rId62" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{E502F696-763F-4DBB-9E95-4DF3381B3943}"/>
+    <hyperlink ref="N190" r:id="rId63" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{684D2AEB-15CA-4EB0-B0F9-45FEE5C20ABD}"/>
+    <hyperlink ref="B190" r:id="rId64" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{2E94A6BD-CCE7-4FD1-9BDF-FCD1D5953D81}"/>
+    <hyperlink ref="N189" r:id="rId65" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{AF485326-93F6-46AD-B519-FD745639A344}"/>
+    <hyperlink ref="B189" r:id="rId66" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{87BD4D38-80C5-4C48-A5CE-6078EAAE3ABC}"/>
+    <hyperlink ref="N188" r:id="rId67" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{32249B08-1E90-4697-AE6F-291BAC04CA90}"/>
+    <hyperlink ref="B188" r:id="rId68" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{13EF108F-3A71-4AE2-BE07-D8541E4B5EC0}"/>
+    <hyperlink ref="N187" r:id="rId69" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{EC968BAA-987C-45A8-99DF-D0CD66AB3EA2}"/>
+    <hyperlink ref="B187" r:id="rId70" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{065233A6-FDF1-4040-B1AF-BBE7D6C9FCD4}"/>
+    <hyperlink ref="N186" r:id="rId71" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{C2125D7A-F760-41A2-8FA6-6F1DD33DCD8F}"/>
+    <hyperlink ref="B186" r:id="rId72" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{3B2C2D73-5ED2-4F08-930D-EB8EE8BB71B8}"/>
+    <hyperlink ref="N185" r:id="rId73" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{24DC7CD3-99BD-4494-93BE-EA2C6E1057D2}"/>
+    <hyperlink ref="B185" r:id="rId74" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{C914AA12-6F35-4EB2-9A57-33BBD0F3FAB4}"/>
+    <hyperlink ref="N184" r:id="rId75" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{F6A0E312-E378-477E-9F4D-1E49889B4856}"/>
+    <hyperlink ref="B184" r:id="rId76" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{4A48B942-1D14-424F-B47A-A24399531B24}"/>
+    <hyperlink ref="N183" r:id="rId77" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{14F5D425-D1D5-4306-A34E-94C11C55B22C}"/>
+    <hyperlink ref="B183" r:id="rId78" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{FE14C481-C004-44A0-8046-3B44336FA4BF}"/>
+    <hyperlink ref="N182" r:id="rId79" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{16E198EE-CF40-4F8D-8D73-3BF68612B463}"/>
+    <hyperlink ref="B182" r:id="rId80" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{12EC4A80-E99E-4C72-B181-DAC27AE407BF}"/>
+    <hyperlink ref="N181" r:id="rId81" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{49C6EED5-C91C-4698-A1FE-25C715C60BAF}"/>
+    <hyperlink ref="B181" r:id="rId82" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{40D7D6DD-A8E9-4827-8514-4EB3C68DA297}"/>
+    <hyperlink ref="N180" r:id="rId83" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{85946AF8-A89C-4DBD-BA51-2B4480B2E7DE}"/>
+    <hyperlink ref="B180" r:id="rId84" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{2ABBE41B-BF66-4736-9342-0E71EDC17486}"/>
+    <hyperlink ref="N179" r:id="rId85" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{99634419-705D-46BD-953A-A17E4BFBEDB0}"/>
+    <hyperlink ref="B179" r:id="rId86" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{0F6EE3FB-AB1B-44DB-A7EB-45B19B35398F}"/>
+    <hyperlink ref="N178" r:id="rId87" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{BADCDC61-0B88-430D-A835-2E189A3555F2}"/>
+    <hyperlink ref="B178" r:id="rId88" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{9CD4511A-CBDA-4C86-8F55-D366B5B6FF88}"/>
+    <hyperlink ref="N177" r:id="rId89" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{E092D316-F3F2-40D3-88C3-D3F8422610C0}"/>
+    <hyperlink ref="B177" r:id="rId90" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{634DC7E4-C234-4F34-8245-D19059E900CE}"/>
+    <hyperlink ref="N175" r:id="rId91" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{EB1D3C2B-D920-4DE4-9684-D5F5B7373BDF}"/>
+    <hyperlink ref="B175" r:id="rId92" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{D66BF9B5-FFBF-409A-86BC-E5C89F57CF6B}"/>
+    <hyperlink ref="N174" r:id="rId93" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{1A9CAC1D-97BA-471A-960D-E4AE4B6EB9C5}"/>
+    <hyperlink ref="B174" r:id="rId94" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{0F357A20-6963-4E2C-BB09-AAB5CC02B6D8}"/>
+    <hyperlink ref="N173" r:id="rId95" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{ADCAC7F7-6C0B-4011-A173-B3132859F40B}"/>
+    <hyperlink ref="B173" r:id="rId96" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{79247746-7C73-4895-97AD-94BEE4E85D54}"/>
+    <hyperlink ref="N172" r:id="rId97" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{45F8B696-E7D8-458D-90F6-AB18B560E85F}"/>
+    <hyperlink ref="B172" r:id="rId98" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{2A373A5F-F828-48CE-8AFF-1B80E745C8A1}"/>
+    <hyperlink ref="N171" r:id="rId99" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{1CC0F474-B817-43CD-98B4-4C77EE6E7273}"/>
+    <hyperlink ref="B171" r:id="rId100" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{56237648-5D78-4988-BA61-11BF418C92E5}"/>
+    <hyperlink ref="N170" r:id="rId101" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{B1A169C2-D2BA-44FB-88F2-E58FCC92A0A8}"/>
+    <hyperlink ref="B170" r:id="rId102" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{D85B6506-A1A4-4898-A75B-166E28D64C7F}"/>
+    <hyperlink ref="N169" r:id="rId103" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{DF352995-0745-4E8C-9E9E-15BD7BB95717}"/>
+    <hyperlink ref="B169" r:id="rId104" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{14FF298D-AF61-4A75-904C-2F2CFF12500B}"/>
+    <hyperlink ref="N168" r:id="rId105" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{4EADFEDF-C0BE-434C-9FFE-2362A95B393C}"/>
+    <hyperlink ref="B168" r:id="rId106" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{361C0C05-8868-4BE4-9F92-20D182F77F57}"/>
+    <hyperlink ref="N167" r:id="rId107" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{5FEC7208-4851-4118-9EFB-87187069981F}"/>
+    <hyperlink ref="B167" r:id="rId108" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{63A13D97-6ACE-4848-921A-BE7058DF303F}"/>
+    <hyperlink ref="N166" r:id="rId109" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{990BD556-0A6A-4D46-AD91-B89A4642A0F4}"/>
+    <hyperlink ref="B166" r:id="rId110" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{BCA38E8E-C745-484C-AF9A-09E498189CA3}"/>
+    <hyperlink ref="N165" r:id="rId111" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{296F6DB1-C650-447D-93EB-6D9AAA9A0AEE}"/>
+    <hyperlink ref="B165" r:id="rId112" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{F0EEA31D-1590-4969-BFE4-F623780E5CA8}"/>
+    <hyperlink ref="N164" r:id="rId113" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{8C5E87AA-4A71-4610-A2E6-549094278239}"/>
+    <hyperlink ref="B164" r:id="rId114" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{000081AF-BC15-4544-84E3-63570B8B3C82}"/>
+    <hyperlink ref="B163" r:id="rId115" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{0021BE76-B6BC-4151-A654-FC0A0762634E}"/>
+    <hyperlink ref="N162" r:id="rId116" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{283FD197-1185-4EBB-B087-9E3B4952E118}"/>
+    <hyperlink ref="B162" r:id="rId117" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{E8D699FF-45A6-4E46-B5E9-B88220B92D1A}"/>
+    <hyperlink ref="N161" r:id="rId118" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{F73E9B7A-CAC6-4B00-B1DE-E155EA3B45A5}"/>
+    <hyperlink ref="B161" r:id="rId119" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{05076EFA-FCE8-470A-B53D-2CB930D6B319}"/>
+    <hyperlink ref="N160" r:id="rId120" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{2665A313-62B6-404A-8C56-F552535C155C}"/>
+    <hyperlink ref="B160" r:id="rId121" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{5E335C02-2643-411D-9085-ACFC6B7DF6E6}"/>
+    <hyperlink ref="N159" r:id="rId122" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{601B5998-7BF0-42E3-A648-223DDBCDC687}"/>
+    <hyperlink ref="B159" r:id="rId123" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{7443BE94-5B93-4B30-A18C-5644226BCD22}"/>
+    <hyperlink ref="N158" r:id="rId124" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{B7630CCF-C792-44B1-BC20-B5139B3C25C1}"/>
+    <hyperlink ref="B158" r:id="rId125" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{4ACE7310-F72A-4398-87ED-7FBBD4A89BB3}"/>
+    <hyperlink ref="N157" r:id="rId126" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{2CEC52B1-3140-45D9-A866-4D1CAFC0DBE1}"/>
+    <hyperlink ref="B157" r:id="rId127" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{D23C380C-3558-4A95-85A0-08BD717EFCB9}"/>
+    <hyperlink ref="N156" r:id="rId128" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{D3DEB16D-C7DD-4607-A245-DE8883A1C4C7}"/>
+    <hyperlink ref="B156" r:id="rId129" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{40B89D2F-163C-4CC4-B371-6D1B432DC657}"/>
+    <hyperlink ref="N155" r:id="rId130" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{C15C94D3-782A-4044-BBEF-0CB8C0514582}"/>
+    <hyperlink ref="B155" r:id="rId131" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{5AFC1870-7C18-402C-BD95-A703DD88CAA4}"/>
+    <hyperlink ref="N154" r:id="rId132" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{4DD5B4A6-F145-4DC7-AD8C-6288813ABF7B}"/>
+    <hyperlink ref="B154" r:id="rId133" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{B3D70C02-7908-4BAA-B639-54548022A7D2}"/>
+    <hyperlink ref="N153" r:id="rId134" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{8D17EF00-A74B-431F-BED1-596FA869E218}"/>
+    <hyperlink ref="B153" r:id="rId135" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{3DEDE6DD-F13F-40D0-B7DB-9481745B2F4C}"/>
+    <hyperlink ref="N152" r:id="rId136" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{BECA0AB0-60D3-4466-B89E-6B1F958E700E}"/>
+    <hyperlink ref="B152" r:id="rId137" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{3E17209A-D5BD-4431-96C8-090973D8360B}"/>
+    <hyperlink ref="N151" r:id="rId138" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{C946143A-4FD4-4C6F-9648-BA7450F177B5}"/>
+    <hyperlink ref="B151" r:id="rId139" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{6854B089-4075-437F-8D84-684478838EE4}"/>
+    <hyperlink ref="N150" r:id="rId140" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{F95FE660-8591-45DD-B883-ED76CC4533F4}"/>
+    <hyperlink ref="B150" r:id="rId141" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{39157360-C3C7-40D3-833E-0608D2079601}"/>
+    <hyperlink ref="N149" r:id="rId142" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{9B5506BB-3951-411C-A576-853D21FC20CB}"/>
+    <hyperlink ref="B149" r:id="rId143" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{C2A8B881-7747-4ED2-8BD6-0740FDC212CC}"/>
+    <hyperlink ref="N148" r:id="rId144" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{3262EADF-08B8-4FF8-810B-BE0A9EB92058}"/>
+    <hyperlink ref="B148" r:id="rId145" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{491D585B-866D-447B-983C-C4E3679D10D8}"/>
+    <hyperlink ref="N147" r:id="rId146" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{8B5137CF-CC5E-4279-83F1-A7EF09DF15B3}"/>
+    <hyperlink ref="B147" r:id="rId147" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{67E14E0F-43A9-4219-8CD1-7EA8502BA024}"/>
+    <hyperlink ref="N146" r:id="rId148" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{8520E5F6-7C83-46BC-B08D-DBC8A27869CD}"/>
+    <hyperlink ref="B146" r:id="rId149" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{8B59E3D5-0809-417A-8198-33DBE1D5B0F8}"/>
+    <hyperlink ref="N145" r:id="rId150" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{18AA6ECB-B24E-4C38-82C9-62582D15419A}"/>
+    <hyperlink ref="B145" r:id="rId151" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{0A3FA39E-3230-43B1-9C08-B5CF9EB90168}"/>
+    <hyperlink ref="N144" r:id="rId152" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{837B02CD-B36E-410E-9535-28851473B7BB}"/>
+    <hyperlink ref="B144" r:id="rId153" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{2A415DFD-0206-4EA6-89F9-6457D9F7F337}"/>
+    <hyperlink ref="N143" r:id="rId154" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{DEE2899D-D359-4404-A80A-074068EE156D}"/>
+    <hyperlink ref="B143" r:id="rId155" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{ADB739EB-9D4A-46E9-9E9A-57B113E3BF34}"/>
+    <hyperlink ref="N142" r:id="rId156" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{367F8197-6A00-4257-87A5-211E9FE85296}"/>
+    <hyperlink ref="B142" r:id="rId157" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{E497753A-586B-4F03-AD16-9D7358D7556A}"/>
+    <hyperlink ref="N141" r:id="rId158" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{3F41D33D-1D47-4064-98BA-B5D6664D115C}"/>
+    <hyperlink ref="B141" r:id="rId159" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{C38B72EF-4895-46CB-8A7B-D8FA9150BEE4}"/>
+    <hyperlink ref="N140" r:id="rId160" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{9ECEB7B0-1EC5-419A-AAE8-D914191DBB76}"/>
+    <hyperlink ref="B140" r:id="rId161" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{BE912216-86C7-4BCA-AE48-9CC142B613D2}"/>
+    <hyperlink ref="N139" r:id="rId162" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{A95DFEE6-210C-4194-A505-4693B8E45B34}"/>
+    <hyperlink ref="B139" r:id="rId163" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{F329877C-5E8F-4F5B-911C-1281EEDC3B94}"/>
+    <hyperlink ref="N138" r:id="rId164" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{7A5AE61C-C309-4C7A-A109-97A616CC8983}"/>
+    <hyperlink ref="B138" r:id="rId165" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{C8F204BE-DB5C-428E-BCEC-A64920BBF127}"/>
+    <hyperlink ref="N137" r:id="rId166" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{C075DC3E-4815-4A0C-BD33-4BECB9E8CDBD}"/>
+    <hyperlink ref="B137" r:id="rId167" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{5E568481-D900-4FB6-9262-D0B2351F53F6}"/>
+    <hyperlink ref="N136" r:id="rId168" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{1358D7A8-94C3-4C85-9EC2-D56D514CD0E4}"/>
+    <hyperlink ref="B136" r:id="rId169" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{8D3EB816-7035-4194-AA6A-6E0AE6D43479}"/>
+    <hyperlink ref="N135" r:id="rId170" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{B58173CD-12F4-48F4-962B-66F74C9531DA}"/>
+    <hyperlink ref="B135" r:id="rId171" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{DC289619-50B4-4536-AD56-A38292F12709}"/>
+    <hyperlink ref="N134" r:id="rId172" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{3C6A54E8-64D6-40CB-A8B5-25C3FF2C678E}"/>
+    <hyperlink ref="B134" r:id="rId173" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{2B37AFE1-A426-40DA-9A3C-560E35AFF8DA}"/>
+    <hyperlink ref="N133" r:id="rId174" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{8889C465-1B2A-43A2-B46A-54E6E59930FA}"/>
+    <hyperlink ref="B133" r:id="rId175" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{8D537029-DD85-4DF6-A913-4CA24F30153C}"/>
+    <hyperlink ref="N132" r:id="rId176" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{6020BB20-2A3F-4925-9CAB-30016C4B5005}"/>
+    <hyperlink ref="B132" r:id="rId177" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{084098A6-00BC-44D7-AB5D-749CAE79CEB5}"/>
+    <hyperlink ref="N131" r:id="rId178" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{DC9D73F1-D3A9-4C40-94A9-8DD9E9D1D3E9}"/>
+    <hyperlink ref="B131" r:id="rId179" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{2F91A9BD-F3D3-428E-A407-BF13C4F74ABC}"/>
+    <hyperlink ref="N130" r:id="rId180" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{D2804177-FCB8-47EC-84CA-042D479A34FD}"/>
+    <hyperlink ref="B130" r:id="rId181" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{AEE1E763-9854-4B58-97B2-5A5FCAD1E1E8}"/>
+    <hyperlink ref="N129" r:id="rId182" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{824E4A62-0863-4B10-8086-EE1FA30C2197}"/>
+    <hyperlink ref="B129" r:id="rId183" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{03DFFD40-6104-41BE-9DD3-7AE24A02D837}"/>
+    <hyperlink ref="N128" r:id="rId184" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{48735A8A-C7E0-47F4-B4FA-C4685CA20B32}"/>
+    <hyperlink ref="B128" r:id="rId185" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{0FAE87D5-1BF9-4295-B35F-A13960BA3ED7}"/>
+    <hyperlink ref="N127" r:id="rId186" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{69E21D28-EE8C-4AA1-8439-580590786722}"/>
+    <hyperlink ref="B127" r:id="rId187" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{986F04E8-6CF1-4D74-A415-9989A9E5B5B9}"/>
+    <hyperlink ref="N126" r:id="rId188" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{09AC2D5E-F116-4EE3-A3A4-50836873DCE1}"/>
+    <hyperlink ref="B126" r:id="rId189" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{13D5110D-99C2-4F7F-938B-49F28D9357EA}"/>
+    <hyperlink ref="N125" r:id="rId190" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{67CC9832-C352-4F92-8BAF-1C3CC292F6CC}"/>
+    <hyperlink ref="B125" r:id="rId191" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{3CAF86D7-FDB7-4B5F-9ADC-4358587B9414}"/>
+    <hyperlink ref="N124" r:id="rId192" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{1436836C-8703-40CE-B1BB-685F07EF82A6}"/>
+    <hyperlink ref="B124" r:id="rId193" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{6DD28D26-B641-4B9C-B6CD-D217707D2726}"/>
+    <hyperlink ref="N123" r:id="rId194" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{F521E272-7BC0-439C-8990-1598DE351D9E}"/>
+    <hyperlink ref="B123" r:id="rId195" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{715DFCF3-7AC9-41BC-9079-2FAA11FD5A4D}"/>
+    <hyperlink ref="N122" r:id="rId196" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{2A8DA3EE-07D7-4ECB-B16A-9968E3EEDC54}"/>
+    <hyperlink ref="B122" r:id="rId197" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{B121FFBB-F505-4438-8677-F8FD42B5C3DA}"/>
+    <hyperlink ref="N121" r:id="rId198" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{B1937DA4-9B95-4560-9A16-67C3D3FC5FB8}"/>
+    <hyperlink ref="B121" r:id="rId199" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{C671E41F-674F-4994-8525-4032464E0EC6}"/>
+    <hyperlink ref="N120" r:id="rId200" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{54A7F71F-3FFC-4CFA-9371-CEABA609C68C}"/>
+    <hyperlink ref="B120" r:id="rId201" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{6BA645AF-AF92-46BB-9D78-83728B6C3D9A}"/>
+    <hyperlink ref="N119" r:id="rId202" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{AA6DF3A9-D97F-4005-B1AC-4AC6EDB695F0}"/>
+    <hyperlink ref="B119" r:id="rId203" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{02A2B697-BE46-4085-9385-7D4C950D1CE0}"/>
+    <hyperlink ref="N118" r:id="rId204" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{D94FF5A0-F164-4F4C-A43A-9B39AAC81EEA}"/>
+    <hyperlink ref="B118" r:id="rId205" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{D9FFA330-4B0A-4C2C-8AB0-A47348D11A6F}"/>
+    <hyperlink ref="N117" r:id="rId206" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{1752188B-18F7-4BA5-92C3-B53410B38C3C}"/>
+    <hyperlink ref="B117" r:id="rId207" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{65B34651-D9E3-4997-826F-E265A916F4C7}"/>
+    <hyperlink ref="N116" r:id="rId208" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{6AC48FC4-E0E6-49B5-8F12-3038BE4A1742}"/>
+    <hyperlink ref="B116" r:id="rId209" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{0467F2CB-6BF7-43CE-988F-E124BEC36A22}"/>
+    <hyperlink ref="N115" r:id="rId210" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{83AF2BC5-A936-456E-A9DC-34AF001B59FF}"/>
+    <hyperlink ref="B115" r:id="rId211" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{74788BCE-ECBD-470A-BE60-CD65F59D0247}"/>
+    <hyperlink ref="N114" r:id="rId212" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{8F8F5F7B-CE51-4BDE-A76D-98F9E5BD475F}"/>
+    <hyperlink ref="B114" r:id="rId213" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{E65F969B-49C9-4DF2-B6BF-D60497397A96}"/>
+    <hyperlink ref="N113" r:id="rId214" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{D1F8AE47-48C9-413A-A69A-40C26E58F117}"/>
+    <hyperlink ref="B113" r:id="rId215" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{1CDCCE33-CD62-40F1-95E8-0EB208AFAB49}"/>
+    <hyperlink ref="N112" r:id="rId216" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{93ADF870-DA59-4090-85FF-EBB6264452D1}"/>
+    <hyperlink ref="B112" r:id="rId217" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{8DE35098-C219-4B2C-99B4-291F9D61588D}"/>
+    <hyperlink ref="N111" r:id="rId218" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{0C62EE5A-C6C2-4BFE-81C5-8013329EAD18}"/>
+    <hyperlink ref="B111" r:id="rId219" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{9CC269C5-81F3-4CFD-8936-1EA94FA23197}"/>
+    <hyperlink ref="N110" r:id="rId220" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{F54E8B78-F1B7-42A2-800A-AB9D43786E64}"/>
+    <hyperlink ref="B110" r:id="rId221" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{B95BD4AF-0338-45A5-9DF6-A96BB7DF9D3A}"/>
+    <hyperlink ref="N109" r:id="rId222" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{04EA3B89-3D6A-469B-BD07-11022B4A87D8}"/>
+    <hyperlink ref="B109" r:id="rId223" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{4185324D-0B05-445F-BE84-E529C5609659}"/>
+    <hyperlink ref="N108" r:id="rId224" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{7D20BB44-944D-4990-A85C-47DEEDD5649B}"/>
+    <hyperlink ref="B108" r:id="rId225" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{81FDC4B8-8EB7-4937-B6BC-4EA24195E22F}"/>
+    <hyperlink ref="N107" r:id="rId226" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{BFCE0C05-CDB6-4CCC-BB53-711E647150B5}"/>
+    <hyperlink ref="B107" r:id="rId227" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{D1475D90-5CCD-47B8-BF4D-B9539F15EE27}"/>
+    <hyperlink ref="N106" r:id="rId228" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{429E55C1-D119-4D2F-B3A9-46D077203A4F}"/>
+    <hyperlink ref="B106" r:id="rId229" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{024C4101-8F3B-43C0-9180-B9D560A1BBDB}"/>
+    <hyperlink ref="N105" r:id="rId230" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{2D4CBFC5-0C98-46EC-8C54-EB0231F891B9}"/>
+    <hyperlink ref="B105" r:id="rId231" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{739025E4-EED9-4314-A19E-1EA08D348F94}"/>
+    <hyperlink ref="N104" r:id="rId232" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{A5B66697-17C1-499C-ABA9-E6E31A0E8B05}"/>
+    <hyperlink ref="B104" r:id="rId233" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{7711F2E6-617E-4450-A5DB-A90E970927CB}"/>
+    <hyperlink ref="N103" r:id="rId234" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{C01DFB72-3A18-40D3-BFF8-283839206F59}"/>
+    <hyperlink ref="B103" r:id="rId235" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{BEDD62F2-8ED0-4C25-836F-A888C65A6614}"/>
+    <hyperlink ref="N102" r:id="rId236" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{CCC15A55-63EE-4BC2-8B66-02E29E0E62E1}"/>
+    <hyperlink ref="B102" r:id="rId237" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{3194B66C-8B78-42D5-848B-08DD5BF791F9}"/>
+    <hyperlink ref="N101" r:id="rId238" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{B129C033-F3E6-4A15-BD79-B50AB10A0EC9}"/>
+    <hyperlink ref="B101" r:id="rId239" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{7B1F8E2F-A8ED-4629-ACFB-BE1B0EB5565B}"/>
+    <hyperlink ref="N100" r:id="rId240" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{88733A89-E76A-4BEA-87AC-1EA7A47BED7A}"/>
+    <hyperlink ref="B100" r:id="rId241" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{47980BD9-F4EF-4323-9C84-1C908241C078}"/>
+    <hyperlink ref="N99" r:id="rId242" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{6BC0B8D0-FCD1-4636-BDEF-F6DA5C8EEC18}"/>
+    <hyperlink ref="B99" r:id="rId243" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{0FBCA769-D60C-4AA0-85BF-FDD01C771E7B}"/>
+    <hyperlink ref="N98" r:id="rId244" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{FDE980DE-ECCA-4677-BE34-0DC7FEFE3E72}"/>
+    <hyperlink ref="B98" r:id="rId245" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{8ED1C89D-0DF1-4C94-869B-BC36F2536EC4}"/>
+    <hyperlink ref="N97" r:id="rId246" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{0D3B0FD2-5D91-480C-9F9F-D5594826D5B5}"/>
+    <hyperlink ref="B97" r:id="rId247" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{FFA5492D-8AF1-427E-9E2D-419D0298F9A4}"/>
+    <hyperlink ref="N96" r:id="rId248" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{E21BCF5B-19A3-4809-919D-7CD3B10CEAB3}"/>
+    <hyperlink ref="B96" r:id="rId249" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{F65EB8A8-B063-4C40-AD6D-2570AD0C1332}"/>
+    <hyperlink ref="N95" r:id="rId250" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{35048466-6DE9-4DB5-BEC7-AF0D52D1A970}"/>
+    <hyperlink ref="B95" r:id="rId251" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{10538E49-B008-43E5-9E58-9A0E4314C671}"/>
+    <hyperlink ref="N94" r:id="rId252" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{CD29EDB6-9A2B-461B-831A-7601BF7C42B8}"/>
+    <hyperlink ref="B94" r:id="rId253" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{ADAB0F09-AB70-4E26-B484-C969F83F9FC1}"/>
+    <hyperlink ref="N93" r:id="rId254" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{903012CC-AAE2-4F15-80C6-E280C3E7CDED}"/>
+    <hyperlink ref="B93" r:id="rId255" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{E89AFA4A-8ABD-4F94-BAA1-8A07FF7271D6}"/>
+    <hyperlink ref="N92" r:id="rId256" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{02C960B6-40E8-4F11-B1BA-23A3974258E6}"/>
+    <hyperlink ref="B92" r:id="rId257" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{6DD17C14-18F4-4965-9BA5-E35E71D8383D}"/>
+    <hyperlink ref="N91" r:id="rId258" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{64E60718-56A3-45E7-AA5D-86F8792FDBB8}"/>
+    <hyperlink ref="B91" r:id="rId259" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{501AAAAC-ACD6-4FC0-9D98-447B983432F9}"/>
+    <hyperlink ref="N90" r:id="rId260" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{B97464CD-9BE3-429F-B835-4A2DAA31F4E1}"/>
+    <hyperlink ref="B90" r:id="rId261" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{7FF6C9F9-A9E1-4DAE-8BD7-8C49085970C3}"/>
+    <hyperlink ref="N89" r:id="rId262" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{E75A3531-55EF-43AD-89EC-E98BE497F736}"/>
+    <hyperlink ref="B89" r:id="rId263" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{8E63C1E2-CACC-47B3-96CB-E1DCF3C2B6D6}"/>
+    <hyperlink ref="N88" r:id="rId264" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{84DCAA60-BB77-4E03-82CD-362F6FFAA38C}"/>
+    <hyperlink ref="B88" r:id="rId265" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{46925F13-0B84-4711-B611-CA9D8A8AFBB4}"/>
+    <hyperlink ref="N87" r:id="rId266" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{CA4A3713-2BA2-4E62-B237-8C64EE345FC7}"/>
+    <hyperlink ref="B87" r:id="rId267" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{E46A8A26-8412-427D-8384-1D78A4032EFC}"/>
+    <hyperlink ref="N86" r:id="rId268" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{D1E57A5F-B6C3-406F-A301-720271A23FA2}"/>
+    <hyperlink ref="B86" r:id="rId269" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{B73CFDBD-1A5A-457F-A8BC-2F3B0A6B683C}"/>
+    <hyperlink ref="N85" r:id="rId270" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{F48D9CB9-1B57-4BB3-9469-5E78C19E92E6}"/>
+    <hyperlink ref="B85" r:id="rId271" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{C6015393-918A-4321-A311-D4D5B19FC24C}"/>
+    <hyperlink ref="N84" r:id="rId272" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{84731F07-833C-44C7-BA46-7CA3689B73BF}"/>
+    <hyperlink ref="B84" r:id="rId273" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{36EA8C07-3ABD-4A91-9771-BEEF438E6A8C}"/>
+    <hyperlink ref="N83" r:id="rId274" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{3B7F84C0-4E1C-41DE-AC64-BBD8C74E5612}"/>
+    <hyperlink ref="B83" r:id="rId275" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{316FF1A5-4AD3-4311-AFE6-E15E7DD2F125}"/>
+    <hyperlink ref="N82" r:id="rId276" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{CB9F16FD-FFFB-470A-AFE2-05ABE297E9E5}"/>
+    <hyperlink ref="B82" r:id="rId277" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{F1F85F21-A4B6-4EAA-93EF-AA7B3DB9BF3D}"/>
+    <hyperlink ref="N81" r:id="rId278" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{49056A10-0AEF-4BDC-8DEA-69ADA3D7B8DC}"/>
+    <hyperlink ref="B81" r:id="rId279" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{6DB9A355-1AB5-4830-8972-EF058016B32D}"/>
+    <hyperlink ref="N80" r:id="rId280" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{D4A9D58F-5F73-4376-B271-AA8F34687E41}"/>
+    <hyperlink ref="B80" r:id="rId281" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{67985BB1-F4CE-4B88-8E9A-14B2311CF5BA}"/>
+    <hyperlink ref="N79" r:id="rId282" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{41C01C98-6992-4D9A-AACE-58DA8FED9458}"/>
+    <hyperlink ref="B79" r:id="rId283" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{8CE8DD09-EC93-4397-994B-85018854237C}"/>
+    <hyperlink ref="N78" r:id="rId284" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{24897EA4-BE95-4C1D-B159-1B06958670B1}"/>
+    <hyperlink ref="B78" r:id="rId285" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{20E0BC38-AF9B-4310-BFC7-9F1511C04193}"/>
+    <hyperlink ref="N77" r:id="rId286" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{DA57289B-7F8D-49DE-B713-257E7EF2E27F}"/>
+    <hyperlink ref="B77" r:id="rId287" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{D385D8B9-D3D5-4282-A3CA-FA3AF8356B94}"/>
+    <hyperlink ref="N76" r:id="rId288" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{76112124-A7FE-4FB0-8C28-49831B459C8C}"/>
+    <hyperlink ref="B76" r:id="rId289" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{F42DE4D1-9AC4-4896-B46E-940C07A0F43B}"/>
+    <hyperlink ref="N75" r:id="rId290" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{08F3FC81-7B30-4402-838F-BBB17CAF045D}"/>
+    <hyperlink ref="B75" r:id="rId291" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{05F061B2-F223-495D-8357-B8CAB9037983}"/>
+    <hyperlink ref="N74" r:id="rId292" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{837884F0-CBE9-47FB-9879-7D9FAF464B84}"/>
+    <hyperlink ref="B74" r:id="rId293" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{AC7A8B63-BEAE-4389-8A5A-D124B5BA9887}"/>
+    <hyperlink ref="N73" r:id="rId294" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{4D9C862E-3E09-42B4-8DA0-D6A169C48E16}"/>
+    <hyperlink ref="B73" r:id="rId295" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{9B9B3A3E-5F1F-4687-9D26-19F69E8A8D0E}"/>
+    <hyperlink ref="N72" r:id="rId296" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{2763B381-DA6B-42B1-88C6-9E818502940F}"/>
+    <hyperlink ref="B72" r:id="rId297" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{22897403-E2FB-402E-930F-5CA0A0B2C482}"/>
+    <hyperlink ref="N71" r:id="rId298" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{E1C3943D-F5C1-4776-9AC1-807ED439E2EF}"/>
+    <hyperlink ref="B71" r:id="rId299" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{BFC92243-2D94-4238-A4DE-74A160ED6C61}"/>
+    <hyperlink ref="N70" r:id="rId300" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{35B5B0E2-A110-4B03-878B-CB0449F3F34B}"/>
+    <hyperlink ref="B70" r:id="rId301" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{089B554B-A5A7-4649-BDC3-3A8CA62EDE53}"/>
+    <hyperlink ref="N69" r:id="rId302" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{D6D4F4D6-DB7E-4A7A-826F-8299942DAC58}"/>
+    <hyperlink ref="B69" r:id="rId303" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{A4E276BC-EFB1-4816-9C94-D403F169BC18}"/>
+    <hyperlink ref="N68" r:id="rId304" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{B3780D76-EAF0-4B9B-A838-17F99971040C}"/>
+    <hyperlink ref="B68" r:id="rId305" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{01E38689-725E-4C49-87E3-C1CEE0991780}"/>
+    <hyperlink ref="B67" r:id="rId306" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{F99CC0E7-9343-4F2F-9861-16327AD44CBB}"/>
+    <hyperlink ref="N66" r:id="rId307" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{E2A378A8-53E4-454F-BF84-7FDD19B0157D}"/>
+    <hyperlink ref="B66" r:id="rId308" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{706B48E4-D6B0-4665-9B4C-86ED8F1F37C7}"/>
+    <hyperlink ref="N65" r:id="rId309" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{E3873AE1-7D91-4DBC-93A6-4C66877C7474}"/>
+    <hyperlink ref="B65" r:id="rId310" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{B9280FCB-6F34-4720-B384-62F9BFB806BB}"/>
+    <hyperlink ref="N64" r:id="rId311" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{570AC6D3-8B17-4B6E-8DC5-E81AC9E2B277}"/>
+    <hyperlink ref="B64" r:id="rId312" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{F034C25E-F929-4B59-B4A2-90C581B8AD28}"/>
+    <hyperlink ref="N63" r:id="rId313" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{83BD5040-697A-4EEA-A0C3-83BC9F405A11}"/>
+    <hyperlink ref="B63" r:id="rId314" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{BEC6F12A-D8F4-4EF1-9BC4-5684D243D5B3}"/>
+    <hyperlink ref="N62" r:id="rId315" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{0CEB77B2-3301-4C29-B2DA-7FD430FEF83F}"/>
+    <hyperlink ref="B62" r:id="rId316" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{09648B32-0329-49C2-AFB1-2755CFF6C008}"/>
+    <hyperlink ref="N61" r:id="rId317" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{39B5D43B-D3F5-4C60-8071-4DEB2A7B1134}"/>
+    <hyperlink ref="B61" r:id="rId318" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{6524BEC8-8836-434B-8232-84E521DBBC29}"/>
+    <hyperlink ref="N60" r:id="rId319" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{46C7DF5D-C3C6-46B3-BD24-C5FF23DA35CC}"/>
+    <hyperlink ref="B60" r:id="rId320" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{C3503A2E-C9A5-4979-B671-69DE9DE0EF01}"/>
+    <hyperlink ref="N59" r:id="rId321" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{E8CEF896-C608-4894-88F0-3EBFF638B739}"/>
+    <hyperlink ref="B59" r:id="rId322" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{76C72860-CDFE-47EB-9196-1ECB7AB3E99B}"/>
+    <hyperlink ref="N58" r:id="rId323" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{7954590C-9B09-4185-A6D3-404B409AC563}"/>
+    <hyperlink ref="B58" r:id="rId324" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{CD1CDF09-DCC4-4E08-B46D-6FC44EC4D1DD}"/>
+    <hyperlink ref="N57" r:id="rId325" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{BEFAD048-2844-445A-B363-6D172CC5CE6E}"/>
+    <hyperlink ref="B57" r:id="rId326" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{097420F7-1B8F-48D0-921E-BE28175CA7AB}"/>
+    <hyperlink ref="N56" r:id="rId327" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{CE127B01-DD87-4AD4-B5CA-5664DCA815E4}"/>
+    <hyperlink ref="B56" r:id="rId328" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{743D8B64-D41C-4E41-857B-5833EF343691}"/>
+    <hyperlink ref="N55" r:id="rId329" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{CE9F4794-F7D8-4236-AC26-DEB3065FB62A}"/>
+    <hyperlink ref="B55" r:id="rId330" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{0FABA865-1BC1-4A79-A446-88CD83808A16}"/>
+    <hyperlink ref="N54" r:id="rId331" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{7E65D4B0-2F44-4EBE-8748-1FBEBD649071}"/>
+    <hyperlink ref="B54" r:id="rId332" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{936F25B8-2218-4C82-AA3B-8D618FD5286A}"/>
+    <hyperlink ref="N53" r:id="rId333" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{17BAAF44-91FB-437E-9147-E7CBD687F49D}"/>
+    <hyperlink ref="B53" r:id="rId334" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{92AEB513-CC45-46DC-94E4-F82E1AE1C7A4}"/>
+    <hyperlink ref="N52" r:id="rId335" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{2305C0EF-B2D6-446F-A9D4-B750A125ABB1}"/>
+    <hyperlink ref="B52" r:id="rId336" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{ADAC177E-359E-4B9C-982B-2905064DDB19}"/>
+    <hyperlink ref="N51" r:id="rId337" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{BE113C37-4063-420B-B1D1-4D713E263C15}"/>
+    <hyperlink ref="B51" r:id="rId338" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{7768CE86-D454-499C-A525-793484ACD6BE}"/>
+    <hyperlink ref="N50" r:id="rId339" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{945EF36D-0EEB-4ECE-ACE3-11B9143CBCE9}"/>
+    <hyperlink ref="B50" r:id="rId340" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{C6062D4A-8CD7-4129-9EB4-D4BCE5696AFB}"/>
+    <hyperlink ref="N49" r:id="rId341" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{6D7166AE-CD03-438E-BA31-BCABAC40F0C0}"/>
+    <hyperlink ref="B49" r:id="rId342" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{CAC3D071-BCC4-44AD-B38B-9D172F19AC12}"/>
+    <hyperlink ref="N48" r:id="rId343" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{81EFB919-7C12-4F42-88DF-DA392AD9C649}"/>
+    <hyperlink ref="B48" r:id="rId344" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{8597CD64-26DA-4B32-BC48-4F01BFEF6EAC}"/>
+    <hyperlink ref="B47" r:id="rId345" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{C6D724D5-6A56-4DB4-BDE7-87EEDB856A71}"/>
+    <hyperlink ref="N46" r:id="rId346" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{E78F994A-83FC-4CB5-9CCD-7D7E14EF0B68}"/>
+    <hyperlink ref="B46" r:id="rId347" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{C9981883-3A96-4F1C-B604-77210B6839D4}"/>
+    <hyperlink ref="N45" r:id="rId348" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{50449F6B-F766-41EB-983C-F7C7BD219DEE}"/>
+    <hyperlink ref="B45" r:id="rId349" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{30C8AF1A-76D2-4E73-A4A5-B51CC6D63264}"/>
+    <hyperlink ref="N44" r:id="rId350" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{B43E8DB0-A5CC-4A71-B84E-1462F9AA668A}"/>
+    <hyperlink ref="B44" r:id="rId351" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{A5B12C15-1125-4728-B86E-93B5E5AFDA0E}"/>
+    <hyperlink ref="N43" r:id="rId352" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{FE89A579-DC42-4937-930F-518E1EBC1210}"/>
+    <hyperlink ref="B43" r:id="rId353" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{C910260D-2C0D-49A9-816D-AB9F8292F114}"/>
+    <hyperlink ref="N42" r:id="rId354" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{D6015D80-B2CC-45CA-8311-853593EAFE8D}"/>
+    <hyperlink ref="B42" r:id="rId355" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{88B7D757-B27E-4202-831D-39F6B636CC24}"/>
+    <hyperlink ref="N41" r:id="rId356" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{8E062CF4-85CF-4685-A6C8-C301AEDEC45F}"/>
+    <hyperlink ref="B41" r:id="rId357" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{834F8AC3-2CDE-4C49-AA75-6895F80BCAE6}"/>
+    <hyperlink ref="N40" r:id="rId358" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{F66F646A-DA6F-4C63-925D-449BE5F3489B}"/>
+    <hyperlink ref="B40" r:id="rId359" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{86B08CCF-2E81-41D2-A3F4-76A3F23DEF72}"/>
+    <hyperlink ref="N39" r:id="rId360" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{0D77366D-424C-4DAD-891B-5E02F2FE4E5C}"/>
+    <hyperlink ref="B39" r:id="rId361" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{C55B6ADF-B341-4998-B621-E489828E77EF}"/>
+    <hyperlink ref="N38" r:id="rId362" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{9997D17F-3470-466A-A735-D9C0170F8AE0}"/>
+    <hyperlink ref="B38" r:id="rId363" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{EA9ADA6B-E587-435E-83E3-8DC238912926}"/>
+    <hyperlink ref="N37" r:id="rId364" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{D987BAED-68B6-447D-8D63-84FF082C127E}"/>
+    <hyperlink ref="B37" r:id="rId365" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{E08A46E8-FACA-40E5-861E-29FFBC9AB7D8}"/>
+    <hyperlink ref="N36" r:id="rId366" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{AB533035-7923-4D6A-A4F4-CA817BE2F5CE}"/>
+    <hyperlink ref="B36" r:id="rId367" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{2B2602EA-D3D1-42D2-A4FA-987B9E5857B2}"/>
+    <hyperlink ref="N35" r:id="rId368" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{2EFA3CA3-9F72-4527-AE50-23CE7421C613}"/>
+    <hyperlink ref="B35" r:id="rId369" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{9EDC060C-B2AF-4DB7-BF15-DB5A5A9EA1B2}"/>
+    <hyperlink ref="N34" r:id="rId370" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{DFFB3958-F397-4117-83AC-CB76904C1273}"/>
+    <hyperlink ref="B34" r:id="rId371" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{1256FBA1-C6DA-4A12-A996-C584545EE3BA}"/>
+    <hyperlink ref="N33" r:id="rId372" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{6AF008D3-B849-42E4-96C6-9A85C4F32E28}"/>
+    <hyperlink ref="B33" r:id="rId373" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{6F134EF6-5763-4A1C-B3EC-47001553AC4F}"/>
+    <hyperlink ref="B32" r:id="rId374" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{DAA8BF4C-4FD3-46E2-BA4A-20DBDEE9F460}"/>
+    <hyperlink ref="N31" r:id="rId375" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{62A85BB4-898D-40B6-8903-F9B5360E852C}"/>
+    <hyperlink ref="B31" r:id="rId376" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{EE07CC62-0474-417B-AA8D-3A6CBCCDE2A1}"/>
+    <hyperlink ref="N30" r:id="rId377" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{3C0D2429-68B3-4333-8C6A-9122FC62874D}"/>
+    <hyperlink ref="B30" r:id="rId378" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{7B2816E8-D2A1-4282-8205-85E61DB3A73E}"/>
+    <hyperlink ref="N29" r:id="rId379" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{781F83E4-8E4E-41F9-ABA4-BE796F5B0170}"/>
+    <hyperlink ref="B29" r:id="rId380" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{C69836A8-A9EA-434B-B2E5-FFEC8884AE12}"/>
+    <hyperlink ref="N28" r:id="rId381" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{0E638C4A-B9E9-4E5B-9973-12519B8A5368}"/>
+    <hyperlink ref="B28" r:id="rId382" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{C438413B-F861-4581-B886-17A47EDEF200}"/>
+    <hyperlink ref="N27" r:id="rId383" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{361E24BC-8B53-405A-BB5A-B0625E391DDB}"/>
+    <hyperlink ref="B27" r:id="rId384" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{27F7ED5E-AC4E-4549-90D8-AE1C97EE6D81}"/>
+    <hyperlink ref="N26" r:id="rId385" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{90CC257D-DC68-4065-92ED-E84CD65C7D50}"/>
+    <hyperlink ref="B26" r:id="rId386" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{13AE0F6F-5041-49E4-86D0-1F885841EA27}"/>
+    <hyperlink ref="N25" r:id="rId387" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{F3FE2468-51FC-4D8C-90F8-9F87E754707B}"/>
+    <hyperlink ref="B25" r:id="rId388" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{8E9FC781-4062-46A8-9154-24D179B8AB0D}"/>
+    <hyperlink ref="N24" r:id="rId389" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{67118BE7-D21C-43D5-9A85-3B2E7A34DBC8}"/>
+    <hyperlink ref="B24" r:id="rId390" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{CBEF641D-1E44-4625-B9ED-0DB7A288B1A1}"/>
+    <hyperlink ref="N23" r:id="rId391" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{09C13322-1B33-49C3-B2D2-240293E7C19C}"/>
+    <hyperlink ref="B23" r:id="rId392" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{A2AF821A-A186-4A52-B49F-33470EA3DF52}"/>
+    <hyperlink ref="N22" r:id="rId393" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{CB4E2D39-086E-468E-B6FD-BE0C68AC9F0F}"/>
+    <hyperlink ref="B22" r:id="rId394" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{AD209F4A-B1F0-4D01-9A3B-00C5D45B7D09}"/>
+    <hyperlink ref="N21" r:id="rId395" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{DFB7FD08-0AD1-4CD5-BB39-BEA66E846515}"/>
+    <hyperlink ref="B21" r:id="rId396" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{1E3B0950-A0B5-4346-9462-D06D16765968}"/>
+    <hyperlink ref="N20" r:id="rId397" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{DC5AE954-9C5E-4308-8713-097E14BDEFDC}"/>
+    <hyperlink ref="B20" r:id="rId398" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{61213CA1-60BE-46F1-9B13-374E1031D800}"/>
+    <hyperlink ref="N19" r:id="rId399" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{349C6CA1-F1B7-458F-A137-FF2CDE708AC6}"/>
+    <hyperlink ref="B19" r:id="rId400" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{043D91F0-3E93-4DED-AB19-F9BF46247A80}"/>
+    <hyperlink ref="N18" r:id="rId401" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{142E23D5-8834-49EC-92E3-F485751E9698}"/>
+    <hyperlink ref="B18" r:id="rId402" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{84B03F47-D831-4346-9068-24364214C986}"/>
+    <hyperlink ref="N17" r:id="rId403" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{F77707C2-7149-40E2-B2E7-7039CE391FF5}"/>
+    <hyperlink ref="B17" r:id="rId404" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{452B2632-03FD-475D-956C-C370045C954D}"/>
+    <hyperlink ref="N16" r:id="rId405" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{D9299C7A-589F-4B3F-96FE-C4D87A1ECFAA}"/>
+    <hyperlink ref="B16" r:id="rId406" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{BF681935-B65B-4C73-9CAE-BED34E1829BE}"/>
+    <hyperlink ref="N15" r:id="rId407" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{690D20EE-CA59-457B-915C-65006053A269}"/>
+    <hyperlink ref="B15" r:id="rId408" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{5FF2E22E-C593-4A78-BDBE-471407CD82B9}"/>
+    <hyperlink ref="N14" r:id="rId409" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{728F2F14-B300-41F6-92CE-A580AD3EAB6A}"/>
+    <hyperlink ref="B14" r:id="rId410" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{35E79C0B-91F1-49FA-B9C5-41FBACD7942E}"/>
+    <hyperlink ref="N13" r:id="rId411" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{968F68BB-4EB3-4C61-AA9A-C65B359E229C}"/>
+    <hyperlink ref="B13" r:id="rId412" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{5BDA952A-A6E1-479A-AE09-1F07EA2CB722}"/>
+    <hyperlink ref="N12" r:id="rId413" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{709AD5DC-AF2A-428E-9D2B-868290614EF1}"/>
+    <hyperlink ref="B12" r:id="rId414" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{09A5673E-CC9D-4AB9-9A9B-42A61B780E33}"/>
+    <hyperlink ref="N11" r:id="rId415" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{E3CF59FB-C717-44B3-9AD3-602F6AC0C142}"/>
+    <hyperlink ref="B11" r:id="rId416" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A8CF0A25-D409-453E-B88B-BBC611012BEB}"/>
+    <hyperlink ref="N10" r:id="rId417" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{D956F23B-8EB9-4439-825B-4DF36ED524DB}"/>
+    <hyperlink ref="B10" r:id="rId418" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{43C2235B-2A33-4A6D-846F-B625620D9AC9}"/>
+    <hyperlink ref="N9" r:id="rId419" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{8A94BE07-1220-4AD8-AF9E-86A9AC80F71B}"/>
+    <hyperlink ref="B9" r:id="rId420" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{11ABA382-C747-4920-99B5-DA7C4A701D31}"/>
+    <hyperlink ref="N8" r:id="rId421" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{DEBD6CEB-55A1-40A0-9FBF-72A85C712189}"/>
+    <hyperlink ref="B8" r:id="rId422" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{F33D9150-BB53-490E-B223-BA441A0C6F27}"/>
+    <hyperlink ref="N7" r:id="rId423" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{932F22B9-5C5A-4086-9836-97A41A55F4D3}"/>
+    <hyperlink ref="B7" r:id="rId424" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{527DD192-BDA2-481A-A4F0-939C4CDD2330}"/>
+    <hyperlink ref="N6" r:id="rId425" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{E6AC3CB8-6C0B-4073-B30F-7E897E703D19}"/>
+    <hyperlink ref="B6" r:id="rId426" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{6D4F8C3D-ED96-4C86-A8C6-B4990964F628}"/>
+    <hyperlink ref="N5" r:id="rId427" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{06BC1996-396A-476E-8AD8-3A863FBD8786}"/>
+    <hyperlink ref="B5" r:id="rId428" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{2AA839C4-31B2-449B-B01A-1DDC4A318B49}"/>
+    <hyperlink ref="N4" r:id="rId429" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{DB5FFF81-60C9-4CDA-A23D-87926C7A439A}"/>
+    <hyperlink ref="B4" r:id="rId430" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{7A590F23-064F-4C55-853E-3F2A8028BD58}"/>
+    <hyperlink ref="N3" r:id="rId431" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{FED43EE4-502B-47C1-A781-6E70F41C265C}"/>
+    <hyperlink ref="B3" r:id="rId432" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{8CF9F678-0628-494A-81B3-BEE70A54C15D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId433"/>
